--- a/开发文档.xlsx
+++ b/开发文档.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新建文件夹\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864EFBB-1EDC-41BF-997B-60C733F8DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21000" windowHeight="11460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="游戏主角" sheetId="7" r:id="rId1"/>
@@ -19,87 +13,77 @@
     <sheet name="第三章游戏场景" sheetId="4" r:id="rId4"/>
     <sheet name="第四章结束游戏场景" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
-    <t>游戏标题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>1.玩家需要实现基础的移动跳跃</t>
+  </si>
+  <si>
+    <t>2.玩家按下按键主角发射光束子弹</t>
+  </si>
+  <si>
+    <t>3.围绕玩家的视野光圈范围实现</t>
+  </si>
+  <si>
+    <t>3.1玩家视野光圈大小与玩家可用子弹受共同变量影响</t>
+  </si>
+  <si>
+    <t>1.玩家点击开始游戏加载第一个场景</t>
+  </si>
+  <si>
+    <t>2.继续游戏通过直接加载不同关卡的场景实现</t>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>只要实现简单的场景加载即可</t>
   </si>
   <si>
     <t>开始游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Pause</t>
   </si>
   <si>
     <t>继续游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出游戏</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.继续游戏通过直接加载不同关卡的场景实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.玩家点击开始游戏加载第一个场景</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>第三章</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要实现简单的场景加载即可</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.玩家需要实现基础的移动跳跃</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.玩家按下按键主角发射光束子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.围绕玩家的视野光圈范围实现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.1玩家视野光圈大小与玩家可用子弹受共同变量影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -107,19 +91,148 @@
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,15 +242,191 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -146,79 +435,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -227,7 +449,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -235,17 +457,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -255,20 +477,79 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -277,59 +558,314 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -341,23 +877,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="32" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -406,7 +983,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -441,7 +1018,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -615,223 +1192,219 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF0CD77-E94D-4431-AAEF-AF24A20F4D97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="T8:X12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="8" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="20:20">
       <c r="T8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="20:20">
       <c r="T10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="20:24">
       <c r="T12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="X12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="I9:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="9" spans="9:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="2"/>
+    <row r="9" ht="14.75"/>
+    <row r="10" spans="9:20">
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="6"/>
       <c r="T10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="9:20">
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="6"/>
+      <c r="T11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I11" s="11"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="2"/>
-      <c r="T11" t="s">
-        <v>4</v>
+    <row r="12" spans="9:17">
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" s="8" t="s">
+        <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I12" s="11"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3" t="s">
-        <v>0</v>
+      <c r="O12" s="9"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="9:22">
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="6"/>
+      <c r="T13" s="23" t="s">
+        <v>7</v>
       </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I13" s="11"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="2"/>
-      <c r="T13" s="24" t="s">
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="9:17">
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="9:17">
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="9:17">
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="9:17">
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-    </row>
-    <row r="14" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I14" s="11"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I15" s="11"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="9:22" x14ac:dyDescent="0.25">
-      <c r="I16" s="11"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I17" s="11"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="6" t="s">
-        <v>1</v>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="9:17">
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="9:17">
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="12" t="s">
+        <v>9</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I18" s="11"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I19" s="11"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="3" t="s">
-        <v>2</v>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="9:17">
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="9:17">
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="12" t="s">
+        <v>10</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I20" s="11"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I21" s="11"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I22" s="11"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="9:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="7"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="9:17">
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" ht="14.75" spans="9:17">
       <c r="I23" s="13"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -840,137 +1413,137 @@
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="15"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="27" spans="9:17" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="9:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="10"/>
-    </row>
-    <row r="31" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I31" s="11"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" spans="9:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" s="11"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I33" s="11"/>
-      <c r="J33" s="2"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="27" s="1" customFormat="1"/>
+    <row r="29" ht="14.75"/>
+    <row r="30" spans="9:16">
+      <c r="I30" s="2"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
+    </row>
+    <row r="31" spans="9:16">
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="7"/>
+    </row>
+    <row r="32" ht="14.75" spans="9:16">
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="7"/>
+    </row>
+    <row r="33" spans="9:16">
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="18"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" spans="9:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I34" s="11"/>
-      <c r="J34" s="2"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="7"/>
+    </row>
+    <row r="34" ht="14.75" spans="9:16">
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="19"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="21"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I35" s="11"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I36" s="11"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" spans="9:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I37" s="11"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" spans="9:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I38" s="11"/>
-      <c r="J38" s="2"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="7"/>
+    </row>
+    <row r="35" spans="9:16">
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="7"/>
+    </row>
+    <row r="36" spans="9:16">
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="7"/>
+    </row>
+    <row r="37" ht="14.75" spans="9:16">
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="7"/>
+    </row>
+    <row r="38" ht="14.75" spans="9:16">
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="22" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
       <c r="N38" s="22" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I39" s="11"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I40" s="11"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" spans="9:16" x14ac:dyDescent="0.25">
-      <c r="I41" s="11"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" spans="9:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O38" s="6"/>
+      <c r="P38" s="7"/>
+    </row>
+    <row r="39" spans="9:16">
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="7"/>
+    </row>
+    <row r="40" spans="9:16">
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="7"/>
+    </row>
+    <row r="41" spans="9:16">
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="7"/>
+    </row>
+    <row r="42" ht="14.75" spans="9:16">
       <c r="I42" s="13"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
@@ -982,59 +1555,64 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L17:M17"/>
     <mergeCell ref="K33:N34"/>
+    <mergeCell ref="N12:O13"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC21FA0-7A17-43D0-962F-FBCEFF1E72F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BD27C8-31B0-467D-9E05-3611C1613F98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444A8FE9-DBA9-4BEF-B32F-3BDA779AC350}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/开发文档.xlsx
+++ b/开发文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="25600" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="游戏主角" sheetId="7" r:id="rId1"/>
@@ -19,9 +19,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
-    <t>是主角?</t>
+    <t>点亮星石将升级主角光圈的最高光能
+光能：光能的多少会表现在光圈的大小上
+光能会因为发射光段而消耗，会通过捡拾前人的余光而恢复。可通过点亮的星石回满，初始光能以及上限为3点，每点亮一个星石光能上限加一。</t>
+  </si>
+  <si>
+    <t>主角</t>
+  </si>
+  <si>
+    <t>星光</t>
+  </si>
+  <si>
+    <t>移动：AD控制左右移动
+跳跃：空格跳跃
+冲刺：shift冲刺，WASD键控制冲刺方向，在落地之前只能进行一次冲刺。
+射击：j键射出光段，有上下左右四个方向，左右方向由主角朝向决定，上下方向由按WS键决定，可消灭敌人，也有光圈。
+推拉：k键推动和拉取可移动目标
+点亮：f键点亮人们或星石
+对话：f键对话</t>
   </si>
   <si>
     <t>1.玩家需要实现基础的移动跳跃</t>
@@ -34,6 +51,9 @@
   </si>
   <si>
     <t>3.1玩家视野光圈大小与玩家可用子弹受共同变量影响</t>
+  </si>
+  <si>
+    <t>以主角自身高度为1格，跳跃高度为1.5格，跳跃最长宽度为2.5格，冲刺同理。</t>
   </si>
   <si>
     <t>Boss是黑暗而又邪恶的设计师,因为想不到其他的游戏剧情而编造一个偷窃光明的Boss</t>
@@ -191,7 +211,7 @@
     <t>其他攻击特效也会变成白色</t>
   </si>
   <si>
-    <t>1.玩家点击开始游戏UI上移，坐着的主角播放站立动画，进入可以控制状态。</t>
+    <t>1.玩家点击开始游戏UI上移渐变消失，坐着的主角播放站立动画，进入可以控制状态。</t>
   </si>
   <si>
     <t>2.继续游戏通过直接加载不同关卡的场景实现</t>
@@ -212,13 +232,37 @@
     <t>继续游戏</t>
   </si>
   <si>
-    <t>主角</t>
-  </si>
-  <si>
     <t>退出游戏</t>
   </si>
   <si>
     <t>Pause</t>
+  </si>
+  <si>
+    <t>光照明度</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>45度的镜子，将冲进来的星光改变方向发射出去。发射距离10格</t>
+  </si>
+  <si>
+    <t>星石</t>
+  </si>
+  <si>
+    <t>我本是守护星石的人，可某天山洞外面突然刮起了黑风，让我睁不开眼睛。</t>
+  </si>
+  <si>
+    <t>守候者</t>
+  </si>
+  <si>
+    <t>我无法点亮星石帮助你们，剩下的星石在山上，请一定要小心啊。</t>
+  </si>
+  <si>
+    <t>如果遇到跳不到的地方，不妨按下SHIFT键试试看吧。</t>
+  </si>
+  <si>
+    <t>这山上还有前人留下的镜子，若要使用它，那就冲进去吧。</t>
   </si>
   <si>
     <t>这几个蛋和黑线方便Boss的素材复用</t>
@@ -261,7 +305,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,20 +323,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -636,7 +666,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -780,12 +810,52 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -812,6 +882,70 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -822,7 +956,20 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -966,46 +1113,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1014,46 +1167,40 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,56 +1209,56 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyBorder="1" applyAlignment="1"/>
@@ -1157,25 +1304,84 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1196,10 +1402,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,21 +1415,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="39" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="39" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="39" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="39" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="39" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="39" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1287,37 +1523,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380280</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>98100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>198720</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>21900</xdr:rowOff>
-    </xdr:to>
-    <xdr:contentPart xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" r:id="rId1">
-      <xdr14:nvContentPartPr>
-        <xdr14:cNvPr id="7" name="墨迹 6"/>
-        <xdr14:cNvContentPartPr/>
-      </xdr14:nvContentPartPr>
-      <xdr14:nvPr/>
-      <xdr14:xfrm>
-        <a:off x="5866130" y="631190"/>
-        <a:ext cx="504190" cy="1346200"/>
-      </xdr14:xfrm>
-    </xdr:contentPart>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3035,7 +3240,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3489,8 +3694,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>3480</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>188225</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:contentPart xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" r:id="rId18">
       <xdr14:nvContentPartPr>
@@ -3500,7 +3705,7 @@
       <xdr14:nvPr/>
       <xdr14:xfrm>
         <a:off x="14324965" y="5141595"/>
-        <a:ext cx="765810" cy="2037715"/>
+        <a:ext cx="765810" cy="2037080"/>
       </xdr14:xfrm>
     </xdr:contentPart>
     <xdr:clientData/>
@@ -3732,79 +3937,23 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:36:53"/>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:39:26"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
       <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
+      <inkml:brushProperty name="color" value="#e71224"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">595 1336 24575,'-1'2'0,"0"0"0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 1 0,-2 0 0,-39 19 0,37-19 0,-1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,0 0 0,0 0 0,-7-7 0,0-2 0,1 0 0,0-1 0,1-1 0,1 1 0,0-2 0,2 1 0,-1-1 0,-7-21 0,2 2 0,3 12 0,2 0 0,0 0 0,2-1 0,-6-35 0,7 27 0,-2-1 0,-12-33 0,-1-1 0,0-39 0,15 69 0,2-1 0,2 0 0,4-72 0,1 23 0,-5 5 0,4-89 0,-1 166 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,7-7 0,-4 5 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 1 0,14-5 0,-3 2 0,1 1 0,0 1 0,0 1 0,1 1 0,-1 1 0,28 0 0,-28 2 0,13-1 0,45 7 0,-67-4 0,1 0 0,-1 1 0,0 0 0,0 1 0,0 0 0,0 1 0,15 10 0,62 30 0,-57-30 0,29 18 0,-52-27 0,-1 1 0,0 0 0,0 0 0,0 1 0,-1 0 0,8 13 0,8 8 0,81 80 0,-8-9 0,-82-85 0,-1 2 0,-1-1 0,-1 1 0,17 37 0,-17-30 0,-4-13 0,-1 1 0,0 0 0,-1 0 0,-1 0 0,0 1 0,0-1 0,0 23 0,-2-12 0,-1 0 0,-2 1 0,-8 44 0,8-60 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1-1 0,0 0 0,0 0 0,-1 0 0,0 0 0,0-1 0,-1 1 0,1-1 0,-2-1 0,-10 9 0,8-8 0,-3 3 0,0 0 0,0 1 0,-16 16 0,24-22 0,-1 0 0,0 0 0,0-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1-1 0,-1 0 0,0 0 0,-9 1 0,7-1 0,0 0 0,0 1 0,1 0 0,-1 0 0,-13 8 0,-6 9 0,4-4 0,0 0 0,-39 19 0,-23 11 0,-16 2 0,97-46 0,0 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 0 0,-3 6 0,3 0 0,-1 1 0,2-1 0,-1 0 0,1 1 0,1-1 0,1 14 0,-1 4 0,2-1 0,1 0 0,1 0 0,1 0 0,1-1 0,2 0 0,1 0 0,16 33 0,-9-31 0,-11-20 0,0 0 0,0 0 0,-1 0 0,-1 0 0,5 14 0,8 40 0,-3-19 0,-3 0 0,-1 1 0,-2 0 0,2 58 0,-10 300 0,0-387 0,-1 0 0,0-1 0,-1 1 0,0-1 0,-1 0 0,-7 18 0,-3-1 0,-26 48 0,13-36 0,14-23 0,1 0 0,0 1 0,-10 30 0,-7 11 0,10-24 0,-6 9 0,18-34 0,0-1 0,1 1 0,0 1 0,-4 17 0,-1 4 0,0-1 0,-27 53 0,30-70 0,2-2 0,1 0 0,1 1 0,-4 28 0,0-3 0,3-10-13,2 1-1,1-1 1,3 57 0,1-24-1299,-2-46-5514</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">637 2902 24575,'36'-1'0,"-18"0"0,0 1 0,-1 0 0,1 1 0,-1 1 0,1 0 0,-1 1 0,0 1 0,0 1 0,18 7 0,11 5 0,-39-15 0,0 0 0,0 0 0,0 1 0,-1 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,6 5 0,1 4 0,1 1 0,-2 0 0,0 1 0,-1 0 0,0 1 0,-1 0 0,-1 1 0,0 0 0,-2 0 0,0 1 0,-1 0 0,0 0 0,-2 1 0,0-1 0,-1 1 0,-1 0 0,0 21 0,-3 278-1365,1-300-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">277 1611 24575,'-3'1'0,"0"-1"0,1 1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-3 4 0,-23 26 0,-7 22 0,26-38 0,0-2 0,-20 24 0,23-29 0,-1 0 0,2 0 0,-1 1 0,1 0 0,1 0 0,-6 18 0,-15 29 0,12-32 0,0 0 0,-9 27 0,19-41 0,-1 0 0,1 0 0,1 1 0,0-1 0,1 1 0,0-1 0,1 19 0,0-29 3,0 1 0,0-1 0,0 1 1,0-1-1,0 1 0,0-1 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,1 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 0 1,0 0-1,0 0 0,0 1 0,0-1 0,0 0 0,0-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 1 0,-1-1 1,1 1-1,-1-1 0,1 0 0,-1 0 0,1 0 0,2 0 0,0 0-102,-1-1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,0 1 0,1-1 0,-1 0 0,0-1 0,0 1 0,-1-1 0,5-4 0,2-4-6727</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">425 1548 24575,'7'0'0,"0"1"0,1 1 0,-1-1 0,0 1 0,0 0 0,0 1 0,8 4 0,50 27 0,-46-23 0,18 15 0,-32-22 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 0 0,0 0 0,1 0 0,10 2 0,-9-4 0,-1 1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,-1 1 0,1 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,5 7 0,9 12 0,-2 0 0,18 30 0,-21-29 0,33 40 0,-39-56 0,-1 0 0,0 1 0,-1 0 0,0 0 0,-1 1 0,0 0 0,-1 0 0,0 0 0,-1 1 0,0-1 0,0 1 0,-2 0 0,4 23 0,-4-10 0,8 35 0,-2-17 0,-1-16-50,-5-24-12,-1-1-1,0 1 0,0 0 1,0 0-1,0 0 1,0 0-1,-1 0 0,1 0 1,-1 0-1,0 0 0,0 0 1,0 0-1,0 1 0,0-1 1,-1 0-1,0 0 1,1 0-1,-1 0 0,0-1 1,-2 5-1,-6 2-6763</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 214 24575,'1'34'0,"1"0"0,3 0 0,0 0 0,16 49 0,-19-70 0,0-1 0,-1 0 0,0 1 0,-1 16 0,-1-19 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,5 14 0,-6-22 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,5 0 0,10 1 0,0 0 0,27-4 0,-18 2 0,2 0 0,0-1 0,53-9 0,-58 6 0,39-1 0,-38 4 0,36-6 0,-31 2 0,34-8 0,-58 12 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,7-6 0,-9 6 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-8 0,-2-56 0,-1 40 0,3-26 0,0 37 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-4-22 0,3 28 0,-2 0 0,1 0 0,-1 0 0,0 1 0,-7-9 0,-15-25 0,13 12 0,9 17 0,0 1 0,-1 0 0,-11-15 0,15 24 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,-4-1 0,-25 0 0,-60 4 0,28 0 0,48 0 0,-1 1 0,1 0 0,1 1 0,-1 1 0,1 1 0,-29 13 0,23-9 0,15-8 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0-1 0,1 1 0,0 12 0,1 6 17,1-1-1,2 0 0,13 48 0,0-2-1446,-15-54-5396</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 738 24575,'0'5'0,"1"0"0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,2 3 0,12 25 0,-10-9 0,-1 1 0,-1-1 0,-1 1 0,-1 0 0,-1 1 0,-2 32 0,0-42 0,2 0 0,6 29 0,2 25 0,-9-40 0,-1-6 0,1-1 0,1 0 0,7 33 0,-4-28 0,-1 2 0,-2-1 0,-1 0 0,-3 37 0,1-5 0,0-46 0,-1 1 0,-6 28 0,4-28 0,1 1 0,-2 21 0,5-19 0,0 0 0,-2 0 0,0-1 0,-2 1 0,0-1 0,-11 30 0,12-36 0,-1 0 0,2 0 0,0 0 0,0 0 0,1 1 0,0 19 0,1-17 0,0 0 0,-2 0 0,-4 24 0,-4 13-1365,8-36-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">488 1725 24575,'3'0'0,"1"0"0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-2 0 0,1-1 0,0 1 0,0 1 0,0-1 0,4 4 0,4 6 0,-1 1 0,11 15 0,5 6 0,-7-13 0,-10-13 0,-2 0 0,1 1 0,-1 0 0,0 0 0,-1 0 0,0 1 0,-1 0 0,8 19 0,14 39 19,-19-52-249,-1 0-1,-1 1 0,-1 0 0,0 0 1,2 19-1,-6-19-6595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">297 1116 24575,'1'0'0,"0"1"0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 3 0,10 26 0,-8-22 0,9 23 0,-2-1 0,-1 1 0,-1 0 0,-2 1 0,-1 0 0,-2 0 0,0 41 0,-3-61-227,0-1-1,1 1 1,0-1-1,0 1 1,4 12-1,0-9-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 1011 24575,'6'0'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,-1 0 0,1 1 0,-1 0 0,1 1 0,-1-1 0,9 9 0,2 4 0,0 0 0,23 34 0,-1-3 0,-3 2 0,-26-35 0,1-1 0,16 17 0,-17-19 0,-1 0 0,0 1 0,0-1 0,-1 1 0,5 13 0,12 19 0,-11-16-1365,-8-14-5461</inkml:trace>
 </inkml:ink>
 </file>
 
 <file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:50:24"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14435 2 24575</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">14350 2 24575,'-11'0'0,"-5"-1"0,-1 1 0,1 0 0,0 1 0,0 1 0,-1 1 0,1 0 0,1 1 0,-30 12 0,25-8 0,0-1 0,-1-1 0,-40 8 0,-13 2 0,-75 43 0,109-46 0,27-8 0,0-1 0,1 0 0,-2-1 0,-22 3 0,-3-2 0,0 2 0,0 1 0,1 3 0,0 1 0,-44 18 0,67-24 0,-1-1 0,1 0 0,-1-1 0,-29 1 0,31-4 0,0 1 0,0 1 0,0 1 0,0 0 0,1 0 0,-23 10 0,6-1 0,-1-1 0,-40 9 0,41-12 0,-256 88 0,252-80 0,25-10 0,-1-2 0,1 0 0,-17 5 0,10-5 0,-21 5 0,1 2 0,-37 15 0,52-17 0,0-1 0,0-2 0,-1 0 0,-26 3 0,-58 12 0,79-16 0,0 2 0,-38 15 0,-12 4 0,-7 6 0,62-23 0,0 0 0,-36 9 0,-17 2 0,45-11 0,-33 5 0,-128 27 0,140-29 0,-57 20 0,-9 3 0,-18-13 0,59-3 0,47-10 0,-1-1 0,-1-2 0,-48 4 0,54-8 0,1 1 0,0 1 0,-26 8 0,27-6 0,-1-1 0,1-1 0,-38 2 0,35-4 0,-1 1 0,1 1 0,-37 10 0,-29 6 0,48-14 0,5 1 0,-68 1 0,77-7 0,-48 9 0,47-5 0,-42 1 0,56-5 0,-1 1 0,-22 6 0,22-4 0,-37 2 0,16-4 0,-1 1 0,1 2 0,-50 14 0,34-6 0,-107 10 0,98-13 0,-20 0 0,70-8 0,-1 0 0,0 0 0,0 2 0,-23 8 0,23-7 0,0 0 0,0-1 0,-1-1 0,-16 2 0,1-1 0,1 1 0,-1 2 0,1 1 0,-57 24 0,-21 6 0,-149 46 0,187-64 0,47-14 0,1 1 0,-30 13 0,18-6 0,0-2 0,-1 0 0,0-3 0,-1-1 0,-64 7 0,52-6 0,-12 1 0,-25 1 0,56-6 0,-46 2 0,58-7 0,-7-1 0,0 2 0,-1 1 0,-42 8 0,39-4 0,-39 2 0,-20 4 0,54-4 0,-166 32 0,176-36 0,-42 14 0,3 1 0,59-19 0,-43 11 0,-71 24 0,68-11 0,39-18 0,-1-1 0,1 1 0,-1-2 0,-1 0 0,1 0 0,0-1 0,-15 2 0,15-4 0,1 1 0,-1 0 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 1 0,1 0 0,-17 11 0,17-12 0,0 1 0,0-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,-17 2 0,12-2 0,1 0 0,-25 9 0,-210 75 0,214-75 0,-71 13 0,69-17 0,-62 19 0,74-17 0,0-1 0,-1-1 0,0-2 0,0-1 0,-44 2 0,43-4 0,-46 9 0,12-1 0,21-4 0,-56 18 0,42-9 0,-124 16 0,155-27 0,-1-1 0,-44 0 0,45-3 0,-1 1 0,1 1 0,-25 5 0,-57 16 0,84-19 0,0 0 0,-24-1 0,22-1 0,-37 6 0,-50 11 0,-24 6 0,78-9 0,19-4 0,-62 10 0,-134 22 0,0-3 0,103-19 0,75-12 0,-28 1 0,-9 0 0,63-6 0,-48 2 0,51-5 0,-41 7 0,-22 1 0,57-9 0,-220 14 0,53 22 0,188-34 0,-36 6 0,21-5 0,0 1 0,-37 14 0,49-15 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1 0,-16-1 0,10 0 0,1 1 0,-26 5 0,4 0 0,-1-2 0,1-2 0,-57-3 0,-61 3 0,134 2 0,0 1 0,-32 10 0,-7 2 0,39-11 0,2-1 0,0 0 0,0-2 0,-29 1 0,-775-5 0,811 2 0,0 1 0,-28 6 0,27-4 0,0-1 0,-20 1 0,-51-5 0,-36 2 0,66 10 0,43-8 0,1 0 0,-26 2 0,-3-4 0,6-1 0,0 2 0,-37 7 0,32-2-1365,24-5-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink100.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T03:06:49"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-      <inkml:brushProperty name="color" value="#008c3a"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2124 1504 24575,'0'-2'0,"-1"1"0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,-2-1 0,-40-16 0,39 16 0,-20-6 0,0 1 0,-49-6 0,-19-4 0,-2-5 0,47 11 0,-79-27 0,102 30 0,1 2 0,-1 0 0,0 2 0,-50-3 0,50 6 0,1-1 0,0-1 0,-1-1 0,1-2 0,-35-11 0,-30-28 0,59 29 0,0 1 0,-36-12 0,-69-5 0,-7-3 0,-105-58 0,204 75 0,-63-16 0,-11-4 0,91 26 0,0-1 0,2-1 0,-43-33 0,62 42 0,0 0 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,-1-10 0,0-10 0,1 1 0,2 0 0,4-31 0,-4 47 1,1 0-1,0 0 1,1 0-1,0 0 0,1 1 1,0-1-1,0 1 1,1 0-1,0 0 1,1 1-1,0-1 0,0 1 1,9-9-1,7-3-2,1 0-1,1 2 0,28-18 0,-20 15-319,32-29 0,-47 36 295,0 1 0,1 1 0,0 1 0,1 0 0,24-9 0,106-34 658,-32 14-451,-91 31-180,38-8 0,-1 1 0,-38 9 0,1 2 0,43-3 0,-40 5 0,52-11 0,-46 5 0,0 3 0,1 1 0,39-1 0,110 8 0,-72 0 0,580-2 0,-674 1 0,0 1 0,-1 0 0,0 1 0,1 2 0,-1-1 0,-1 2 0,1 0 0,-1 2 0,26 14 0,-34-17 0,0 1 0,0 1 0,0 0 0,10 11 0,-12-11 0,1 1 0,0-2 0,1 1 0,15 9 0,-13-11 0,-1 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,1 1 0,-1 0 0,13 19 0,-6-9 0,-2 1 0,-1 0 0,0 1 0,-1 1 0,-1 0 0,-1 0 0,-1 1 0,-1 0 0,-1 0 0,5 40 0,-7 18 0,-4-55 0,0 0 0,3-1 0,7 41 0,0-19 0,-3 0 0,-1 0 0,-2 0 0,-3 1 0,-7 82 0,4-118 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,0 0 0,-8 13 0,-5 4 0,-24 31 0,38-54 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,-8 4 0,-2-2 0,0 0 0,-25 2 0,24-4 0,0 1 0,-24 7 0,-48 27 0,66-27 0,0 0 0,-1-1 0,0-1 0,0-2 0,0 0 0,-42 4 0,-102-9-21,105-3-1323,29 2-5482</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3832,7 +3981,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3864,7 +4013,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3908,7 +4057,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3945,7 +4094,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3991,7 +4140,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4125,7 +4274,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4157,7 +4306,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4219,7 +4368,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4247,39 +4396,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:39:26"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#e71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 214 24575,'1'34'0,"1"0"0,3 0 0,0 0 0,16 49 0,-19-70 0,0-1 0,-1 0 0,0 1 0,-1 16 0,-1-19 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,5 14 0,-6-22 0,1 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,0-1 0,0 1 0,-1-1 0,5 0 0,10 1 0,0 0 0,27-4 0,-18 2 0,2 0 0,0-1 0,53-9 0,-58 6 0,39-1 0,-38 4 0,36-6 0,-31 2 0,34-8 0,-58 12 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,7-6 0,-9 6 0,-1 0 0,0 0 0,0-1 0,0 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,0-1 0,0 0 0,0 0 0,-1 1 0,1-8 0,-2-56 0,-1 40 0,3-26 0,0 37 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-4-22 0,3 28 0,-2 0 0,1 0 0,-1 0 0,0 1 0,-7-9 0,-15-25 0,13 12 0,9 17 0,0 1 0,-1 0 0,-11-15 0,15 24 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,-4-1 0,-25 0 0,-60 4 0,28 0 0,48 0 0,-1 1 0,1 0 0,1 1 0,-1 1 0,1 1 0,-29 13 0,23-9 0,15-8 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 1 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0-1 0,0 1 0,1 0 0,0-1 0,1 1 0,0 12 0,1 6 17,1-1-1,2 0 0,13 48 0,0-2-1446,-15-54-5396</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 738 24575,'0'5'0,"1"0"0,0 0 0,0 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,1 1 0,2 3 0,12 25 0,-10-9 0,-1 1 0,-1-1 0,-1 1 0,-1 0 0,-1 1 0,-2 32 0,0-42 0,2 0 0,6 29 0,2 25 0,-9-40 0,-1-6 0,1-1 0,1 0 0,7 33 0,-4-28 0,-1 2 0,-2-1 0,-1 0 0,-3 37 0,1-5 0,0-46 0,-1 1 0,-6 28 0,4-28 0,1 1 0,-2 21 0,5-19 0,0 0 0,-2 0 0,0-1 0,-2 1 0,0-1 0,-11 30 0,12-36 0,-1 0 0,2 0 0,0 0 0,0 0 0,1 1 0,0 19 0,1-17 0,0 0 0,-2 0 0,-4 24 0,-4 13-1365,8-36-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">488 1725 24575,'3'0'0,"1"0"0,-1 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,1 1 0,-2 0 0,1-1 0,0 1 0,0 1 0,0-1 0,4 4 0,4 6 0,-1 1 0,11 15 0,5 6 0,-7-13 0,-10-13 0,-2 0 0,1 1 0,-1 0 0,0 0 0,-1 0 0,0 1 0,-1 0 0,8 19 0,14 39 19,-19-52-249,-1 0-1,-1 1 0,-1 0 0,0 0 1,2 19-1,-6-19-6595</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">297 1116 24575,'1'0'0,"0"1"0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,0-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 3 0,10 26 0,-8-22 0,9 23 0,-2-1 0,-1 1 0,-1 0 0,-2 1 0,-1 0 0,-2 0 0,0 41 0,-3-61-227,0-1-1,1 1 1,0-1-1,0 1 1,4 12-1,0-9-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 1011 24575,'6'0'0,"0"1"0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,-1 0 0,1 1 0,-1 0 0,1 1 0,-1-1 0,9 9 0,2 4 0,0 0 0,23 34 0,-1-3 0,-3 2 0,-26-35 0,1-1 0,16 17 0,-17-19 0,-1 0 0,0 1 0,0-1 0,-1 1 0,5 13 0,12 19 0,-11-16-1365,-8-14-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4315,7 +4432,69 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:38:20"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3144 1395 24575,'-21'2'0,"1"0"0,-1 2 0,1 0 0,0 2 0,0 0 0,-27 13 0,-39 11 0,48-18 0,-62 31 0,28-10 0,-23 13 0,36-16 0,45-24 0,0-1 0,0-1 0,-16 3 0,-33 11 0,31-4 0,-94 32 0,112-41 0,1 0 0,-1 1 0,1 1 0,-18 12 0,18-11 0,0 0 0,-1-1 0,0-1 0,-15 6 0,-17 0 0,32-10 0,0 1 0,1 1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-22 15 0,21-12 0,-1 0 0,0-1 0,0-1 0,-1 0 0,-31 9 0,-7 3 0,44-16 0,1 0 0,-1-1 0,1 0 0,-17 0 0,18-2 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-10 6 0,-5 4 0,0-2 0,-1-1 0,0 0 0,-36 7 0,34-9 0,0 0 0,1 1 0,-46 24 0,15-4-1365,43-21-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1197 2221 24575,'1'12'0,"2"0"0,-1 0 0,2 0 0,-1 0 0,2 0 0,-1-1 0,2 0 0,10 17 0,22 35 0,53 63 0,-85-119 0,68 82 0,-28-32 0,-33-43 0,-1 0 0,-1 1 0,15 25 0,-7-10 0,1-1 0,2-1 0,1 0 0,37 35 0,3 3 0,-44-45 0,29 36 0,-11 1 0,-24-35 0,1-1 0,2-1 0,21 24 0,-21-29 0,0 1 0,-2 0 0,0 1 0,-1 1 0,-1 0 0,11 23 0,-9-15 0,2 0 0,35 45 0,-40-57 0,-5-6-136,-1 0-1,0 0 1,0 1-1,-1 0 1,0-1-1,0 2 1,-1-1-1,-1 0 0,3 16 1,-4-9-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3165 1247 24575,'3'0'0,"0"1"0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,2 3 0,34 41 0,-20-23 0,39 51 0,67 116 0,-49-71 0,-31-50 0,-14-20 0,42 53 0,-36-61 0,-20-24 0,-1 0 0,-1 1 0,-1 1 0,13 21 0,-15-16 0,0-2 0,2 0 0,1 0 0,1-1 0,0-1 0,34 34 0,-25-31 0,31 40 0,-36-40 0,-8-9 0,-2 1 0,0 0 0,11 24 0,-14-25 0,19 45 0,-19-42 0,1 0 0,0 0 0,15 22 0,-5-6-1365,-12-17-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2170 3893 24575,'9'-1'0,"0"0"0,0 0 0,0-1 0,10-3 0,31-6 0,-37 11 0,1-1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0-1 0,16-7 0,39-12 0,-52 19 0,-1-1 0,1-1 0,22-11 0,-9 2 0,51-18 0,-60 26 0,1 0 0,-1-2 0,-1-1 0,0 0 0,34-25 0,-31 17 0,0 1 0,2 1 0,0 0 0,28-12 0,15 3 0,-44 18 0,-2-2 0,40-20 0,-19 6 0,1 1 0,82-29 0,-109 46 0,1-1 0,-1 0 0,0-2 0,-1 0 0,0 0 0,17-14 0,-24 17 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,19-4 0,-16 5 0,1-1 0,-1-1 0,14-6 0,-11 2 0,0 1 0,1 1 0,0 0 0,32-8 0,-39 11 0,1 1 0,-2-1 0,1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,7-7 0,-5 3 0,1 2 0,0-1 0,20-9 0,17-9 0,-31 16 0,36-14 0,-20 10-1365,-19 9-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2784 3872 24575,'1'12'0,"1"0"0,0 0 0,1 0 0,0 0 0,1-1 0,9 21 0,4 12 0,-4-11 0,2-1 0,2 0 0,0-2 0,29 38 0,19 34 0,-35-46 0,-15-26 0,1-2 0,39 54 0,-49-74 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 1 0,2 14 0,10 26 0,-4-28 0,0 1 0,20 27 0,-4-9 0,-13-19 0,23 26 0,-24-31 0,0 0 0,19 31 0,24 40 0,-14-27 0,103 169 0,-104-177 47,-22-30-1459,-12-13-5414</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3694 5798 24575,'-1'34'0,"2"1"0,1-1 0,1 0 0,15 63 0,-12-74 0,-1 1 0,-1 0 0,0 35 0,-1-21 0,6 20 0,-5-41 0,-1-1 0,0 21 0,-4 50 0,2 37 0,10-67 0,-8-41 0,0 0 0,1 22 0,-5 67 0,2 44 0,10-92 0,-8-41 0,0 0 0,1 22 0,-4 89-1365,0-109-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4456 3364 24575,'1'9'0,"1"-1"0,1 1 0,-1-1 0,2 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,9 10 0,3 7 0,84 116 0,-32-49 0,-58-74 0,0 1 0,-1 0 0,12 33 0,-14-37 0,0-1 0,0 0 0,2 0 0,0-1 0,15 17 0,15 18 0,-32-36 0,19 26 0,0-2 0,65 65 0,17 13 0,34 14 0,-95-89 0,40 38 0,-54-49 0,-28-24 0,1 0 0,-1 1 0,-1 0 0,1 0 0,9 12 0,-6-6 0,0 0 0,20 17 0,-18-18 0,-1 0 0,15 18 0,-20-22 0,1 0 0,0 0 0,0-1 0,0 0 0,15 9 0,-14-10 0,0 1 0,0 0 0,-1 1 0,1-1 0,9 12 0,-8-4-45,15 14-1275,-12-20-5506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5896 5120 24575,'1'21'0,"2"0"0,0-1 0,1 1 0,2-1 0,8 25 0,11 41 0,-20-68 0,13 35 0,-12-41 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,3 21 0,-3-4 0,3-1 0,0 0 0,2 0 0,21 53 0,5 16 0,10 50 0,-25-73 0,28 103 0,-20-74 0,10 33 0,-20-80 0,-12-36 0,15 35 0,-16-46 0,-1 0 0,-1 0 0,1 0 0,0 14 0,-1-14 0,-1 0 0,1-1 0,1 1 0,6 16 0,13 18 0,-13-27 0,0 0 0,-2 0 0,0 1 0,6 22 0,-9-28 20,0 0 1,0-1-1,1 1 0,1-1 0,12 19 1,-11-20-269,-1 0 0,0 1 0,-1-1 0,0 2 1,6 20-1,-8-17-6578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3589 7343 24575,'-41'0'0,"9"-1"0,1 1 0,-1 2 0,-54 10 0,69-9 0,-1-1 0,1-1 0,-25 0 0,30-2 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 1 0,1-1 0,-1 2 0,-12 5 0,6-1 0,0 0 0,0-2 0,0 0 0,-1-1 0,0 0 0,0-2 0,-21 1 0,-139-3 0,83-3 0,-285 2 0,365 1 0,0 0 0,-28 8 0,27-6 0,0 0 0,-21 1 0,-33-5-23,51-1-201,0 1 1,1 1-1,-1 1 0,0 1 1,-34 7-1,41-4-6602</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1726 7597 24575,'-1'3'0,"0"0"0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,-3 6 0,-5 6 0,-12 14 0,19-24 0,0 1 0,0 0 0,0 0 0,-6 10 0,-5 12 0,-2 0 0,-29 36 0,26-37 0,8-11 0,-2 1 0,0-2 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,0-1 0,-1 0 0,0-1 0,-36 12 0,-55 28-70,-18 6-432,63-30 502,-121 64 0,160-75 0,1 1 0,-1-1 0,0-2 0,-1-1 0,-34 11 0,31-13 0,1 2 0,1 1 0,-1 1 0,2 2 0,-33 22 0,-2-4 240,47-27-185,1 0 1,0 1-1,0 1 1,1 0-1,-16 14 0,21-16-250,0-1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-15 6 0,9-6-6631</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7123 7174 24575,'2'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,2 4 0,10 10 0,6 0 0,31 17 0,8 7 0,-41-29 0,0-1 0,0-1 0,1 0 0,0-1 0,1-1 0,0-1 0,34 6 0,-20-4 0,49 19 0,120 45-116,-170-60 19,0-2 0,1-2 0,0-1 0,0-1 0,38 1 0,81 13 97,-28 1 0,-69-14 0,-3 0 0,61 1 0,741-9-667,-836 1-6159</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9452 7745 24575,'1'6'0,"0"0"0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,6 9 0,6 19 0,-1 23 0,-11-44 0,1 0 0,0 0 0,1 0 0,0-1 0,1 0 0,8 16 0,46 94 0,-2-5 0,-17-51 0,-11-19 0,-2 0 0,35 85 0,-56-115 0,2-1 0,0 0 0,1-1 0,0 0 0,2-1 0,-1 0 0,2 0 0,21 20 0,-5 0 0,-24-28 0,1 0 0,0 0 0,0 0 0,0 0 0,13 9 0,5 2-1365,-14-8-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">392 8676 24575,'-3'0'0,"0"1"0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-2 2 0,-33 40 0,17-19 0,-5 8 0,21-27 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-9 8 0,4-4 0,-1 1 0,2 1 0,-1 0 0,-14 20 0,-17 19 0,13-21-682,-42 31-1,61-52-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1324 2496 24575,'-10'1'0,"1"1"0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,1 2 0,-1-1 0,1 1 0,0 0 0,0 0 0,-8 9 0,6-7 0,0 1 0,0-1 0,-1-1 0,0 0 0,0-1 0,-18 7 0,14-8 0,1 2 0,-1-1 0,-13 9 0,-18 8 0,30-16 0,-23 9 0,-54 28 0,28-3-1365,53-33-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">795 3131 24575,'1'4'0,"0"0"0,0 0 0,1 0 0,0 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 4 0,7 10 0,-15-16 0,18 21 0,19 30 0,-33-43 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,2 14 0,2 4 0,2 0 0,0 0 0,2-1 0,1 0 0,16 26 0,-8-14 0,31 76 0,-29-63 0,44 77 0,-51-101-1365,-11-14-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1260 4020 24575,'19'-1'0,"-1"-1"0,1-1 0,-1-1 0,0 0 0,0-1 0,0-1 0,-1-1 0,23-11 0,-24 12 0,0 0 0,0 1 0,30-4 0,-30 6 0,-1 0 0,1 0 0,-1-2 0,27-11 0,-31 9 0,1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,21-2 0,-21 3 0,-1-1 0,0 0 0,1-1 0,-1 0 0,0-1 0,0-1 0,16-8 0,-11 5 0,0 1 0,28-7 0,80-9 0,-92 16-1365,-19 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2192 3554 24575,'2'0'0,"0"0"0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,-1-1 0,1 1 0,1 1 0,3 8 0,-1 0 0,6 22 0,-2-6 0,3 7 0,-2 0 0,8 49 0,-14-65-1365,-2-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6996 506 24575,'-6'2'0,"0"0"0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 1 0,-5 4 0,9-6 0,-9 7 0,1 1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 1 0,-1 0 0,1 0 0,-8 21 0,-1 0 0,6-12 0,-11 38 0,14-40 0,0 1 0,-17 31 0,14-30 0,0 0 0,-13 45 0,-5 9 0,25-65 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,0 0 0,2 18 0,-1-15 0,0 0 0,-1 0 0,-6 27 0,-62 209 0,67-241 0,-3 14 0,-1 0 0,-2-1 0,0 1 0,-1-1 0,-23 39 0,26-50 0,0 1 0,1 1 0,0-1 0,1 1 0,-5 23 0,5-20 0,0 0 0,-1 0 0,-8 16 0,-82 162 0,90-183 0,2 1 0,-6 23 0,7-23 0,-1-1 0,0 0 0,-8 19 0,-15 23 0,-36 52 0,51-88 0,1 0 0,0 0 0,2 0 0,-10 28 0,12-30 0,0 0 0,-2 0 0,-14 21 0,-1 2 0,-12 15 0,27-44 0,1 1 0,0 0 0,1 0 0,0 0 0,-8 22 0,3-3 0,-1-1 0,-1-1 0,-2 0 0,-21 30 0,18-27 0,12-19 0,-1 1 0,0-2 0,-13 16 0,11-15 0,1 0 0,0 0 0,-9 19 0,10-17 0,0-1 0,-1-1 0,-13 17 0,16-22 0,0 1 0,1 0 0,-1 0 0,2 0 0,-6 12 0,-13 24 0,-58 90 0,72-120 0,-19 31 0,-2-2 0,-47 52 0,55-70 0,-22 20 0,32-34 0,1 1 0,0 0 0,0 0 0,1 1 0,-10 18 0,12-18 0,-1 0 0,1-1 0,-2 0 0,0-1 0,0 0 0,-16 13 0,18-17 0,0 0 0,0 1 0,1 0 0,-7 7 0,8-7 0,-1 0 0,0-1 0,0 1 0,-14 9 0,-59 44 0,65-50 0,1 0 0,0 1 0,0 1 0,1 0 0,0 0 0,-13 21 0,-25 24 0,0-11 0,-1-3 0,-81 52 0,81-57 0,36-26 0,-1 0 0,0-1 0,-1-1 0,-31 15 0,-28 8 0,-82 48 0,137-69-120,10-4-35,-1-1-1,-1-1 0,1 0 1,-1 0-1,0-1 0,-1-1 1,-26 5-1,24-7-6670</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4435 4507 24575,'61'1'0,"69"-3"0,-108-2 0,0 0 0,-1-2 0,1-1 0,38-17 0,25-9 0,-69 28 0,-2-1 0,1-1 0,-1 0 0,0-1 0,17-12 0,26-9 0,-46 25 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,9-7 0,-6 3 0,1 0 0,25-14 0,-24 17 0,-1-1 0,0-1 0,13-11 0,-19 14 0,1 0 0,0 1 0,0 0 0,0 0 0,10-3 0,-7 3 0,0 0 0,19-14 0,257-212 0,-103 93 0,-147 109 0,-20 17 0,0-1 0,-1-1 0,0-1 0,-2 0 0,25-32 0,-16 13 0,-13 20 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,9-26 0,-3 2 0,2 1 0,37-69 0,10-26 0,-35 69 0,14-44 0,-31 79 0,16-32 0,-14 35 0,15-45 0,31-97 0,-51 152 0,2 0 0,12-18 0,15-27 0,60-150 0,-90 198 0,1 0 0,1 1 0,10-15 0,-10 16 0,0 0 0,-1-1 0,10-22 0,42-131 0,-51 147 0,1 0 0,0 0 0,1 1 0,18-24 0,-5 9 0,4-6 0,-18 27 0,-1-1 0,0 1 0,-1-1 0,0-1 0,5-13 0,-8 15 0,0 0 0,1 1 0,0-1 0,1 1 0,0 1 0,0-1 0,11-11 0,-6 7 0,-2 1 0,1-2 0,-1 1 0,-1-1 0,-1-1 0,0 0 0,-1 1 0,-1-2 0,0 1 0,3-26 0,34-127 0,-34 135 0,-4 17 0,0-1 0,-1 0 0,1-20 0,-1 1 0,2 1 0,2 0 0,1 0 0,18-47 0,-16 52 0,-6 20 14,0 1-1,0 0 0,1 0 0,1 0 1,-1 1-1,2 0 0,-1 0 1,12-11-1,-3 5-384,0 0-1,2 2 1,24-17 0,-30 23-6455</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4287 3660 24575,'1'-3'0,"0"0"0,0 0 0,0-1 0,1 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,4-4 0,1-4 0,16-18 0,43-43 0,-39 43 0,30-38 0,109-129 0,-135 162 0,-19 20 0,-1 1 0,-1-2 0,1 1 0,-2-1 0,0-1 0,-1 0 0,0 0 0,7-22 0,-6 12 0,19-34 0,-18 41 0,-2 0 0,0-1 0,10-34 0,-5-5 0,17-94 0,-10 44 0,-10 39 0,-6 50 0,0 0 0,-1-21 0,8-59 0,-6 66 0,1-46 0,-6 59 0,-1-21 0,2 1 0,11-72 0,19-121 0,-21 165 0,-6 39 0,3-43 0,3-61 0,1-9 0,-12 106 0,2 0 0,11-61 0,-8 59 0,0 1 0,-3-1 0,-3-43 0,3-64 0,10 88 0,-8 42 0,0-1 0,1-23 0,-4 8-72,0 19-143,0 0-1,1 0 1,0 0-1,0 0 1,5-15-1,-2 13-6610</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 3533 24575,'-1'-24'0,"1"1"0,2 0 0,0-1 0,1 1 0,2 0 0,13-42 0,18-56 0,-24 78 0,-3 2 0,8-79 0,-13 78 0,16-65 0,-11 62 0,-5 23 0,0-1 0,1-34 0,-5 38 0,2 0 0,0 0 0,1 0 0,1 1 0,0-1 0,11-25 0,-1 13 0,0 1 0,33-50 0,21-41 0,-55 97 0,-1-1 0,-1 0 0,9-29 0,12-29 0,-12 32 0,-3-1 0,16-70 0,-29 101 0,-1 0 0,0-33 0,-2 32 0,0 0 0,7-29 0,3-7 0,-2-1 0,2-74 0,-11-122 0,-2 112 0,2 113 0,-1 0 0,1 0 0,2 0 0,10-49 0,9-47 0,-15 90-1365,-4 19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4774 379 24575,'1'26'0,"2"0"0,1 0 0,9 33 0,-6-33 0,-2 0 0,0 0 0,0 35 0,-5-47 0,-1 12 0,2-1 0,1 1 0,8 40 0,-5-30 0,0 1 0,-3 0 0,-1-1 0,-4 42 0,1 7 0,2 105-1365,0-172-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5028 294 24575,'3'2'0,"-1"-1"0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,1 3 0,5 6 0,-3-4 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,1 13 0,5 24 0,14 60 0,0 34-1365,-17-122-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">816 2792 24575,'-15'1'0,"0"0"0,1 2 0,-1-1 0,1 2 0,-1 0 0,1 1 0,0 0 0,1 1 0,-19 11 0,29-16 0,-46 21 0,25-12 0,-32 20 0,42-23-1365,2-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">646 2919 24575,'2'25'0,"1"0"0,0 0 0,3 0 0,0-1 0,11 28 0,2 14 0,-8-27 0,1 2 0,14 84 0,-20-43-1365,-2-64-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">689 2940 24575,'1'2'0,"0"0"0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,4 2 0,9 8 0,56 73 0,-45-48 0,-23-30 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,7 5 0,-3-3 0,-1 0 0,0 1 0,0 0 0,12 19 0,3 2 0,-14-17 0,0 0 0,13 27 0,-15-25 0,1-1 0,16 23 0,-18-28 0,0 0 0,-1-1 0,8 17 0,-10-16 0,1 0 0,1-1 0,0 1 0,11 13 0,-9-13 0,-1 1 0,0-1 0,-1 2 0,1-1 0,-2 1 0,7 20 0,-6-15 0,1-1 0,11 22 0,-10-22-170,-1-1-1,0 2 0,-2-1 1,1 0-1,-2 1 0,0 0 1,1 29-1,-3-27-6655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1281 4147 24575,'0'-4'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3821 5332 24575,'0'1'0,"1"0"0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,2 1 0,31 12 0,-27-11 0,12 5 0,1-1 0,1-2 0,-1 0 0,0-1 0,1 0 0,31-2 0,61 0 0,91-4 0,-199 2 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-4 0,-4 3 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,10-3 0,3 3 0,0-2 0,-1 0 0,0-1 0,0-1 0,0-1 0,0 0 0,27-18 0,-33 19 0,0 0 0,0 0 0,1 1 0,22-6 0,-24 8 0,0 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,9-7 0,-12 9 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,9 1 0,-7-1 0,1 0 0,-1-1 0,0 1 0,0-2 0,16-5 0,17-12 0,50-16 0,-73 31 0,1 1 0,29-2 0,3-1 0,-41 6-227,-1-1-1,1-1 1,-1 0-1,0 0 1,19-9-1,-16 3-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3843 5607 24575,'0'5'0,"1"-1"0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,8 5 0,-2-2 0,-1-1 0,1 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,13 2 0,25 0 0,0-3 0,61-4 0,-16 0 0,-74 2 0,12 1 0,-1-1 0,1-2 0,0 0 0,0-2 0,-1-2 0,34-10 0,-50 12 0,-1 1 0,1 0 0,17-1 0,-22 3 0,0 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,11-8 0,-2 0 0,2 1 0,0 0 0,0 1 0,0 1 0,25-7 0,8-4 0,-6 3 0,-30 12 0,-1-1 0,27-14 0,-21 10 0,1 0 0,0 2 0,0 0 0,1 2 0,0 0 0,0 1 0,36-2 0,-29 2 0,0-1 0,-1-1 0,31-12 0,-9 3 0,-3 5 0,-39 10 0,0-1 0,-1 1 0,1-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 0 0,12-9 0,-13 8 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 1 0,0 0 0,0 0 0,14-2 0,2 1 0,39-2 0,-27 4 0,-24 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,10-6 0,34-14 0,-40 19-1365,-3 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3885 7322 24575,'932'0'0,"-918"-1"0,-1 0 0,0-1 0,16-5 0,30-3 0,-39 8 0,1-2 0,-1-1 0,1 0 0,24-11 0,39-9 0,-65 19 0,0 0 0,0-1 0,19-10 0,39-15 0,-25 17 0,-1 1 0,69-30 0,-108 39 0,1 2 0,-1-1 0,1 2 0,-1-1 0,25 0 0,27-4 0,63-15 0,-104 19 0,0 0 0,-1 1 0,43 3 0,26-2 0,-33-9 0,-43 6 0,0 1 0,25-2 0,-21 5-116,-1 0-300,1-1-1,30-6 1,-31 3-6410</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3673 7406 24575,'0'3'0,"0"0"0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,4 3 0,3 3 0,1-1 0,0-1 0,12 7 0,15 11 0,-16-10 0,0 0 0,1-1 0,1-2 0,-1 0 0,2-1 0,0-1 0,0-2 0,43 9 0,-54-14 0,19 5 0,0-2 0,61 3 0,-68-7 0,47 8 0,-46-4 0,42 1 0,652-7 0,-692-1 0,50-9 0,-15 2 0,85-12 0,-96 11 0,-35 6 0,0 1 0,24-1 0,-24 3 0,1-2 0,-1 0 0,1-1 0,23-9 0,18-4 0,-27 10 0,-15 2 0,0 1 0,1 1 0,24-1 0,-18 2 0,0-1 0,-1-1 0,37-12 0,1 1 0,59-19 0,-43 11 0,-24 12 0,-35 8 0,0-1 0,0-1 0,27-11 0,-28 8 0,-6 2 0,0 1 0,-1 1 0,15-5 0,-7 5 0,9-2 0,-1-1 0,0-2 0,37-16 0,-50 17 0,0 0 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,0 0 0,0 1 0,0 1 0,20-1 0,-21 3-94,31-4-1177,-31 0-5555</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3186 3110 24575,'1'-4'0,"0"1"0,1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,5-4 0,7-7 0,26-30 0,49-42 0,-29 30 0,168-170 0,-17 43 0,-133 101 0,72-98 0,-145 172 0,2-2 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1 0 0,2-19 0,-2 0 0,-2 1 0,-1 0 0,-5-39 0,-15-38 0,11 61 0,4 20 0,-3-49 0,6 56 0,0 0 0,-1 1 0,-2-1 0,0 1 0,-10-25 0,8 25 0,1 1 0,1-1 0,0 0 0,2-1 0,-3-30 0,4 35 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-9-15 0,-13-37 0,12 29 0,-1 1 0,-34-57 0,26 49 0,-49-97 0,47 92 0,19 39 0,1 0 0,0 0 0,1-1 0,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,-2-20 0,2 7 0,-1-1 0,-1 0 0,-2 1 0,0 0 0,-11-23 0,-4-17 0,9 25 0,-13-49 0,19 57 0,1 0 0,2-1 0,-1-43 0,5 57-108,-1 13 19,0 0-1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,4-7 0,3 3-6736</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3081 3173 24575,'1'-27'0,"10"-52"0,-1 15 0,9-46 0,-11 75 0,-2-1 0,3-59 0,-7 67 0,1-1 0,1 1 0,11-36 0,3-19 0,-10 36 0,-3 25 0,-1 1 0,1-37 0,-7-47 0,3-87 0,0 182 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,12-11 0,-7 6 0,-2 0 0,1-1 0,-2-1 0,14-26 0,-13 23 0,0 0 0,23-29 0,-21 31 0,0-1 0,-1 0 0,7-17 0,19-29 0,-29 52 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,2-17 0,3-19 0,-4 24 0,0 0 0,0-28 0,-4 0 0,-1 8 0,2 0 0,11-71 0,-7 73 0,-1 0 0,-4-81 0,-1 55 0,-1 46 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-19-40 0,23 55 0,-28-47 0,25 43 0,-1 1 0,2-1 0,-1-1 0,-7-19 0,-44-144 0,48 141-273,2 1 0,1-1 0,2 0 0,0-60 0,4 75-6553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5642 5099 24575,'28'-1'0,"0"2"0,1 1 0,-1 1 0,-1 2 0,45 12 0,-43-7 0,17 5 0,70 14 0,-67-24 0,1-2 0,72-5 0,-25 0 0,-23 3 0,84-3 0,-143-1 0,0 0 0,0-1 0,0-1 0,0 0 0,25-15 0,14-3 0,-48 20 0,14-4 0,-1-1 0,27-15 0,-42 20 0,1 1 0,-1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-2 1 0,3-8 0,8-31 0,2 0 0,1 1 0,29-53 0,-1 0 0,-10 0 0,-21 57 0,23-49 0,-16 41 0,-1-1 0,14-66 0,-12 39 0,10-44-259,-20 72 25,2 0 0,35-85 0,-24 77-390,28-107 1,-34 101 57,34-82 0,20-48 585,-60 161 30,9-39 1,1-6-55,146-328 5,-133 332 0,-8 18 0,29-79 0,-42 87 20,-6 20 7,0 0 1,2 0-1,1 0 0,14-23 1,69-128 144,-71 132-114,16-20 504,-26 44-266,-1 0 0,16-37 1,-2-4-64,16-51 343,-30 83-578,1 0 0,1 1-1,26-39 1,16-34 108,-43 78-13,0 0 0,2 2 0,0-1 0,32-33 0,-2 1-75,-16 14-18,-18 24 0,0 1 0,21-22 0,-1 7 0,56-52 0,-78 74 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,1 1 0,-1 1 0,15-5 0,49-20 0,-59 22 0,0 1 0,0 1 0,0 0 0,1 0 0,0 2 0,16-3 0,98-15 0,-93 14 0,1 0 0,58-1 0,-49-1-1,3 0 68,-46 9-156,-1-1-1,0 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,3 2 1,4 6-6737</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6002 5692 24575,'593'0'0,"-555"-3"0,0-1 0,72-17 0,-62 10 0,-10 3-35,10-1-158,-1-2 1,75-29-1,-93 30 185,-1 1-1,43-7 1,-44 11 40,-1-1-1,0-2 1,40-16 0,57-28 479,-110 47-511,-1-1 0,-1-1 0,0 0 0,0 0 0,0-2 0,12-10 0,56-63 0,-57 57 0,144-150 0,-157 166 0,-2-1 0,1 0 0,-1-1 0,-1 0 0,0 0 0,0 0 0,7-23 0,-6 13 0,-1-1 0,-1-1 0,3-32 0,-8 45 0,1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,1 0 0,7-16 0,-3 8 0,-1 0 0,-1-1 0,-1 0 0,5-23 0,6-21 0,46-130 0,-12 44 0,-33 101 0,18-91 0,-13 48 0,-8 19 0,-9 46 0,13-48 0,25-55 0,-38 103 0,0-2 0,1-34 0,-3 27 0,6-28 0,-5 42 0,-1-1 0,1-24 0,-3 25 0,1 0 0,2 0 0,0 1 0,0-1 0,2 1 0,9-23 0,-3 11 0,-6 9 0,7-44 0,-9 42 0,10-35 0,39-74 0,11-96 0,-63 225 0,18-67 0,41-96 0,-37 90 0,-18 57 0,0 0 0,16-36 0,-8 27 0,10-35 0,-15 39 0,1 1 0,20-38 0,21-53 0,-36 95 0,-11 17 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,2-8 0,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,1 0 0,13-16 0,11-30 0,-25 45 0,-1 0 0,1 0 0,1 1 0,12-17 0,27-20 0,-22 22 0,35-44 0,-7 18 0,-43 43 0,0 0 0,0 1 0,1 0 0,0 1 0,0 0 0,19-7 0,4-4 0,8-10 0,-33 21 0,0 0 0,0 1 0,0-1 0,15-5 0,-2 2 0,-1 0 0,0-2 0,-1-1 0,0 0 0,0-1 0,-1-1 0,19-20 0,-20 21 0,0 1 0,0 1 0,1 0 0,1 2 0,0 0 0,38-12 0,-36 13 0,20-4-1365,-22 8-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4348,7 +4527,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink21.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4381,7 +4560,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink22.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4413,7 +4592,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4453,7 +4632,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4485,7 +4664,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4547,7 +4726,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4575,7 +4754,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4615,7 +4794,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4659,69 +4838,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:38:20"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3144 1395 24575,'-21'2'0,"1"0"0,-1 2 0,1 0 0,0 2 0,0 0 0,-27 13 0,-39 11 0,48-18 0,-62 31 0,28-10 0,-23 13 0,36-16 0,45-24 0,0-1 0,0-1 0,-16 3 0,-33 11 0,31-4 0,-94 32 0,112-41 0,1 0 0,-1 1 0,1 1 0,-18 12 0,18-11 0,0 0 0,-1-1 0,0-1 0,-15 6 0,-17 0 0,32-10 0,0 1 0,1 1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-22 15 0,21-12 0,-1 0 0,0-1 0,0-1 0,-1 0 0,-31 9 0,-7 3 0,44-16 0,1 0 0,-1-1 0,1 0 0,-17 0 0,18-2 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-10 6 0,-5 4 0,0-2 0,-1-1 0,0 0 0,-36 7 0,34-9 0,0 0 0,1 1 0,-46 24 0,15-4-1365,43-21-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1197 2221 24575,'1'12'0,"2"0"0,-1 0 0,2 0 0,-1 0 0,2 0 0,-1-1 0,2 0 0,10 17 0,22 35 0,53 63 0,-85-119 0,68 82 0,-28-32 0,-33-43 0,-1 0 0,-1 1 0,15 25 0,-7-10 0,1-1 0,2-1 0,1 0 0,37 35 0,3 3 0,-44-45 0,29 36 0,-11 1 0,-24-35 0,1-1 0,2-1 0,21 24 0,-21-29 0,0 1 0,-2 0 0,0 1 0,-1 1 0,-1 0 0,11 23 0,-9-15 0,2 0 0,35 45 0,-40-57 0,-5-6-136,-1 0-1,0 0 1,0 1-1,-1 0 1,0-1-1,0 2 1,-1-1-1,-1 0 0,3 16 1,-4-9-6690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3165 1247 24575,'3'0'0,"0"1"0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,2 3 0,34 41 0,-20-23 0,39 51 0,67 116 0,-49-71 0,-31-50 0,-14-20 0,42 53 0,-36-61 0,-20-24 0,-1 0 0,-1 1 0,-1 1 0,13 21 0,-15-16 0,0-2 0,2 0 0,1 0 0,1-1 0,0-1 0,34 34 0,-25-31 0,31 40 0,-36-40 0,-8-9 0,-2 1 0,0 0 0,11 24 0,-14-25 0,19 45 0,-19-42 0,1 0 0,0 0 0,15 22 0,-5-6-1365,-12-17-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2170 3893 24575,'9'-1'0,"0"0"0,0 0 0,0-1 0,10-3 0,31-6 0,-37 11 0,1-1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0-1 0,16-7 0,39-12 0,-52 19 0,-1-1 0,1-1 0,22-11 0,-9 2 0,51-18 0,-60 26 0,1 0 0,-1-2 0,-1-1 0,0 0 0,34-25 0,-31 17 0,0 1 0,2 1 0,0 0 0,28-12 0,15 3 0,-44 18 0,-2-2 0,40-20 0,-19 6 0,1 1 0,82-29 0,-109 46 0,1-1 0,-1 0 0,0-2 0,-1 0 0,0 0 0,17-14 0,-24 17 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,19-4 0,-16 5 0,1-1 0,-1-1 0,14-6 0,-11 2 0,0 1 0,1 1 0,0 0 0,32-8 0,-39 11 0,1 1 0,-2-1 0,1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,7-7 0,-5 3 0,1 2 0,0-1 0,20-9 0,17-9 0,-31 16 0,36-14 0,-20 10-1365,-19 9-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2784 3872 24575,'1'12'0,"1"0"0,0 0 0,1 0 0,0 0 0,1-1 0,9 21 0,4 12 0,-4-11 0,2-1 0,2 0 0,0-2 0,29 38 0,19 34 0,-35-46 0,-15-26 0,1-2 0,39 54 0,-49-74 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 1 0,2 14 0,10 26 0,-4-28 0,0 1 0,20 27 0,-4-9 0,-13-19 0,23 26 0,-24-31 0,0 0 0,19 31 0,24 40 0,-14-27 0,103 169 0,-104-177 47,-22-30-1459,-12-13-5414</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3694 5798 24575,'-1'34'0,"2"1"0,1-1 0,1 0 0,15 63 0,-12-74 0,-1 1 0,-1 0 0,0 35 0,-1-21 0,6 20 0,-5-41 0,-1-1 0,0 21 0,-4 50 0,2 37 0,10-67 0,-8-41 0,0 0 0,1 22 0,-5 67 0,2 44 0,10-92 0,-8-41 0,0 0 0,1 22 0,-4 89-1365,0-109-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4456 3364 24575,'1'9'0,"1"-1"0,1 1 0,-1-1 0,2 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,9 10 0,3 7 0,84 116 0,-32-49 0,-58-74 0,0 1 0,-1 0 0,12 33 0,-14-37 0,0-1 0,0 0 0,2 0 0,0-1 0,15 17 0,15 18 0,-32-36 0,19 26 0,0-2 0,65 65 0,17 13 0,34 14 0,-95-89 0,40 38 0,-54-49 0,-28-24 0,1 0 0,-1 1 0,-1 0 0,1 0 0,9 12 0,-6-6 0,0 0 0,20 17 0,-18-18 0,-1 0 0,15 18 0,-20-22 0,1 0 0,0 0 0,0-1 0,0 0 0,15 9 0,-14-10 0,0 1 0,0 0 0,-1 1 0,1-1 0,9 12 0,-8-4-45,15 14-1275,-12-20-5506</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5896 5120 24575,'1'21'0,"2"0"0,0-1 0,1 1 0,2-1 0,8 25 0,11 41 0,-20-68 0,13 35 0,-12-41 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,3 21 0,-3-4 0,3-1 0,0 0 0,2 0 0,21 53 0,5 16 0,10 50 0,-25-73 0,28 103 0,-20-74 0,10 33 0,-20-80 0,-12-36 0,15 35 0,-16-46 0,-1 0 0,-1 0 0,1 0 0,0 14 0,-1-14 0,-1 0 0,1-1 0,1 1 0,6 16 0,13 18 0,-13-27 0,0 0 0,-2 0 0,0 1 0,6 22 0,-9-28 20,0 0 1,0-1-1,1 1 0,1-1 0,12 19 1,-11-20-269,-1 0 0,0 1 0,-1-1 0,0 2 1,6 20-1,-8-17-6578</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3589 7343 24575,'-41'0'0,"9"-1"0,1 1 0,-1 2 0,-54 10 0,69-9 0,-1-1 0,1-1 0,-25 0 0,30-2 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 1 0,1-1 0,-1 2 0,-12 5 0,6-1 0,0 0 0,0-2 0,0 0 0,-1-1 0,0 0 0,0-2 0,-21 1 0,-139-3 0,83-3 0,-285 2 0,365 1 0,0 0 0,-28 8 0,27-6 0,0 0 0,-21 1 0,-33-5-23,51-1-201,0 1 1,1 1-1,-1 1 0,0 1 1,-34 7-1,41-4-6602</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1726 7597 24575,'-1'3'0,"0"0"0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,-3 6 0,-5 6 0,-12 14 0,19-24 0,0 1 0,0 0 0,0 0 0,-6 10 0,-5 12 0,-2 0 0,-29 36 0,26-37 0,8-11 0,-2 1 0,0-2 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,0-1 0,-1 0 0,0-1 0,-36 12 0,-55 28-70,-18 6-432,63-30 502,-121 64 0,160-75 0,1 1 0,-1-1 0,0-2 0,-1-1 0,-34 11 0,31-13 0,1 2 0,1 1 0,-1 1 0,2 2 0,-33 22 0,-2-4 240,47-27-185,1 0 1,0 1-1,0 1 1,1 0-1,-16 14 0,21-16-250,0-1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-15 6 0,9-6-6631</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7123 7174 24575,'2'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,2 4 0,10 10 0,6 0 0,31 17 0,8 7 0,-41-29 0,0-1 0,0-1 0,1 0 0,0-1 0,1-1 0,0-1 0,34 6 0,-20-4 0,49 19 0,120 45-116,-170-60 19,0-2 0,1-2 0,0-1 0,0-1 0,38 1 0,81 13 97,-28 1 0,-69-14 0,-3 0 0,61 1 0,741-9-667,-836 1-6159</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9452 7745 24575,'1'6'0,"0"0"0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,6 9 0,6 19 0,-1 23 0,-11-44 0,1 0 0,0 0 0,1 0 0,0-1 0,1 0 0,8 16 0,46 94 0,-2-5 0,-17-51 0,-11-19 0,-2 0 0,35 85 0,-56-115 0,2-1 0,0 0 0,1-1 0,0 0 0,2-1 0,-1 0 0,2 0 0,21 20 0,-5 0 0,-24-28 0,1 0 0,0 0 0,0 0 0,0 0 0,13 9 0,5 2-1365,-14-8-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">392 8676 24575,'-3'0'0,"0"1"0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-2 2 0,-33 40 0,17-19 0,-5 8 0,21-27 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-9 8 0,4-4 0,-1 1 0,2 1 0,-1 0 0,-14 20 0,-17 19 0,13-21-682,-42 31-1,61-52-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1324 2496 24575,'-10'1'0,"1"1"0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,1 2 0,-1-1 0,1 1 0,0 0 0,0 0 0,-8 9 0,6-7 0,0 1 0,0-1 0,-1-1 0,0 0 0,0-1 0,-18 7 0,14-8 0,1 2 0,-1-1 0,-13 9 0,-18 8 0,30-16 0,-23 9 0,-54 28 0,28-3-1365,53-33-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">795 3131 24575,'1'4'0,"0"0"0,0 0 0,1 0 0,0 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 4 0,7 10 0,-15-16 0,18 21 0,19 30 0,-33-43 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,2 14 0,2 4 0,2 0 0,0 0 0,2-1 0,1 0 0,16 26 0,-8-14 0,31 76 0,-29-63 0,44 77 0,-51-101-1365,-11-14-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1260 4020 24575,'19'-1'0,"-1"-1"0,1-1 0,-1-1 0,0 0 0,0-1 0,0-1 0,-1-1 0,23-11 0,-24 12 0,0 0 0,0 1 0,30-4 0,-30 6 0,-1 0 0,1 0 0,-1-2 0,27-11 0,-31 9 0,1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,21-2 0,-21 3 0,-1-1 0,0 0 0,1-1 0,-1 0 0,0-1 0,0-1 0,16-8 0,-11 5 0,0 1 0,28-7 0,80-9 0,-92 16-1365,-19 2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2192 3554 24575,'2'0'0,"0"0"0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,-1-1 0,1 1 0,1 1 0,3 8 0,-1 0 0,6 22 0,-2-6 0,3 7 0,-2 0 0,8 49 0,-14-65-1365,-2-2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6996 506 24575,'-6'2'0,"0"0"0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 1 0,-5 4 0,9-6 0,-9 7 0,1 1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 1 0,-1 0 0,1 0 0,-8 21 0,-1 0 0,6-12 0,-11 38 0,14-40 0,0 1 0,-17 31 0,14-30 0,0 0 0,-13 45 0,-5 9 0,25-65 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,0 0 0,2 18 0,-1-15 0,0 0 0,-1 0 0,-6 27 0,-62 209 0,67-241 0,-3 14 0,-1 0 0,-2-1 0,0 1 0,-1-1 0,-23 39 0,26-50 0,0 1 0,1 1 0,0-1 0,1 1 0,-5 23 0,5-20 0,0 0 0,-1 0 0,-8 16 0,-82 162 0,90-183 0,2 1 0,-6 23 0,7-23 0,-1-1 0,0 0 0,-8 19 0,-15 23 0,-36 52 0,51-88 0,1 0 0,0 0 0,2 0 0,-10 28 0,12-30 0,0 0 0,-2 0 0,-14 21 0,-1 2 0,-12 15 0,27-44 0,1 1 0,0 0 0,1 0 0,0 0 0,-8 22 0,3-3 0,-1-1 0,-1-1 0,-2 0 0,-21 30 0,18-27 0,12-19 0,-1 1 0,0-2 0,-13 16 0,11-15 0,1 0 0,0 0 0,-9 19 0,10-17 0,0-1 0,-1-1 0,-13 17 0,16-22 0,0 1 0,1 0 0,-1 0 0,2 0 0,-6 12 0,-13 24 0,-58 90 0,72-120 0,-19 31 0,-2-2 0,-47 52 0,55-70 0,-22 20 0,32-34 0,1 1 0,0 0 0,0 0 0,1 1 0,-10 18 0,12-18 0,-1 0 0,1-1 0,-2 0 0,0-1 0,0 0 0,-16 13 0,18-17 0,0 0 0,0 1 0,1 0 0,-7 7 0,8-7 0,-1 0 0,0-1 0,0 1 0,-14 9 0,-59 44 0,65-50 0,1 0 0,0 1 0,0 1 0,1 0 0,0 0 0,-13 21 0,-25 24 0,0-11 0,-1-3 0,-81 52 0,81-57 0,36-26 0,-1 0 0,0-1 0,-1-1 0,-31 15 0,-28 8 0,-82 48 0,137-69-120,10-4-35,-1-1-1,-1-1 0,1 0 1,-1 0-1,0-1 0,-1-1 1,-26 5-1,24-7-6670</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4435 4507 24575,'61'1'0,"69"-3"0,-108-2 0,0 0 0,-1-2 0,1-1 0,38-17 0,25-9 0,-69 28 0,-2-1 0,1-1 0,-1 0 0,0-1 0,17-12 0,26-9 0,-46 25 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,9-7 0,-6 3 0,1 0 0,25-14 0,-24 17 0,-1-1 0,0-1 0,13-11 0,-19 14 0,1 0 0,0 1 0,0 0 0,0 0 0,10-3 0,-7 3 0,0 0 0,19-14 0,257-212 0,-103 93 0,-147 109 0,-20 17 0,0-1 0,-1-1 0,0-1 0,-2 0 0,25-32 0,-16 13 0,-13 20 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,9-26 0,-3 2 0,2 1 0,37-69 0,10-26 0,-35 69 0,14-44 0,-31 79 0,16-32 0,-14 35 0,15-45 0,31-97 0,-51 152 0,2 0 0,12-18 0,15-27 0,60-150 0,-90 198 0,1 0 0,1 1 0,10-15 0,-10 16 0,0 0 0,-1-1 0,10-22 0,42-131 0,-51 147 0,1 0 0,0 0 0,1 1 0,18-24 0,-5 9 0,4-6 0,-18 27 0,-1-1 0,0 1 0,-1-1 0,0-1 0,5-13 0,-8 15 0,0 0 0,1 1 0,0-1 0,1 1 0,0 1 0,0-1 0,11-11 0,-6 7 0,-2 1 0,1-2 0,-1 1 0,-1-1 0,-1-1 0,0 0 0,-1 1 0,-1-2 0,0 1 0,3-26 0,34-127 0,-34 135 0,-4 17 0,0-1 0,-1 0 0,1-20 0,-1 1 0,2 1 0,2 0 0,1 0 0,18-47 0,-16 52 0,-6 20 14,0 1-1,0 0 0,1 0 0,1 0 1,-1 1-1,2 0 0,-1 0 1,12-11-1,-3 5-384,0 0-1,2 2 1,24-17 0,-30 23-6455</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4287 3660 24575,'1'-3'0,"0"0"0,0 0 0,0-1 0,1 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,4-4 0,1-4 0,16-18 0,43-43 0,-39 43 0,30-38 0,109-129 0,-135 162 0,-19 20 0,-1 1 0,-1-2 0,1 1 0,-2-1 0,0-1 0,-1 0 0,0 0 0,7-22 0,-6 12 0,19-34 0,-18 41 0,-2 0 0,0-1 0,10-34 0,-5-5 0,17-94 0,-10 44 0,-10 39 0,-6 50 0,0 0 0,-1-21 0,8-59 0,-6 66 0,1-46 0,-6 59 0,-1-21 0,2 1 0,11-72 0,19-121 0,-21 165 0,-6 39 0,3-43 0,3-61 0,1-9 0,-12 106 0,2 0 0,11-61 0,-8 59 0,0 1 0,-3-1 0,-3-43 0,3-64 0,10 88 0,-8 42 0,0-1 0,1-23 0,-4 8-72,0 19-143,0 0-1,1 0 1,0 0-1,0 0 1,5-15-1,-2 13-6610</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 3533 24575,'-1'-24'0,"1"1"0,2 0 0,0-1 0,1 1 0,2 0 0,13-42 0,18-56 0,-24 78 0,-3 2 0,8-79 0,-13 78 0,16-65 0,-11 62 0,-5 23 0,0-1 0,1-34 0,-5 38 0,2 0 0,0 0 0,1 0 0,1 1 0,0-1 0,11-25 0,-1 13 0,0 1 0,33-50 0,21-41 0,-55 97 0,-1-1 0,-1 0 0,9-29 0,12-29 0,-12 32 0,-3-1 0,16-70 0,-29 101 0,-1 0 0,0-33 0,-2 32 0,0 0 0,7-29 0,3-7 0,-2-1 0,2-74 0,-11-122 0,-2 112 0,2 113 0,-1 0 0,1 0 0,2 0 0,10-49 0,9-47 0,-15 90-1365,-4 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4774 379 24575,'1'26'0,"2"0"0,1 0 0,9 33 0,-6-33 0,-2 0 0,0 0 0,0 35 0,-5-47 0,-1 12 0,2-1 0,1 1 0,8 40 0,-5-30 0,0 1 0,-3 0 0,-1-1 0,-4 42 0,1 7 0,2 105-1365,0-172-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5028 294 24575,'3'2'0,"-1"-1"0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,1 3 0,5 6 0,-3-4 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,1 13 0,5 24 0,14 60 0,0 34-1365,-17-122-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">816 2792 24575,'-15'1'0,"0"0"0,1 2 0,-1-1 0,1 2 0,-1 0 0,1 1 0,0 0 0,1 1 0,-19 11 0,29-16 0,-46 21 0,25-12 0,-32 20 0,42-23-1365,2-2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">646 2919 24575,'2'25'0,"1"0"0,0 0 0,3 0 0,0-1 0,11 28 0,2 14 0,-8-27 0,1 2 0,14 84 0,-20-43-1365,-2-64-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">689 2940 24575,'1'2'0,"0"0"0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,4 2 0,9 8 0,56 73 0,-45-48 0,-23-30 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,7 5 0,-3-3 0,-1 0 0,0 1 0,0 0 0,12 19 0,3 2 0,-14-17 0,0 0 0,13 27 0,-15-25 0,1-1 0,16 23 0,-18-28 0,0 0 0,-1-1 0,8 17 0,-10-16 0,1 0 0,1-1 0,0 1 0,11 13 0,-9-13 0,-1 1 0,0-1 0,-1 2 0,1-1 0,-2 1 0,7 20 0,-6-15 0,1-1 0,11 22 0,-10-22-170,-1-1-1,0 2 0,-2-1 1,1 0-1,-2 1 0,0 0 1,1 29-1,-3-27-6655</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1281 4147 24575,'0'-4'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3821 5332 24575,'0'1'0,"1"0"0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,2 1 0,31 12 0,-27-11 0,12 5 0,1-1 0,1-2 0,-1 0 0,0-1 0,1 0 0,31-2 0,61 0 0,91-4 0,-199 2 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-4 0,-4 3 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,10-3 0,3 3 0,0-2 0,-1 0 0,0-1 0,0-1 0,0-1 0,0 0 0,27-18 0,-33 19 0,0 0 0,0 0 0,1 1 0,22-6 0,-24 8 0,0 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,9-7 0,-12 9 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,9 1 0,-7-1 0,1 0 0,-1-1 0,0 1 0,0-2 0,16-5 0,17-12 0,50-16 0,-73 31 0,1 1 0,29-2 0,3-1 0,-41 6-227,-1-1-1,1-1 1,-1 0-1,0 0 1,19-9-1,-16 3-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3843 5607 24575,'0'5'0,"1"-1"0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,8 5 0,-2-2 0,-1-1 0,1 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,13 2 0,25 0 0,0-3 0,61-4 0,-16 0 0,-74 2 0,12 1 0,-1-1 0,1-2 0,0 0 0,0-2 0,-1-2 0,34-10 0,-50 12 0,-1 1 0,1 0 0,17-1 0,-22 3 0,0 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,11-8 0,-2 0 0,2 1 0,0 0 0,0 1 0,0 1 0,25-7 0,8-4 0,-6 3 0,-30 12 0,-1-1 0,27-14 0,-21 10 0,1 0 0,0 2 0,0 0 0,1 2 0,0 0 0,0 1 0,36-2 0,-29 2 0,0-1 0,-1-1 0,31-12 0,-9 3 0,-3 5 0,-39 10 0,0-1 0,-1 1 0,1-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 0 0,12-9 0,-13 8 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 1 0,0 0 0,0 0 0,14-2 0,2 1 0,39-2 0,-27 4 0,-24 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,10-6 0,34-14 0,-40 19-1365,-3 0-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3885 7322 24575,'932'0'0,"-918"-1"0,-1 0 0,0-1 0,16-5 0,30-3 0,-39 8 0,1-2 0,-1-1 0,1 0 0,24-11 0,39-9 0,-65 19 0,0 0 0,0-1 0,19-10 0,39-15 0,-25 17 0,-1 1 0,69-30 0,-108 39 0,1 2 0,-1-1 0,1 2 0,-1-1 0,25 0 0,27-4 0,63-15 0,-104 19 0,0 0 0,-1 1 0,43 3 0,26-2 0,-33-9 0,-43 6 0,0 1 0,25-2 0,-21 5-116,-1 0-300,1-1-1,30-6 1,-31 3-6410</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3673 7406 24575,'0'3'0,"0"0"0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,4 3 0,3 3 0,1-1 0,0-1 0,12 7 0,15 11 0,-16-10 0,0 0 0,1-1 0,1-2 0,-1 0 0,2-1 0,0-1 0,0-2 0,43 9 0,-54-14 0,19 5 0,0-2 0,61 3 0,-68-7 0,47 8 0,-46-4 0,42 1 0,652-7 0,-692-1 0,50-9 0,-15 2 0,85-12 0,-96 11 0,-35 6 0,0 1 0,24-1 0,-24 3 0,1-2 0,-1 0 0,1-1 0,23-9 0,18-4 0,-27 10 0,-15 2 0,0 1 0,1 1 0,24-1 0,-18 2 0,0-1 0,-1-1 0,37-12 0,1 1 0,59-19 0,-43 11 0,-24 12 0,-35 8 0,0-1 0,0-1 0,27-11 0,-28 8 0,-6 2 0,0 1 0,-1 1 0,15-5 0,-7 5 0,9-2 0,-1-1 0,0-2 0,37-16 0,-50 17 0,0 0 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,0 0 0,0 1 0,0 1 0,20-1 0,-21 3-94,31-4-1177,-31 0-5555</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3186 3110 24575,'1'-4'0,"0"1"0,1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,5-4 0,7-7 0,26-30 0,49-42 0,-29 30 0,168-170 0,-17 43 0,-133 101 0,72-98 0,-145 172 0,2-2 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1 0 0,2-19 0,-2 0 0,-2 1 0,-1 0 0,-5-39 0,-15-38 0,11 61 0,4 20 0,-3-49 0,6 56 0,0 0 0,-1 1 0,-2-1 0,0 1 0,-10-25 0,8 25 0,1 1 0,1-1 0,0 0 0,2-1 0,-3-30 0,4 35 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-9-15 0,-13-37 0,12 29 0,-1 1 0,-34-57 0,26 49 0,-49-97 0,47 92 0,19 39 0,1 0 0,0 0 0,1-1 0,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,-2-20 0,2 7 0,-1-1 0,-1 0 0,-2 1 0,0 0 0,-11-23 0,-4-17 0,9 25 0,-13-49 0,19 57 0,1 0 0,2-1 0,-1-43 0,5 57-108,-1 13 19,0 0-1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,4-7 0,3 3-6736</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3081 3173 24575,'1'-27'0,"10"-52"0,-1 15 0,9-46 0,-11 75 0,-2-1 0,3-59 0,-7 67 0,1-1 0,1 1 0,11-36 0,3-19 0,-10 36 0,-3 25 0,-1 1 0,1-37 0,-7-47 0,3-87 0,0 182 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,12-11 0,-7 6 0,-2 0 0,1-1 0,-2-1 0,14-26 0,-13 23 0,0 0 0,23-29 0,-21 31 0,0-1 0,-1 0 0,7-17 0,19-29 0,-29 52 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,2-17 0,3-19 0,-4 24 0,0 0 0,0-28 0,-4 0 0,-1 8 0,2 0 0,11-71 0,-7 73 0,-1 0 0,-4-81 0,-1 55 0,-1 46 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-19-40 0,23 55 0,-28-47 0,25 43 0,-1 1 0,2-1 0,-1-1 0,-7-19 0,-44-144 0,48 141-273,2 1 0,1-1 0,2 0 0,0-60 0,4 75-6553</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5642 5099 24575,'28'-1'0,"0"2"0,1 1 0,-1 1 0,-1 2 0,45 12 0,-43-7 0,17 5 0,70 14 0,-67-24 0,1-2 0,72-5 0,-25 0 0,-23 3 0,84-3 0,-143-1 0,0 0 0,0-1 0,0-1 0,0 0 0,25-15 0,14-3 0,-48 20 0,14-4 0,-1-1 0,27-15 0,-42 20 0,1 1 0,-1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-2 1 0,3-8 0,8-31 0,2 0 0,1 1 0,29-53 0,-1 0 0,-10 0 0,-21 57 0,23-49 0,-16 41 0,-1-1 0,14-66 0,-12 39 0,10-44-259,-20 72 25,2 0 0,35-85 0,-24 77-390,28-107 1,-34 101 57,34-82 0,20-48 585,-60 161 30,9-39 1,1-6-55,146-328 5,-133 332 0,-8 18 0,29-79 0,-42 87 20,-6 20 7,0 0 1,2 0-1,1 0 0,14-23 1,69-128 144,-71 132-114,16-20 504,-26 44-266,-1 0 0,16-37 1,-2-4-64,16-51 343,-30 83-578,1 0 0,1 1-1,26-39 1,16-34 108,-43 78-13,0 0 0,2 2 0,0-1 0,32-33 0,-2 1-75,-16 14-18,-18 24 0,0 1 0,21-22 0,-1 7 0,56-52 0,-78 74 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,1 1 0,-1 1 0,15-5 0,49-20 0,-59 22 0,0 1 0,0 1 0,0 0 0,1 0 0,0 2 0,16-3 0,98-15 0,-93 14 0,1 0 0,58-1 0,-49-1-1,3 0 68,-46 9-156,-1-1-1,0 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,3 2 1,4 6-6737</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6002 5692 24575,'593'0'0,"-555"-3"0,0-1 0,72-17 0,-62 10 0,-10 3-35,10-1-158,-1-2 1,75-29-1,-93 30 185,-1 1-1,43-7 1,-44 11 40,-1-1-1,0-2 1,40-16 0,57-28 479,-110 47-511,-1-1 0,-1-1 0,0 0 0,0 0 0,0-2 0,12-10 0,56-63 0,-57 57 0,144-150 0,-157 166 0,-2-1 0,1 0 0,-1-1 0,-1 0 0,0 0 0,0 0 0,7-23 0,-6 13 0,-1-1 0,-1-1 0,3-32 0,-8 45 0,1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,1 0 0,7-16 0,-3 8 0,-1 0 0,-1-1 0,-1 0 0,5-23 0,6-21 0,46-130 0,-12 44 0,-33 101 0,18-91 0,-13 48 0,-8 19 0,-9 46 0,13-48 0,25-55 0,-38 103 0,0-2 0,1-34 0,-3 27 0,6-28 0,-5 42 0,-1-1 0,1-24 0,-3 25 0,1 0 0,2 0 0,0 1 0,0-1 0,2 1 0,9-23 0,-3 11 0,-6 9 0,7-44 0,-9 42 0,10-35 0,39-74 0,11-96 0,-63 225 0,18-67 0,41-96 0,-37 90 0,-18 57 0,0 0 0,16-36 0,-8 27 0,10-35 0,-15 39 0,1 1 0,20-38 0,21-53 0,-36 95 0,-11 17 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,2-8 0,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,1 0 0,13-16 0,11-30 0,-25 45 0,-1 0 0,1 0 0,1 1 0,12-17 0,27-20 0,-22 22 0,35-44 0,-7 18 0,-43 43 0,0 0 0,0 1 0,1 0 0,0 1 0,0 0 0,19-7 0,4-4 0,8-10 0,-33 21 0,0 0 0,0 1 0,0-1 0,15-5 0,-2 2 0,-1 0 0,0-2 0,-1-1 0,0 0 0,0-1 0,-1-1 0,19-20 0,-20 21 0,0 1 0,0 1 0,1 0 0,1 2 0,0 0 0,38-12 0,-36 13 0,20-4-1365,-22 8-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4758,7 +4875,35 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:44:10"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#fffc00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4791,7 +4936,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4858,7 +5003,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4890,7 +5035,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4952,7 +5097,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -4980,7 +5125,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5020,7 +5165,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5064,7 +5209,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5101,7 +5246,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5134,35 +5279,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:44:10"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.3" units="cm"/>
-      <inkml:brushProperty name="height" value="0.6" units="cm"/>
-      <inkml:brushProperty name="color" value="#fffc00"/>
-      <inkml:brushProperty name="tip" value="rectangle"/>
-      <inkml:brushProperty name="rasterOp" value="maskPen"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5211,7 +5328,39 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#e71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 216 24575,'1'34'0,"1"1"0,3-1 0,0 0 0,16 50 0,-19-71 0,0-1 0,-1 0 0,0 1 0,-1 17 0,-1-20 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,5 14 0,-6-22 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,5-1 0,10 1 0,0-1 0,27-2 0,-18 0 0,2 2 0,0-2 0,53-10 0,-58 8 0,39-3 0,-38 5 0,36-6 0,-31 2 0,34-8 0,-58 13 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,7-6 0,-9 6 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-6 0,-2-58 0,-1 40 0,3-25 0,0 37 0,0 0 0,-1 0 0,-1 0 0,-1 0 0,-4-21 0,3 28 0,-2 0 0,1 0 0,-1 0 0,0 1 0,-7-9 0,-15-26 0,13 12 0,9 19 0,0 0 0,-1 0 0,-11-15 0,15 24 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,-4-1 0,-25 0 0,-60 4 0,28 0 0,48 0 0,-1 1 0,1 0 0,1 1 0,-1 1 0,1 1 0,-29 14 0,23-11 0,15-6 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,0 0 0,1 0 0,0 12 0,1 6 17,1-1-1,2 1 0,13 47 0,0-1-1446,-15-56-5396</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 745 24575,'0'5'0,"1"0"0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,2 5 0,12 24 0,-10-8 0,-1-1 0,-1 1 0,-1 1 0,-1-1 0,-1 0 0,-2 35 0,0-45 0,2 1 0,6 30 0,2 24 0,-9-39 0,-1-8 0,1 1 0,1 0 0,7 31 0,-4-26 0,-1 1 0,-2-1 0,-1 1 0,-3 36 0,1-4 0,0-47 0,-1 1 0,-6 28 0,4-27 0,1 0 0,-2 22 0,5-21 0,0 1 0,-2 0 0,0 0 0,-2 0 0,0-1 0,-11 31 0,12-37 0,-1 0 0,2 0 0,0 0 0,0 0 0,1 1 0,0 19 0,1-17 0,0 1 0,-2-1 0,-4 24 0,-4 14-1365,8-37-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">488 1740 24575,'3'0'0,"1"1"0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-2 1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,4 5 0,-1 0 0,11 17 0,5 5 0,-7-13 0,-10-13 0,-2 1 0,1-1 0,-1 1 0,0 1 0,-1-1 0,0 1 0,-1 0 0,8 19 0,14 40 19,-19-53-249,-1 0-1,-1 1 0,-1 0 0,0 0 1,2 20-1,-6-20-6595</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">297 1126 24575,'1'0'0,"0"1"0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 2 0,10 26 0,-8-21 0,9 21 0,-2 1 0,-1 0 0,-1 1 0,-2 0 0,-1 0 0,-2 0 0,0 42 0,-3-62-227,0-1-1,1 1 1,0-1-1,0 1 1,4 12-1,0-9-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 1020 24575,'6'0'0,"0"1"0,0-1 0,0 2 0,0-1 0,0 0 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,-1-1 0,9 9 0,2 4 0,0 1 0,23 33 0,-1-2 0,-3 1 0,-26-36 0,1 1 0,16 17 0,-17-21 0,-1 2 0,0-1 0,0 1 0,-1 0 0,5 13 0,12 20 0,-11-17-1365,-8-15-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5256,7 +5405,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5288,7 +5437,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5350,7 +5499,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5378,7 +5527,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5406,7 +5555,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5446,7 +5595,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5489,7 +5638,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5521,7 +5670,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5583,39 +5732,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#e71224"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 216 24575,'1'34'0,"1"1"0,3-1 0,0 0 0,16 50 0,-19-71 0,0-1 0,-1 0 0,0 1 0,-1 17 0,-1-20 0,1 0 0,0 0 0,1 0 0,0-1 0,0 1 0,1 0 0,5 14 0,-6-22 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,0-1 0,1 0 0,-1 1 0,1-1 0,0 0 0,-1-1 0,1 1 0,0 0 0,0-1 0,-1 1 0,5-1 0,10 1 0,0-1 0,27-2 0,-18 0 0,2 2 0,0-2 0,53-10 0,-58 8 0,39-3 0,-38 5 0,36-6 0,-31 2 0,34-8 0,-58 13 0,0-1 0,0 0 0,0 0 0,0 0 0,0-1 0,-1 0 0,1 0 0,7-6 0,-9 6 0,-1 0 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,-1 0 0,1-6 0,-2-58 0,-1 40 0,3-25 0,0 37 0,0 0 0,-1 0 0,-1 0 0,-1 0 0,-4-21 0,3 28 0,-2 0 0,1 0 0,-1 0 0,0 1 0,-7-9 0,-15-26 0,13 12 0,9 19 0,0 0 0,-1 0 0,-11-15 0,15 24 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,1 0 0,-1 0 0,-4-1 0,-25 0 0,-60 4 0,28 0 0,48 0 0,-1 1 0,1 0 0,1 1 0,-1 1 0,1 1 0,-29 14 0,23-11 0,15-6 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,1 1 0,-1 1 0,1-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0-1 0,1 1 0,0 0 0,1 0 0,0 12 0,1 6 17,1-1-1,2 1 0,13 47 0,0-1-1446,-15-56-5396</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">361 745 24575,'0'5'0,"1"0"0,0-1 0,0 1 0,1 0 0,-1 0 0,1-1 0,0 1 0,0-1 0,1 0 0,2 5 0,12 24 0,-10-8 0,-1-1 0,-1 1 0,-1 1 0,-1-1 0,-1 0 0,-2 35 0,0-45 0,2 1 0,6 30 0,2 24 0,-9-39 0,-1-8 0,1 1 0,1 0 0,7 31 0,-4-26 0,-1 1 0,-2-1 0,-1 1 0,-3 36 0,1-4 0,0-47 0,-1 1 0,-6 28 0,4-27 0,1 0 0,-2 22 0,5-21 0,0 1 0,-2 0 0,0 0 0,-2 0 0,0-1 0,-11 31 0,12-37 0,-1 0 0,2 0 0,0 0 0,0 0 0,1 1 0,0 19 0,1-17 0,0 1 0,-2-1 0,-4 24 0,-4 14-1365,8-37-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">488 1740 24575,'3'0'0,"1"1"0,-1-1 0,0 1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 1 0,1-1 0,-2 1 0,1 0 0,0 0 0,0 0 0,0 0 0,4 5 0,4 5 0,-1 0 0,11 17 0,5 5 0,-7-13 0,-10-13 0,-2 1 0,1-1 0,-1 1 0,0 1 0,-1-1 0,0 1 0,-1 0 0,8 19 0,14 40 19,-19-53-249,-1 0-1,-1 1 0,-1 0 0,0 0 1,2 20-1,-6-20-6595</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">297 1126 24575,'1'0'0,"0"1"0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,1 2 0,10 26 0,-8-21 0,9 21 0,-2 1 0,-1 0 0,-1 1 0,-2 0 0,-1 0 0,-2 0 0,0 42 0,-3-62-227,0-1-1,1 1 1,0-1-1,0 1 1,4 12-1,0-9-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">530 1020 24575,'6'0'0,"0"1"0,0-1 0,0 2 0,0-1 0,0 0 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 1 0,-1-1 0,9 9 0,2 4 0,0 1 0,23 33 0,-1-2 0,-3 1 0,-26-36 0,1 1 0,16 17 0,-17-21 0,-1 2 0,0-1 0,0 1 0,-1 0 0,5 13 0,12 20 0,-11-17-1365,-8-15-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5643,7 +5760,69 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3144 1395 24575,'-21'2'0,"1"0"0,-1 2 0,1 0 0,0 2 0,0 0 0,-27 13 0,-39 11 0,48-18 0,-62 31 0,28-10 0,-23 13 0,36-16 0,45-24 0,0-1 0,0-1 0,-16 3 0,-33 11 0,31-4 0,-94 32 0,112-41 0,1 0 0,-1 1 0,1 1 0,-18 12 0,18-11 0,0 0 0,-1-1 0,0-1 0,-15 6 0,-17 0 0,32-10 0,0 1 0,1 1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-22 15 0,21-12 0,-1 0 0,0-1 0,0-1 0,-1 0 0,-31 9 0,-7 3 0,44-16 0,1 0 0,-1-1 0,1 0 0,-17 0 0,18-2 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-10 6 0,-5 4 0,0-2 0,-1-1 0,0 0 0,-36 7 0,34-9 0,0 0 0,1 1 0,-46 24 0,15-4-1365,43-21-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1197 2221 24575,'1'12'0,"2"0"0,-1 0 0,2 0 0,-1 0 0,2 0 0,-1-1 0,2 0 0,10 17 0,22 35 0,53 63 0,-85-119 0,68 82 0,-28-32 0,-33-43 0,-1 0 0,-1 1 0,15 25 0,-7-10 0,1-1 0,2-1 0,1 0 0,37 35 0,3 3 0,-44-45 0,29 36 0,-11 1 0,-24-35 0,1-1 0,2-1 0,21 24 0,-21-29 0,0 1 0,-2 0 0,0 1 0,-1 1 0,-1 0 0,11 23 0,-9-15 0,2 0 0,35 45 0,-40-57 0,-5-6-136,-1 0-1,0 0 1,0 1-1,-1 0 1,0-1-1,0 2 1,-1-1-1,-1 0 0,3 16 1,-4-9-6690</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3165 1247 24575,'3'0'0,"0"1"0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,2 3 0,34 41 0,-20-23 0,39 51 0,67 116 0,-49-71 0,-31-50 0,-14-20 0,42 53 0,-36-61 0,-20-24 0,-1 0 0,-1 1 0,-1 1 0,13 21 0,-15-16 0,0-2 0,2 0 0,1 0 0,1-1 0,0-1 0,34 34 0,-25-31 0,31 40 0,-36-40 0,-8-9 0,-2 1 0,0 0 0,11 24 0,-14-25 0,19 45 0,-19-42 0,1 0 0,0 0 0,15 22 0,-5-6-1365,-12-17-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2170 3893 24575,'9'-1'0,"0"0"0,0 0 0,0-1 0,10-3 0,31-6 0,-37 11 0,1-1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0-1 0,16-7 0,39-12 0,-52 19 0,-1-1 0,1-1 0,22-11 0,-9 2 0,51-18 0,-60 26 0,1 0 0,-1-2 0,-1-1 0,0 0 0,34-25 0,-31 17 0,0 1 0,2 1 0,0 0 0,28-12 0,15 3 0,-44 18 0,-2-2 0,40-20 0,-19 6 0,1 1 0,82-29 0,-109 46 0,1-1 0,-1 0 0,0-2 0,-1 0 0,0 0 0,17-14 0,-24 17 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,19-4 0,-16 5 0,1-1 0,-1-1 0,14-6 0,-11 2 0,0 1 0,1 1 0,0 0 0,32-8 0,-39 11 0,1 1 0,-2-1 0,1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,7-7 0,-5 3 0,1 2 0,0-1 0,20-9 0,17-9 0,-31 16 0,36-14 0,-20 10-1365,-19 9-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2784 3872 24575,'1'12'0,"1"0"0,0 0 0,1 0 0,0 0 0,1-1 0,9 21 0,4 12 0,-4-11 0,2-1 0,2 0 0,0-2 0,29 38 0,19 34 0,-35-46 0,-15-26 0,1-2 0,39 54 0,-49-74 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 1 0,2 14 0,10 26 0,-4-28 0,0 1 0,20 27 0,-4-9 0,-13-19 0,23 26 0,-24-31 0,0 0 0,19 31 0,24 40 0,-14-27 0,103 169 0,-104-177 47,-22-30-1459,-12-13-5414</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3694 5798 24575,'-1'34'0,"2"1"0,1-1 0,1 0 0,15 63 0,-12-74 0,-1 1 0,-1 0 0,0 35 0,-1-21 0,6 20 0,-5-41 0,-1-1 0,0 21 0,-4 50 0,2 37 0,10-67 0,-8-41 0,0 0 0,1 22 0,-5 67 0,2 44 0,10-92 0,-8-41 0,0 0 0,1 22 0,-4 89-1365,0-109-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4456 3364 24575,'1'9'0,"1"-1"0,1 1 0,-1-1 0,2 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,9 10 0,3 7 0,84 116 0,-32-49 0,-58-74 0,0 1 0,-1 0 0,12 33 0,-14-37 0,0-1 0,0 0 0,2 0 0,0-1 0,15 17 0,15 18 0,-32-36 0,19 26 0,0-2 0,65 65 0,17 13 0,34 14 0,-95-89 0,40 38 0,-54-49 0,-28-24 0,1 0 0,-1 1 0,-1 0 0,1 0 0,9 12 0,-6-6 0,0 0 0,20 17 0,-18-18 0,-1 0 0,15 18 0,-20-22 0,1 0 0,0 0 0,0-1 0,0 0 0,15 9 0,-14-10 0,0 1 0,0 0 0,-1 1 0,1-1 0,9 12 0,-8-4-45,15 14-1275,-12-20-5506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5896 5120 24575,'1'21'0,"2"0"0,0-1 0,1 1 0,2-1 0,8 25 0,11 41 0,-20-68 0,13 35 0,-12-41 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,3 21 0,-3-4 0,3-1 0,0 0 0,2 0 0,21 53 0,5 16 0,10 50 0,-25-73 0,28 103 0,-20-74 0,10 33 0,-20-80 0,-12-36 0,15 35 0,-16-46 0,-1 0 0,-1 0 0,1 0 0,0 14 0,-1-14 0,-1 0 0,1-1 0,1 1 0,6 16 0,13 18 0,-13-27 0,0 0 0,-2 0 0,0 1 0,6 22 0,-9-28 20,0 0 1,0-1-1,1 1 0,1-1 0,12 19 1,-11-20-269,-1 0 0,0 1 0,-1-1 0,0 2 1,6 20-1,-8-17-6578</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3589 7343 24575,'-41'0'0,"9"-1"0,1 1 0,-1 2 0,-54 10 0,69-9 0,-1-1 0,1-1 0,-25 0 0,30-2 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 1 0,1-1 0,-1 2 0,-12 5 0,6-1 0,0 0 0,0-2 0,0 0 0,-1-1 0,0 0 0,0-2 0,-21 1 0,-139-3 0,83-3 0,-285 2 0,365 1 0,0 0 0,-28 8 0,27-6 0,0 0 0,-21 1 0,-33-5-23,51-1-201,0 1 1,1 1-1,-1 1 0,0 1 1,-34 7-1,41-4-6602</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1726 7597 24575,'-1'3'0,"0"0"0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,-3 6 0,-5 6 0,-12 14 0,19-24 0,0 1 0,0 0 0,0 0 0,-6 10 0,-5 12 0,-2 0 0,-29 36 0,26-37 0,8-11 0,-2 1 0,0-2 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,0-1 0,-1 0 0,0-1 0,-36 12 0,-55 28-70,-18 6-432,63-30 502,-121 64 0,160-75 0,1 1 0,-1-1 0,0-2 0,-1-1 0,-34 11 0,31-13 0,1 2 0,1 1 0,-1 1 0,2 2 0,-33 22 0,-2-4 240,47-27-185,1 0 1,0 1-1,0 1 1,1 0-1,-16 14 0,21-16-250,0-1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-15 6 0,9-6-6631</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">7123 7174 24575,'2'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,2 4 0,10 10 0,6 0 0,31 17 0,8 7 0,-41-29 0,0-1 0,0-1 0,1 0 0,0-1 0,1-1 0,0-1 0,34 6 0,-20-4 0,49 19 0,120 45-116,-170-60 19,0-2 0,1-2 0,0-1 0,0-1 0,38 1 0,81 13 97,-28 1 0,-69-14 0,-3 0 0,61 1 0,741-9-667,-836 1-6159</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">9452 7745 24575,'1'6'0,"0"0"0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,6 9 0,6 19 0,-1 23 0,-11-44 0,1 0 0,0 0 0,1 0 0,0-1 0,1 0 0,8 16 0,46 94 0,-2-5 0,-17-51 0,-11-19 0,-2 0 0,35 85 0,-56-115 0,2-1 0,0 0 0,1-1 0,0 0 0,2-1 0,-1 0 0,2 0 0,21 20 0,-5 0 0,-24-28 0,1 0 0,0 0 0,0 0 0,0 0 0,13 9 0,5 2-1365,-14-8-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">392 8676 24575,'-3'0'0,"0"1"0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-2 2 0,-33 40 0,17-19 0,-5 8 0,21-27 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-9 8 0,4-4 0,-1 1 0,2 1 0,-1 0 0,-14 20 0,-17 19 0,13-21-682,-42 31-1,61-52-6143</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1324 2496 24575,'-10'1'0,"1"1"0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,1 2 0,-1-1 0,1 1 0,0 0 0,0 0 0,-8 9 0,6-7 0,0 1 0,0-1 0,-1-1 0,0 0 0,0-1 0,-18 7 0,14-8 0,1 2 0,-1-1 0,-13 9 0,-18 8 0,30-16 0,-23 9 0,-54 28 0,28-3-1365,53-33-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">795 3131 24575,'1'4'0,"0"0"0,0 0 0,1 0 0,0 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 4 0,7 10 0,-15-16 0,18 21 0,19 30 0,-33-43 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,2 14 0,2 4 0,2 0 0,0 0 0,2-1 0,1 0 0,16 26 0,-8-14 0,31 76 0,-29-63 0,44 77 0,-51-101-1365,-11-14-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1260 4020 24575,'19'-1'0,"-1"-1"0,1-1 0,-1-1 0,0 0 0,0-1 0,0-1 0,-1-1 0,23-11 0,-24 12 0,0 0 0,0 1 0,30-4 0,-30 6 0,-1 0 0,1 0 0,-1-2 0,27-11 0,-31 9 0,1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,21-2 0,-21 3 0,-1-1 0,0 0 0,1-1 0,-1 0 0,0-1 0,0-1 0,16-8 0,-11 5 0,0 1 0,28-7 0,80-9 0,-92 16-1365,-19 2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2192 3554 24575,'2'0'0,"0"0"0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,-1-1 0,1 1 0,1 1 0,3 8 0,-1 0 0,6 22 0,-2-6 0,3 7 0,-2 0 0,8 49 0,-14-65-1365,-2-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6996 506 24575,'-6'2'0,"0"0"0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 1 0,-5 4 0,9-6 0,-9 7 0,1 1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 1 0,-1 0 0,1 0 0,-8 21 0,-1 0 0,6-12 0,-11 38 0,14-40 0,0 1 0,-17 31 0,14-30 0,0 0 0,-13 45 0,-5 9 0,25-65 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,0 0 0,2 18 0,-1-15 0,0 0 0,-1 0 0,-6 27 0,-62 209 0,67-241 0,-3 14 0,-1 0 0,-2-1 0,0 1 0,-1-1 0,-23 39 0,26-50 0,0 1 0,1 1 0,0-1 0,1 1 0,-5 23 0,5-20 0,0 0 0,-1 0 0,-8 16 0,-82 162 0,90-183 0,2 1 0,-6 23 0,7-23 0,-1-1 0,0 0 0,-8 19 0,-15 23 0,-36 52 0,51-88 0,1 0 0,0 0 0,2 0 0,-10 28 0,12-30 0,0 0 0,-2 0 0,-14 21 0,-1 2 0,-12 15 0,27-44 0,1 1 0,0 0 0,1 0 0,0 0 0,-8 22 0,3-3 0,-1-1 0,-1-1 0,-2 0 0,-21 30 0,18-27 0,12-19 0,-1 1 0,0-2 0,-13 16 0,11-15 0,1 0 0,0 0 0,-9 19 0,10-17 0,0-1 0,-1-1 0,-13 17 0,16-22 0,0 1 0,1 0 0,-1 0 0,2 0 0,-6 12 0,-13 24 0,-58 90 0,72-120 0,-19 31 0,-2-2 0,-47 52 0,55-70 0,-22 20 0,32-34 0,1 1 0,0 0 0,0 0 0,1 1 0,-10 18 0,12-18 0,-1 0 0,1-1 0,-2 0 0,0-1 0,0 0 0,-16 13 0,18-17 0,0 0 0,0 1 0,1 0 0,-7 7 0,8-7 0,-1 0 0,0-1 0,0 1 0,-14 9 0,-59 44 0,65-50 0,1 0 0,0 1 0,0 1 0,1 0 0,0 0 0,-13 21 0,-25 24 0,0-11 0,-1-3 0,-81 52 0,81-57 0,36-26 0,-1 0 0,0-1 0,-1-1 0,-31 15 0,-28 8 0,-82 48 0,137-69-120,10-4-35,-1-1-1,-1-1 0,1 0 1,-1 0-1,0-1 0,-1-1 1,-26 5-1,24-7-6670</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4435 4507 24575,'61'1'0,"69"-3"0,-108-2 0,0 0 0,-1-2 0,1-1 0,38-17 0,25-9 0,-69 28 0,-2-1 0,1-1 0,-1 0 0,0-1 0,17-12 0,26-9 0,-46 25 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,9-7 0,-6 3 0,1 0 0,25-14 0,-24 17 0,-1-1 0,0-1 0,13-11 0,-19 14 0,1 0 0,0 1 0,0 0 0,0 0 0,10-3 0,-7 3 0,0 0 0,19-14 0,257-212 0,-103 93 0,-147 109 0,-20 17 0,0-1 0,-1-1 0,0-1 0,-2 0 0,25-32 0,-16 13 0,-13 20 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,9-26 0,-3 2 0,2 1 0,37-69 0,10-26 0,-35 69 0,14-44 0,-31 79 0,16-32 0,-14 35 0,15-45 0,31-97 0,-51 152 0,2 0 0,12-18 0,15-27 0,60-150 0,-90 198 0,1 0 0,1 1 0,10-15 0,-10 16 0,0 0 0,-1-1 0,10-22 0,42-131 0,-51 147 0,1 0 0,0 0 0,1 1 0,18-24 0,-5 9 0,4-6 0,-18 27 0,-1-1 0,0 1 0,-1-1 0,0-1 0,5-13 0,-8 15 0,0 0 0,1 1 0,0-1 0,1 1 0,0 1 0,0-1 0,11-11 0,-6 7 0,-2 1 0,1-2 0,-1 1 0,-1-1 0,-1-1 0,0 0 0,-1 1 0,-1-2 0,0 1 0,3-26 0,34-127 0,-34 135 0,-4 17 0,0-1 0,-1 0 0,1-20 0,-1 1 0,2 1 0,2 0 0,1 0 0,18-47 0,-16 52 0,-6 20 14,0 1-1,0 0 0,1 0 0,1 0 1,-1 1-1,2 0 0,-1 0 1,12-11-1,-3 5-384,0 0-1,2 2 1,24-17 0,-30 23-6455</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4287 3660 24575,'1'-3'0,"0"0"0,0 0 0,0-1 0,1 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,4-4 0,1-4 0,16-18 0,43-43 0,-39 43 0,30-38 0,109-129 0,-135 162 0,-19 20 0,-1 1 0,-1-2 0,1 1 0,-2-1 0,0-1 0,-1 0 0,0 0 0,7-22 0,-6 12 0,19-34 0,-18 41 0,-2 0 0,0-1 0,10-34 0,-5-5 0,17-94 0,-10 44 0,-10 39 0,-6 50 0,0 0 0,-1-21 0,8-59 0,-6 66 0,1-46 0,-6 59 0,-1-21 0,2 1 0,11-72 0,19-121 0,-21 165 0,-6 39 0,3-43 0,3-61 0,1-9 0,-12 106 0,2 0 0,11-61 0,-8 59 0,0 1 0,-3-1 0,-3-43 0,3-64 0,10 88 0,-8 42 0,0-1 0,1-23 0,-4 8-72,0 19-143,0 0-1,1 0 1,0 0-1,0 0 1,5-15-1,-2 13-6610</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 3533 24575,'-1'-24'0,"1"1"0,2 0 0,0-1 0,1 1 0,2 0 0,13-42 0,18-56 0,-24 78 0,-3 2 0,8-79 0,-13 78 0,16-65 0,-11 62 0,-5 23 0,0-1 0,1-34 0,-5 38 0,2 0 0,0 0 0,1 0 0,1 1 0,0-1 0,11-25 0,-1 13 0,0 1 0,33-50 0,21-41 0,-55 97 0,-1-1 0,-1 0 0,9-29 0,12-29 0,-12 32 0,-3-1 0,16-70 0,-29 101 0,-1 0 0,0-33 0,-2 32 0,0 0 0,7-29 0,3-7 0,-2-1 0,2-74 0,-11-122 0,-2 112 0,2 113 0,-1 0 0,1 0 0,2 0 0,10-49 0,9-47 0,-15 90-1365,-4 19-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4774 379 24575,'1'26'0,"2"0"0,1 0 0,9 33 0,-6-33 0,-2 0 0,0 0 0,0 35 0,-5-47 0,-1 12 0,2-1 0,1 1 0,8 40 0,-5-30 0,0 1 0,-3 0 0,-1-1 0,-4 42 0,1 7 0,2 105-1365,0-172-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5028 294 24575,'3'2'0,"-1"-1"0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,1 3 0,5 6 0,-3-4 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,1 13 0,5 24 0,14 60 0,0 34-1365,-17-122-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">816 2792 24575,'-15'1'0,"0"0"0,1 2 0,-1-1 0,1 2 0,-1 0 0,1 1 0,0 0 0,1 1 0,-19 11 0,29-16 0,-46 21 0,25-12 0,-32 20 0,42-23-1365,2-2-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">646 2919 24575,'2'25'0,"1"0"0,0 0 0,3 0 0,0-1 0,11 28 0,2 14 0,-8-27 0,1 2 0,14 84 0,-20-43-1365,-2-64-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">689 2940 24575,'1'2'0,"0"0"0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,4 2 0,9 8 0,56 73 0,-45-48 0,-23-30 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,7 5 0,-3-3 0,-1 0 0,0 1 0,0 0 0,12 19 0,3 2 0,-14-17 0,0 0 0,13 27 0,-15-25 0,1-1 0,16 23 0,-18-28 0,0 0 0,-1-1 0,8 17 0,-10-16 0,1 0 0,1-1 0,0 1 0,11 13 0,-9-13 0,-1 1 0,0-1 0,-1 2 0,1-1 0,-2 1 0,7 20 0,-6-15 0,1-1 0,11 22 0,-10-22-170,-1-1-1,0 2 0,-2-1 1,1 0-1,-2 1 0,0 0 1,1 29-1,-3-27-6655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1281 4147 24575,'0'-4'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3821 5332 24575,'0'1'0,"1"0"0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,2 1 0,31 12 0,-27-11 0,12 5 0,1-1 0,1-2 0,-1 0 0,0-1 0,1 0 0,31-2 0,61 0 0,91-4 0,-199 2 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-4 0,-4 3 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,10-3 0,3 3 0,0-2 0,-1 0 0,0-1 0,0-1 0,0-1 0,0 0 0,27-18 0,-33 19 0,0 0 0,0 0 0,1 1 0,22-6 0,-24 8 0,0 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,9-7 0,-12 9 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,9 1 0,-7-1 0,1 0 0,-1-1 0,0 1 0,0-2 0,16-5 0,17-12 0,50-16 0,-73 31 0,1 1 0,29-2 0,3-1 0,-41 6-227,-1-1-1,1-1 1,-1 0-1,0 0 1,19-9-1,-16 3-6598</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3843 5607 24575,'0'5'0,"1"-1"0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,8 5 0,-2-2 0,-1-1 0,1 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,13 2 0,25 0 0,0-3 0,61-4 0,-16 0 0,-74 2 0,12 1 0,-1-1 0,1-2 0,0 0 0,0-2 0,-1-2 0,34-10 0,-50 12 0,-1 1 0,1 0 0,17-1 0,-22 3 0,0 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,11-8 0,-2 0 0,2 1 0,0 0 0,0 1 0,0 1 0,25-7 0,8-4 0,-6 3 0,-30 12 0,-1-1 0,27-14 0,-21 10 0,1 0 0,0 2 0,0 0 0,1 2 0,0 0 0,0 1 0,36-2 0,-29 2 0,0-1 0,-1-1 0,31-12 0,-9 3 0,-3 5 0,-39 10 0,0-1 0,-1 1 0,1-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 0 0,12-9 0,-13 8 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 1 0,0 0 0,0 0 0,14-2 0,2 1 0,39-2 0,-27 4 0,-24 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,10-6 0,34-14 0,-40 19-1365,-3 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3885 7322 24575,'932'0'0,"-918"-1"0,-1 0 0,0-1 0,16-5 0,30-3 0,-39 8 0,1-2 0,-1-1 0,1 0 0,24-11 0,39-9 0,-65 19 0,0 0 0,0-1 0,19-10 0,39-15 0,-25 17 0,-1 1 0,69-30 0,-108 39 0,1 2 0,-1-1 0,1 2 0,-1-1 0,25 0 0,27-4 0,63-15 0,-104 19 0,0 0 0,-1 1 0,43 3 0,26-2 0,-33-9 0,-43 6 0,0 1 0,25-2 0,-21 5-116,-1 0-300,1-1-1,30-6 1,-31 3-6410</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3673 7406 24575,'0'3'0,"0"0"0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,4 3 0,3 3 0,1-1 0,0-1 0,12 7 0,15 11 0,-16-10 0,0 0 0,1-1 0,1-2 0,-1 0 0,2-1 0,0-1 0,0-2 0,43 9 0,-54-14 0,19 5 0,0-2 0,61 3 0,-68-7 0,47 8 0,-46-4 0,42 1 0,652-7 0,-692-1 0,50-9 0,-15 2 0,85-12 0,-96 11 0,-35 6 0,0 1 0,24-1 0,-24 3 0,1-2 0,-1 0 0,1-1 0,23-9 0,18-4 0,-27 10 0,-15 2 0,0 1 0,1 1 0,24-1 0,-18 2 0,0-1 0,-1-1 0,37-12 0,1 1 0,59-19 0,-43 11 0,-24 12 0,-35 8 0,0-1 0,0-1 0,27-11 0,-28 8 0,-6 2 0,0 1 0,-1 1 0,15-5 0,-7 5 0,9-2 0,-1-1 0,0-2 0,37-16 0,-50 17 0,0 0 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,0 0 0,0 1 0,0 1 0,20-1 0,-21 3-94,31-4-1177,-31 0-5555</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3186 3110 24575,'1'-4'0,"0"1"0,1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,5-4 0,7-7 0,26-30 0,49-42 0,-29 30 0,168-170 0,-17 43 0,-133 101 0,72-98 0,-145 172 0,2-2 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1 0 0,2-19 0,-2 0 0,-2 1 0,-1 0 0,-5-39 0,-15-38 0,11 61 0,4 20 0,-3-49 0,6 56 0,0 0 0,-1 1 0,-2-1 0,0 1 0,-10-25 0,8 25 0,1 1 0,1-1 0,0 0 0,2-1 0,-3-30 0,4 35 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-9-15 0,-13-37 0,12 29 0,-1 1 0,-34-57 0,26 49 0,-49-97 0,47 92 0,19 39 0,1 0 0,0 0 0,1-1 0,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,-2-20 0,2 7 0,-1-1 0,-1 0 0,-2 1 0,0 0 0,-11-23 0,-4-17 0,9 25 0,-13-49 0,19 57 0,1 0 0,2-1 0,-1-43 0,5 57-108,-1 13 19,0 0-1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,4-7 0,3 3-6736</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3081 3173 24575,'1'-27'0,"10"-52"0,-1 15 0,9-46 0,-11 75 0,-2-1 0,3-59 0,-7 67 0,1-1 0,1 1 0,11-36 0,3-19 0,-10 36 0,-3 25 0,-1 1 0,1-37 0,-7-47 0,3-87 0,0 182 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,12-11 0,-7 6 0,-2 0 0,1-1 0,-2-1 0,14-26 0,-13 23 0,0 0 0,23-29 0,-21 31 0,0-1 0,-1 0 0,7-17 0,19-29 0,-29 52 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,2-17 0,3-19 0,-4 24 0,0 0 0,0-28 0,-4 0 0,-1 8 0,2 0 0,11-71 0,-7 73 0,-1 0 0,-4-81 0,-1 55 0,-1 46 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-19-40 0,23 55 0,-28-47 0,25 43 0,-1 1 0,2-1 0,-1-1 0,-7-19 0,-44-144 0,48 141-273,2 1 0,1-1 0,2 0 0,0-60 0,4 75-6553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">5642 5099 24575,'28'-1'0,"0"2"0,1 1 0,-1 1 0,-1 2 0,45 12 0,-43-7 0,17 5 0,70 14 0,-67-24 0,1-2 0,72-5 0,-25 0 0,-23 3 0,84-3 0,-143-1 0,0 0 0,0-1 0,0-1 0,0 0 0,25-15 0,14-3 0,-48 20 0,14-4 0,-1-1 0,27-15 0,-42 20 0,1 1 0,-1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-2 1 0,3-8 0,8-31 0,2 0 0,1 1 0,29-53 0,-1 0 0,-10 0 0,-21 57 0,23-49 0,-16 41 0,-1-1 0,14-66 0,-12 39 0,10-44-259,-20 72 25,2 0 0,35-85 0,-24 77-390,28-107 1,-34 101 57,34-82 0,20-48 585,-60 161 30,9-39 1,1-6-55,146-328 5,-133 332 0,-8 18 0,29-79 0,-42 87 20,-6 20 7,0 0 1,2 0-1,1 0 0,14-23 1,69-128 144,-71 132-114,16-20 504,-26 44-266,-1 0 0,16-37 1,-2-4-64,16-51 343,-30 83-578,1 0 0,1 1-1,26-39 1,16-34 108,-43 78-13,0 0 0,2 2 0,0-1 0,32-33 0,-2 1-75,-16 14-18,-18 24 0,0 1 0,21-22 0,-1 7 0,56-52 0,-78 74 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,1 1 0,-1 1 0,15-5 0,49-20 0,-59 22 0,0 1 0,0 1 0,0 0 0,1 0 0,0 2 0,16-3 0,98-15 0,-93 14 0,1 0 0,58-1 0,-49-1-1,3 0 68,-46 9-156,-1-1-1,0 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,3 2 1,4 6-6737</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6002 5692 24575,'593'0'0,"-555"-3"0,0-1 0,72-17 0,-62 10 0,-10 3-35,10-1-158,-1-2 1,75-29-1,-93 30 185,-1 1-1,43-7 1,-44 11 40,-1-1-1,0-2 1,40-16 0,57-28 479,-110 47-511,-1-1 0,-1-1 0,0 0 0,0 0 0,0-2 0,12-10 0,56-63 0,-57 57 0,144-150 0,-157 166 0,-2-1 0,1 0 0,-1-1 0,-1 0 0,0 0 0,0 0 0,7-23 0,-6 13 0,-1-1 0,-1-1 0,3-32 0,-8 45 0,1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,1 0 0,7-16 0,-3 8 0,-1 0 0,-1-1 0,-1 0 0,5-23 0,6-21 0,46-130 0,-12 44 0,-33 101 0,18-91 0,-13 48 0,-8 19 0,-9 46 0,13-48 0,25-55 0,-38 103 0,0-2 0,1-34 0,-3 27 0,6-28 0,-5 42 0,-1-1 0,1-24 0,-3 25 0,1 0 0,2 0 0,0 1 0,0-1 0,2 1 0,9-23 0,-3 11 0,-6 9 0,7-44 0,-9 42 0,10-35 0,39-74 0,11-96 0,-63 225 0,18-67 0,41-96 0,-37 90 0,-18 57 0,0 0 0,16-36 0,-8 27 0,10-35 0,-15 39 0,1 1 0,20-38 0,21-53 0,-36 95 0,-11 17 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,2-8 0,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,1 0 0,13-16 0,11-30 0,-25 45 0,-1 0 0,1 0 0,1 1 0,12-17 0,27-20 0,-22 22 0,35-44 0,-7 18 0,-43 43 0,0 0 0,0 1 0,1 0 0,0 1 0,0 0 0,19-7 0,4-4 0,8-10 0,-33 21 0,0 0 0,0 1 0,0-1 0,15-5 0,-2 2 0,-1 0 0,0-2 0,-1-1 0,0 0 0,0-1 0,-1-1 0,19-20 0,-20 21 0,0 1 0,0 1 0,1 0 0,1 2 0,0 0 0,38-12 0,-36 13 0,20-4-1365,-22 8-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5683,7 +5862,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5727,7 +5906,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5764,7 +5943,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5797,7 +5976,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5864,7 +6043,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5898,7 +6077,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5932,7 +6111,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -5967,7 +6146,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6001,69 +6180,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3144 1395 24575,'-21'2'0,"1"0"0,-1 2 0,1 0 0,0 2 0,0 0 0,-27 13 0,-39 11 0,48-18 0,-62 31 0,28-10 0,-23 13 0,36-16 0,45-24 0,0-1 0,0-1 0,-16 3 0,-33 11 0,31-4 0,-94 32 0,112-41 0,1 0 0,-1 1 0,1 1 0,-18 12 0,18-11 0,0 0 0,-1-1 0,0-1 0,-15 6 0,-17 0 0,32-10 0,0 1 0,1 1 0,-1 1 0,1 0 0,0 0 0,0 1 0,-22 15 0,21-12 0,-1 0 0,0-1 0,0-1 0,-1 0 0,-31 9 0,-7 3 0,44-16 0,1 0 0,-1-1 0,1 0 0,-17 0 0,18-2 0,1 1 0,-1 0 0,1 0 0,0 1 0,-1 0 0,1 0 0,0 0 0,-10 6 0,-5 4 0,0-2 0,-1-1 0,0 0 0,-36 7 0,34-9 0,0 0 0,1 1 0,-46 24 0,15-4-1365,43-21-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1197 2221 24575,'1'12'0,"2"0"0,-1 0 0,2 0 0,-1 0 0,2 0 0,-1-1 0,2 0 0,10 17 0,22 35 0,53 63 0,-85-119 0,68 82 0,-28-32 0,-33-43 0,-1 0 0,-1 1 0,15 25 0,-7-10 0,1-1 0,2-1 0,1 0 0,37 35 0,3 3 0,-44-45 0,29 36 0,-11 1 0,-24-35 0,1-1 0,2-1 0,21 24 0,-21-29 0,0 1 0,-2 0 0,0 1 0,-1 1 0,-1 0 0,11 23 0,-9-15 0,2 0 0,35 45 0,-40-57 0,-5-6-136,-1 0-1,0 0 1,0 1-1,-1 0 1,0-1-1,0 2 1,-1-1-1,-1 0 0,3 16 1,-4-9-6690</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3165 1247 24575,'3'0'0,"0"1"0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 1 0,-1-1 0,0 1 0,1 0 0,-1 0 0,2 3 0,34 41 0,-20-23 0,39 51 0,67 116 0,-49-71 0,-31-50 0,-14-20 0,42 53 0,-36-61 0,-20-24 0,-1 0 0,-1 1 0,-1 1 0,13 21 0,-15-16 0,0-2 0,2 0 0,1 0 0,1-1 0,0-1 0,34 34 0,-25-31 0,31 40 0,-36-40 0,-8-9 0,-2 1 0,0 0 0,11 24 0,-14-25 0,19 45 0,-19-42 0,1 0 0,0 0 0,15 22 0,-5-6-1365,-12-17-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2170 3893 24575,'9'-1'0,"0"0"0,0 0 0,0-1 0,10-3 0,31-6 0,-37 11 0,1-1 0,-1-1 0,0 0 0,0-1 0,0 0 0,0-1 0,16-7 0,39-12 0,-52 19 0,-1-1 0,1-1 0,22-11 0,-9 2 0,51-18 0,-60 26 0,1 0 0,-1-2 0,-1-1 0,0 0 0,34-25 0,-31 17 0,0 1 0,2 1 0,0 0 0,28-12 0,15 3 0,-44 18 0,-2-2 0,40-20 0,-19 6 0,1 1 0,82-29 0,-109 46 0,1-1 0,-1 0 0,0-2 0,-1 0 0,0 0 0,17-14 0,-24 17 0,1 0 0,0 0 0,0 1 0,0 0 0,0 0 0,19-4 0,-16 5 0,1-1 0,-1-1 0,14-6 0,-11 2 0,0 1 0,1 1 0,0 0 0,32-8 0,-39 11 0,1 1 0,-2-1 0,1 0 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,7-7 0,-5 3 0,1 2 0,0-1 0,20-9 0,17-9 0,-31 16 0,36-14 0,-20 10-1365,-19 9-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2784 3872 24575,'1'12'0,"1"0"0,0 0 0,1 0 0,0 0 0,1-1 0,9 21 0,4 12 0,-4-11 0,2-1 0,2 0 0,0-2 0,29 38 0,19 34 0,-35-46 0,-15-26 0,1-2 0,39 54 0,-49-74 0,-1 1 0,0 0 0,-1 0 0,1 0 0,-2 0 0,1 1 0,2 14 0,10 26 0,-4-28 0,0 1 0,20 27 0,-4-9 0,-13-19 0,23 26 0,-24-31 0,0 0 0,19 31 0,24 40 0,-14-27 0,103 169 0,-104-177 47,-22-30-1459,-12-13-5414</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3694 5798 24575,'-1'34'0,"2"1"0,1-1 0,1 0 0,15 63 0,-12-74 0,-1 1 0,-1 0 0,0 35 0,-1-21 0,6 20 0,-5-41 0,-1-1 0,0 21 0,-4 50 0,2 37 0,10-67 0,-8-41 0,0 0 0,1 22 0,-5 67 0,2 44 0,10-92 0,-8-41 0,0 0 0,1 22 0,-4 89-1365,0-109-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4456 3364 24575,'1'9'0,"1"-1"0,1 1 0,-1-1 0,2 1 0,-1-1 0,1 0 0,0 0 0,0-1 0,1 1 0,9 10 0,3 7 0,84 116 0,-32-49 0,-58-74 0,0 1 0,-1 0 0,12 33 0,-14-37 0,0-1 0,0 0 0,2 0 0,0-1 0,15 17 0,15 18 0,-32-36 0,19 26 0,0-2 0,65 65 0,17 13 0,34 14 0,-95-89 0,40 38 0,-54-49 0,-28-24 0,1 0 0,-1 1 0,-1 0 0,1 0 0,9 12 0,-6-6 0,0 0 0,20 17 0,-18-18 0,-1 0 0,15 18 0,-20-22 0,1 0 0,0 0 0,0-1 0,0 0 0,15 9 0,-14-10 0,0 1 0,0 0 0,-1 1 0,1-1 0,9 12 0,-8-4-45,15 14-1275,-12-20-5506</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5896 5120 24575,'1'21'0,"2"0"0,0-1 0,1 1 0,2-1 0,8 25 0,11 41 0,-20-68 0,13 35 0,-12-41 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,3 21 0,-3-4 0,3-1 0,0 0 0,2 0 0,21 53 0,5 16 0,10 50 0,-25-73 0,28 103 0,-20-74 0,10 33 0,-20-80 0,-12-36 0,15 35 0,-16-46 0,-1 0 0,-1 0 0,1 0 0,0 14 0,-1-14 0,-1 0 0,1-1 0,1 1 0,6 16 0,13 18 0,-13-27 0,0 0 0,-2 0 0,0 1 0,6 22 0,-9-28 20,0 0 1,0-1-1,1 1 0,1-1 0,12 19 1,-11-20-269,-1 0 0,0 1 0,-1-1 0,0 2 1,6 20-1,-8-17-6578</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3589 7343 24575,'-41'0'0,"9"-1"0,1 1 0,-1 2 0,-54 10 0,69-9 0,-1-1 0,1-1 0,-25 0 0,30-2 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 1 0,1-1 0,-1 2 0,-12 5 0,6-1 0,0 0 0,0-2 0,0 0 0,-1-1 0,0 0 0,0-2 0,-21 1 0,-139-3 0,83-3 0,-285 2 0,365 1 0,0 0 0,-28 8 0,27-6 0,0 0 0,-21 1 0,-33-5-23,51-1-201,0 1 1,1 1-1,-1 1 0,0 1 1,-34 7-1,41-4-6602</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1726 7597 24575,'-1'3'0,"0"0"0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-1 0 0,-1-1 0,-3 6 0,-5 6 0,-12 14 0,19-24 0,0 1 0,0 0 0,0 0 0,-6 10 0,-5 12 0,-2 0 0,-29 36 0,26-37 0,8-11 0,-2 1 0,0-2 0,0 0 0,-1-1 0,-1 0 0,0-1 0,-1-1 0,0-1 0,-1 0 0,0-1 0,-36 12 0,-55 28-70,-18 6-432,63-30 502,-121 64 0,160-75 0,1 1 0,-1-1 0,0-2 0,-1-1 0,-34 11 0,31-13 0,1 2 0,1 1 0,-1 1 0,2 2 0,-33 22 0,-2-4 240,47-27-185,1 0 1,0 1-1,0 1 1,1 0-1,-16 14 0,21-16-250,0-1 0,0 1 0,0-2 0,-1 1 0,1-1 0,-15 6 0,9-6-6631</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">7123 7174 24575,'2'1'0,"0"0"0,0 0 0,0 0 0,0 1 0,-1-1 0,1 0 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 0 0,2 4 0,10 10 0,6 0 0,31 17 0,8 7 0,-41-29 0,0-1 0,0-1 0,1 0 0,0-1 0,1-1 0,0-1 0,34 6 0,-20-4 0,49 19 0,120 45-116,-170-60 19,0-2 0,1-2 0,0-1 0,0-1 0,38 1 0,81 13 97,-28 1 0,-69-14 0,-3 0 0,61 1 0,741-9-667,-836 1-6159</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">9452 7745 24575,'1'6'0,"0"0"0,0 0 0,1 0 0,-1 0 0,2 0 0,-1 0 0,6 9 0,6 19 0,-1 23 0,-11-44 0,1 0 0,0 0 0,1 0 0,0-1 0,1 0 0,8 16 0,46 94 0,-2-5 0,-17-51 0,-11-19 0,-2 0 0,35 85 0,-56-115 0,2-1 0,0 0 0,1-1 0,0 0 0,2-1 0,-1 0 0,2 0 0,21 20 0,-5 0 0,-24-28 0,1 0 0,0 0 0,0 0 0,0 0 0,13 9 0,5 2-1365,-14-8-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">392 8676 24575,'-3'0'0,"0"1"0,0-1 0,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-2 2 0,-33 40 0,17-19 0,-5 8 0,21-27 0,-1 0 0,1 0 0,-1 0 0,0 0 0,-1-1 0,-9 8 0,4-4 0,-1 1 0,2 1 0,-1 0 0,-14 20 0,-17 19 0,13-21-682,-42 31-1,61-52-6143</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1324 2496 24575,'-10'1'0,"1"1"0,0 0 0,0 1 0,0-1 0,0 2 0,0-1 0,1 2 0,-1-1 0,1 1 0,0 0 0,0 0 0,-8 9 0,6-7 0,0 1 0,0-1 0,-1-1 0,0 0 0,0-1 0,-18 7 0,14-8 0,1 2 0,-1-1 0,-13 9 0,-18 8 0,30-16 0,-23 9 0,-54 28 0,28-3-1365,53-33-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">795 3131 24575,'1'4'0,"0"0"0,0 0 0,1 0 0,0 0 0,-1-1 0,2 1 0,-1 0 0,0-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,6 4 0,7 10 0,-15-16 0,18 21 0,19 30 0,-33-43 0,0 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,2 14 0,2 4 0,2 0 0,0 0 0,2-1 0,1 0 0,16 26 0,-8-14 0,31 76 0,-29-63 0,44 77 0,-51-101-1365,-11-14-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1260 4020 24575,'19'-1'0,"-1"-1"0,1-1 0,-1-1 0,0 0 0,0-1 0,0-1 0,-1-1 0,23-11 0,-24 12 0,0 0 0,0 1 0,30-4 0,-30 6 0,-1 0 0,1 0 0,-1-2 0,27-11 0,-31 9 0,1 1 0,0 0 0,1 1 0,-1 1 0,1 0 0,0 1 0,0 0 0,0 1 0,21-2 0,-21 3 0,-1-1 0,0 0 0,1-1 0,-1 0 0,0-1 0,0-1 0,16-8 0,-11 5 0,0 1 0,28-7 0,80-9 0,-92 16-1365,-19 2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">2192 3554 24575,'2'0'0,"0"0"0,-1 1 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,0 1 0,0-1 0,0 0 0,1 1 0,-1 0 0,-1-1 0,1 1 0,1 1 0,3 8 0,-1 0 0,6 22 0,-2-6 0,3 7 0,-2 0 0,8 49 0,-14-65-1365,-2-2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6996 506 24575,'-6'2'0,"0"0"0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 1 0,-5 4 0,9-6 0,-9 7 0,1 1 0,0 0 0,1 1 0,0 0 0,0 0 0,2 1 0,-1 0 0,1 0 0,-8 21 0,-1 0 0,6-12 0,-11 38 0,14-40 0,0 1 0,-17 31 0,14-30 0,0 0 0,-13 45 0,-5 9 0,25-65 0,0 1 0,0 0 0,1 0 0,0 0 0,1 0 0,0 0 0,2 18 0,-1-15 0,0 0 0,-1 0 0,-6 27 0,-62 209 0,67-241 0,-3 14 0,-1 0 0,-2-1 0,0 1 0,-1-1 0,-23 39 0,26-50 0,0 1 0,1 1 0,0-1 0,1 1 0,-5 23 0,5-20 0,0 0 0,-1 0 0,-8 16 0,-82 162 0,90-183 0,2 1 0,-6 23 0,7-23 0,-1-1 0,0 0 0,-8 19 0,-15 23 0,-36 52 0,51-88 0,1 0 0,0 0 0,2 0 0,-10 28 0,12-30 0,0 0 0,-2 0 0,-14 21 0,-1 2 0,-12 15 0,27-44 0,1 1 0,0 0 0,1 0 0,0 0 0,-8 22 0,3-3 0,-1-1 0,-1-1 0,-2 0 0,-21 30 0,18-27 0,12-19 0,-1 1 0,0-2 0,-13 16 0,11-15 0,1 0 0,0 0 0,-9 19 0,10-17 0,0-1 0,-1-1 0,-13 17 0,16-22 0,0 1 0,1 0 0,-1 0 0,2 0 0,-6 12 0,-13 24 0,-58 90 0,72-120 0,-19 31 0,-2-2 0,-47 52 0,55-70 0,-22 20 0,32-34 0,1 1 0,0 0 0,0 0 0,1 1 0,-10 18 0,12-18 0,-1 0 0,1-1 0,-2 0 0,0-1 0,0 0 0,-16 13 0,18-17 0,0 0 0,0 1 0,1 0 0,-7 7 0,8-7 0,-1 0 0,0-1 0,0 1 0,-14 9 0,-59 44 0,65-50 0,1 0 0,0 1 0,0 1 0,1 0 0,0 0 0,-13 21 0,-25 24 0,0-11 0,-1-3 0,-81 52 0,81-57 0,36-26 0,-1 0 0,0-1 0,-1-1 0,-31 15 0,-28 8 0,-82 48 0,137-69-120,10-4-35,-1-1-1,-1-1 0,1 0 1,-1 0-1,0-1 0,-1-1 1,-26 5-1,24-7-6670</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4435 4507 24575,'61'1'0,"69"-3"0,-108-2 0,0 0 0,-1-2 0,1-1 0,38-17 0,25-9 0,-69 28 0,-2-1 0,1-1 0,-1 0 0,0-1 0,17-12 0,26-9 0,-46 25 0,-1 0 0,0-1 0,-1 0 0,1-1 0,-1 0 0,9-7 0,-6 3 0,1 0 0,25-14 0,-24 17 0,-1-1 0,0-1 0,13-11 0,-19 14 0,1 0 0,0 1 0,0 0 0,0 0 0,10-3 0,-7 3 0,0 0 0,19-14 0,257-212 0,-103 93 0,-147 109 0,-20 17 0,0-1 0,-1-1 0,0-1 0,-2 0 0,25-32 0,-16 13 0,-13 20 0,-1 0 0,0-1 0,-1 0 0,-1 0 0,9-26 0,-3 2 0,2 1 0,37-69 0,10-26 0,-35 69 0,14-44 0,-31 79 0,16-32 0,-14 35 0,15-45 0,31-97 0,-51 152 0,2 0 0,12-18 0,15-27 0,60-150 0,-90 198 0,1 0 0,1 1 0,10-15 0,-10 16 0,0 0 0,-1-1 0,10-22 0,42-131 0,-51 147 0,1 0 0,0 0 0,1 1 0,18-24 0,-5 9 0,4-6 0,-18 27 0,-1-1 0,0 1 0,-1-1 0,0-1 0,5-13 0,-8 15 0,0 0 0,1 1 0,0-1 0,1 1 0,0 1 0,0-1 0,11-11 0,-6 7 0,-2 1 0,1-2 0,-1 1 0,-1-1 0,-1-1 0,0 0 0,-1 1 0,-1-2 0,0 1 0,3-26 0,34-127 0,-34 135 0,-4 17 0,0-1 0,-1 0 0,1-20 0,-1 1 0,2 1 0,2 0 0,1 0 0,18-47 0,-16 52 0,-6 20 14,0 1-1,0 0 0,1 0 0,1 0 1,-1 1-1,2 0 0,-1 0 1,12-11-1,-3 5-384,0 0-1,2 2 1,24-17 0,-30 23-6455</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4287 3660 24575,'1'-3'0,"0"0"0,0 0 0,0-1 0,1 2 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 1 0,4-4 0,1-4 0,16-18 0,43-43 0,-39 43 0,30-38 0,109-129 0,-135 162 0,-19 20 0,-1 1 0,-1-2 0,1 1 0,-2-1 0,0-1 0,-1 0 0,0 0 0,7-22 0,-6 12 0,19-34 0,-18 41 0,-2 0 0,0-1 0,10-34 0,-5-5 0,17-94 0,-10 44 0,-10 39 0,-6 50 0,0 0 0,-1-21 0,8-59 0,-6 66 0,1-46 0,-6 59 0,-1-21 0,2 1 0,11-72 0,19-121 0,-21 165 0,-6 39 0,3-43 0,3-61 0,1-9 0,-12 106 0,2 0 0,11-61 0,-8 59 0,0 1 0,-3-1 0,-3-43 0,3-64 0,10 88 0,-8 42 0,0-1 0,1-23 0,-4 8-72,0 19-143,0 0-1,1 0 1,0 0-1,0 0 1,5-15-1,-2 13-6610</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4266 3533 24575,'-1'-24'0,"1"1"0,2 0 0,0-1 0,1 1 0,2 0 0,13-42 0,18-56 0,-24 78 0,-3 2 0,8-79 0,-13 78 0,16-65 0,-11 62 0,-5 23 0,0-1 0,1-34 0,-5 38 0,2 0 0,0 0 0,1 0 0,1 1 0,0-1 0,11-25 0,-1 13 0,0 1 0,33-50 0,21-41 0,-55 97 0,-1-1 0,-1 0 0,9-29 0,12-29 0,-12 32 0,-3-1 0,16-70 0,-29 101 0,-1 0 0,0-33 0,-2 32 0,0 0 0,7-29 0,3-7 0,-2-1 0,2-74 0,-11-122 0,-2 112 0,2 113 0,-1 0 0,1 0 0,2 0 0,10-49 0,9-47 0,-15 90-1365,-4 19-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">4774 379 24575,'1'26'0,"2"0"0,1 0 0,9 33 0,-6-33 0,-2 0 0,0 0 0,0 35 0,-5-47 0,-1 12 0,2-1 0,1 1 0,8 40 0,-5-30 0,0 1 0,-3 0 0,-1-1 0,-4 42 0,1 7 0,2 105-1365,0-172-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5028 294 24575,'3'2'0,"-1"-1"0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1 0 0,1 3 0,5 6 0,-3-4 0,-1 0 0,0 0 0,0 1 0,-1-1 0,0 1 0,0 0 0,-1 0 0,0 0 0,-1 0 0,1 13 0,5 24 0,14 60 0,0 34-1365,-17-122-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">816 2792 24575,'-15'1'0,"0"0"0,1 2 0,-1-1 0,1 2 0,-1 0 0,1 1 0,0 0 0,1 1 0,-19 11 0,29-16 0,-46 21 0,25-12 0,-32 20 0,42-23-1365,2-2-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">646 2919 24575,'2'25'0,"1"0"0,0 0 0,3 0 0,0-1 0,11 28 0,2 14 0,-8-27 0,1 2 0,14 84 0,-20-43-1365,-2-64-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">689 2940 24575,'1'2'0,"0"0"0,1 1 0,0-1 0,-1 0 0,1 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0-1 0,4 2 0,9 8 0,56 73 0,-45-48 0,-23-30 0,1 0 0,1 0 0,-1 0 0,1-1 0,0 1 0,7 5 0,-3-3 0,-1 0 0,0 1 0,0 0 0,12 19 0,3 2 0,-14-17 0,0 0 0,13 27 0,-15-25 0,1-1 0,16 23 0,-18-28 0,0 0 0,-1-1 0,8 17 0,-10-16 0,1 0 0,1-1 0,0 1 0,11 13 0,-9-13 0,-1 1 0,0-1 0,-1 2 0,1-1 0,-2 1 0,7 20 0,-6-15 0,1-1 0,11 22 0,-10-22-170,-1-1-1,0 2 0,-2-1 1,1 0-1,-2 1 0,0 0 1,1 29-1,-3-27-6655</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1281 4147 24575,'0'-4'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3821 5332 24575,'0'1'0,"1"0"0,-1 1 0,0-1 0,1 0 0,-1 0 0,1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,2 1 0,31 12 0,-27-11 0,12 5 0,1-1 0,1-2 0,-1 0 0,0-1 0,1 0 0,31-2 0,61 0 0,91-4 0,-199 2 0,-1 0 0,0 0 0,1 0 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,4-4 0,-4 3 0,1 0 0,-1 1 0,1-1 0,-1 1 0,1 0 0,10-3 0,3 3 0,0-2 0,-1 0 0,0-1 0,0-1 0,0-1 0,0 0 0,27-18 0,-33 19 0,0 0 0,0 0 0,1 1 0,22-6 0,-24 8 0,0 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,0 0 0,-1 0 0,0-1 0,9-7 0,-12 9 0,0 1 0,1-1 0,-1 1 0,1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,1 1 0,-1-1 0,0 1 0,1 0 0,9 1 0,-7-1 0,1 0 0,-1-1 0,0 1 0,0-2 0,16-5 0,17-12 0,50-16 0,-73 31 0,1 1 0,29-2 0,3-1 0,-41 6-227,-1-1-1,1-1 1,-1 0-1,0 0 1,19-9-1,-16 3-6598</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3843 5607 24575,'0'5'0,"1"-1"0,0 1 0,0 0 0,0-1 0,0 1 0,1-1 0,0 0 0,0 1 0,0-1 0,0 0 0,1 0 0,0 0 0,0 0 0,0-1 0,0 1 0,0-1 0,1 0 0,-1 0 0,8 5 0,-2-2 0,-1-1 0,1 0 0,0-1 0,0 0 0,1 0 0,-1-1 0,1 0 0,13 2 0,25 0 0,0-3 0,61-4 0,-16 0 0,-74 2 0,12 1 0,-1-1 0,1-2 0,0 0 0,0-2 0,-1-2 0,34-10 0,-50 12 0,-1 1 0,1 0 0,17-1 0,-22 3 0,0 1 0,-1-2 0,1 1 0,-1-1 0,1 0 0,-1-1 0,0 0 0,0 0 0,0-1 0,0 0 0,11-8 0,-2 0 0,2 1 0,0 0 0,0 1 0,0 1 0,25-7 0,8-4 0,-6 3 0,-30 12 0,-1-1 0,27-14 0,-21 10 0,1 0 0,0 2 0,0 0 0,1 2 0,0 0 0,0 1 0,36-2 0,-29 2 0,0-1 0,-1-1 0,31-12 0,-9 3 0,-3 5 0,-39 10 0,0-1 0,-1 1 0,1-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,0 0 0,12-9 0,-13 8 0,0 1 0,0-1 0,1 1 0,-1 0 0,1 1 0,0 0 0,0 0 0,14-2 0,2 1 0,39-2 0,-27 4 0,-24 0 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 0 0,1-1 0,10-6 0,34-14 0,-40 19-1365,-3 0-5461</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3885 7322 24575,'932'0'0,"-918"-1"0,-1 0 0,0-1 0,16-5 0,30-3 0,-39 8 0,1-2 0,-1-1 0,1 0 0,24-11 0,39-9 0,-65 19 0,0 0 0,0-1 0,19-10 0,39-15 0,-25 17 0,-1 1 0,69-30 0,-108 39 0,1 2 0,-1-1 0,1 2 0,-1-1 0,25 0 0,27-4 0,63-15 0,-104 19 0,0 0 0,-1 1 0,43 3 0,26-2 0,-33-9 0,-43 6 0,0 1 0,25-2 0,-21 5-116,-1 0-300,1-1-1,30-6 1,-31 3-6410</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3673 7406 24575,'0'3'0,"0"0"0,1-1 0,-1 1 0,1 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,1 0 0,-1-1 0,0 1 0,1-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,4 3 0,3 3 0,1-1 0,0-1 0,12 7 0,15 11 0,-16-10 0,0 0 0,1-1 0,1-2 0,-1 0 0,2-1 0,0-1 0,0-2 0,43 9 0,-54-14 0,19 5 0,0-2 0,61 3 0,-68-7 0,47 8 0,-46-4 0,42 1 0,652-7 0,-692-1 0,50-9 0,-15 2 0,85-12 0,-96 11 0,-35 6 0,0 1 0,24-1 0,-24 3 0,1-2 0,-1 0 0,1-1 0,23-9 0,18-4 0,-27 10 0,-15 2 0,0 1 0,1 1 0,24-1 0,-18 2 0,0-1 0,-1-1 0,37-12 0,1 1 0,59-19 0,-43 11 0,-24 12 0,-35 8 0,0-1 0,0-1 0,27-11 0,-28 8 0,-6 2 0,0 1 0,-1 1 0,15-5 0,-7 5 0,9-2 0,-1-1 0,0-2 0,37-16 0,-50 17 0,0 0 0,1 1 0,0 1 0,0 0 0,0 1 0,1 1 0,0 0 0,0 1 0,0 1 0,20-1 0,-21 3-94,31-4-1177,-31 0-5555</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3186 3110 24575,'1'-4'0,"0"1"0,1-1 0,0 1 0,-1 0 0,1-1 0,1 1 0,-1 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,5-4 0,7-7 0,26-30 0,49-42 0,-29 30 0,168-170 0,-17 43 0,-133 101 0,72-98 0,-145 172 0,2-2 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1-1 0,-1 1 0,0-2 0,0 1 0,-1 0 0,2-19 0,-2 0 0,-2 1 0,-1 0 0,-5-39 0,-15-38 0,11 61 0,4 20 0,-3-49 0,6 56 0,0 0 0,-1 1 0,-2-1 0,0 1 0,-10-25 0,8 25 0,1 1 0,1-1 0,0 0 0,2-1 0,-3-30 0,4 35 0,0 0 0,-1 0 0,0 0 0,-1 0 0,-1 1 0,0-1 0,-9-15 0,-13-37 0,12 29 0,-1 1 0,-34-57 0,26 49 0,-49-97 0,47 92 0,19 39 0,1 0 0,0 0 0,1-1 0,0 0 0,1 0 0,0 0 0,1-1 0,0 1 0,-2-20 0,2 7 0,-1-1 0,-1 0 0,-2 1 0,0 0 0,-11-23 0,-4-17 0,9 25 0,-13-49 0,19 57 0,1 0 0,2-1 0,-1-43 0,5 57-108,-1 13 19,0 0-1,1 0 0,0 0 0,0 0 0,0 0 0,1 0 1,0 0-1,0 0 0,0 0 0,1 0 0,-1 1 1,1-1-1,4-7 0,3 3-6736</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">3081 3173 24575,'1'-27'0,"10"-52"0,-1 15 0,9-46 0,-11 75 0,-2-1 0,3-59 0,-7 67 0,1-1 0,1 1 0,11-36 0,3-19 0,-10 36 0,-3 25 0,-1 1 0,1-37 0,-7-47 0,3-87 0,0 182 0,1 0 0,0 1 0,0-1 0,1 1 0,0 0 0,0 0 0,1 0 0,0 0 0,1 0 0,0 1 0,0 0 0,1 0 0,0 0 0,0 1 0,12-11 0,-7 6 0,-2 0 0,1-1 0,-2-1 0,14-26 0,-13 23 0,0 0 0,23-29 0,-21 31 0,0-1 0,-1 0 0,7-17 0,19-29 0,-29 52 0,-1-1 0,0 1 0,-1-1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,2-17 0,3-19 0,-4 24 0,0 0 0,0-28 0,-4 0 0,-1 8 0,2 0 0,11-71 0,-7 73 0,-1 0 0,-4-81 0,-1 55 0,-1 46 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-19-40 0,23 55 0,-28-47 0,25 43 0,-1 1 0,2-1 0,-1-1 0,-7-19 0,-44-144 0,48 141-273,2 1 0,1-1 0,2 0 0,0-60 0,4 75-6553</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">5642 5099 24575,'28'-1'0,"0"2"0,1 1 0,-1 1 0,-1 2 0,45 12 0,-43-7 0,17 5 0,70 14 0,-67-24 0,1-2 0,72-5 0,-25 0 0,-23 3 0,84-3 0,-143-1 0,0 0 0,0-1 0,0-1 0,0 0 0,25-15 0,14-3 0,-48 20 0,14-4 0,-1-1 0,27-15 0,-42 20 0,1 1 0,-1-1 0,-1 0 0,1 0 0,0 0 0,-1-1 0,1 1 0,-1-1 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 0 0,1-1 0,-2 1 0,3-8 0,8-31 0,2 0 0,1 1 0,29-53 0,-1 0 0,-10 0 0,-21 57 0,23-49 0,-16 41 0,-1-1 0,14-66 0,-12 39 0,10-44-259,-20 72 25,2 0 0,35-85 0,-24 77-390,28-107 1,-34 101 57,34-82 0,20-48 585,-60 161 30,9-39 1,1-6-55,146-328 5,-133 332 0,-8 18 0,29-79 0,-42 87 20,-6 20 7,0 0 1,2 0-1,1 0 0,14-23 1,69-128 144,-71 132-114,16-20 504,-26 44-266,-1 0 0,16-37 1,-2-4-64,16-51 343,-30 83-578,1 0 0,1 1-1,26-39 1,16-34 108,-43 78-13,0 0 0,2 2 0,0-1 0,32-33 0,-2 1-75,-16 14-18,-18 24 0,0 1 0,21-22 0,-1 7 0,56-52 0,-78 74 0,0 0 0,1 0 0,0 1 0,0 1 0,0-1 0,1 1 0,-1 1 0,15-5 0,49-20 0,-59 22 0,0 1 0,0 1 0,0 0 0,1 0 0,0 2 0,16-3 0,98-15 0,-93 14 0,1 0 0,58-1 0,-49-1-1,3 0 68,-46 9-156,-1-1-1,0 1 1,1 0-1,-1 0 1,1 1-1,-1-1 1,0 0 0,0 1-1,1-1 1,-1 1-1,0 0 1,0 0-1,1 0 1,-1 0-1,3 2 1,4 6-6737</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">6002 5692 24575,'593'0'0,"-555"-3"0,0-1 0,72-17 0,-62 10 0,-10 3-35,10-1-158,-1-2 1,75-29-1,-93 30 185,-1 1-1,43-7 1,-44 11 40,-1-1-1,0-2 1,40-16 0,57-28 479,-110 47-511,-1-1 0,-1-1 0,0 0 0,0 0 0,0-2 0,12-10 0,56-63 0,-57 57 0,144-150 0,-157 166 0,-2-1 0,1 0 0,-1-1 0,-1 0 0,0 0 0,0 0 0,7-23 0,-6 13 0,-1-1 0,-1-1 0,3-32 0,-8 45 0,1 1 0,0-1 0,1 1 0,0-1 0,0 1 0,1 0 0,1 0 0,7-16 0,-3 8 0,-1 0 0,-1-1 0,-1 0 0,5-23 0,6-21 0,46-130 0,-12 44 0,-33 101 0,18-91 0,-13 48 0,-8 19 0,-9 46 0,13-48 0,25-55 0,-38 103 0,0-2 0,1-34 0,-3 27 0,6-28 0,-5 42 0,-1-1 0,1-24 0,-3 25 0,1 0 0,2 0 0,0 1 0,0-1 0,2 1 0,9-23 0,-3 11 0,-6 9 0,7-44 0,-9 42 0,10-35 0,39-74 0,11-96 0,-63 225 0,18-67 0,41-96 0,-37 90 0,-18 57 0,0 0 0,16-36 0,-8 27 0,10-35 0,-15 39 0,1 1 0,20-38 0,21-53 0,-36 95 0,-11 17 0,0-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,-1 0 0,2-8 0,0 0 0,0 0 0,1 1 0,0-1 0,1 1 0,1 0 0,-1 0 0,1 1 0,1 0 0,13-16 0,11-30 0,-25 45 0,-1 0 0,1 0 0,1 1 0,12-17 0,27-20 0,-22 22 0,35-44 0,-7 18 0,-43 43 0,0 0 0,0 1 0,1 0 0,0 1 0,0 0 0,19-7 0,4-4 0,8-10 0,-33 21 0,0 0 0,0 1 0,0-1 0,15-5 0,-2 2 0,-1 0 0,0-2 0,-1-1 0,0 0 0,0-1 0,-1-1 0,19-20 0,-20 21 0,0 1 0,0 1 0,1 0 0,1 2 0,0 0 0,38-12 0,-36 13 0,20-4-1365,-22 8-5461</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6095,7 +6212,35 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#fffc00"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6127,7 +6272,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink61.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6159,7 +6304,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink62.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6191,7 +6336,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink63.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6242,7 +6387,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink64.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6286,7 +6431,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink65.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6318,7 +6463,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink66.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6380,7 +6525,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink67.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6408,7 +6553,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink68.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6448,35 +6593,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:47:35"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.3" units="cm"/>
-      <inkml:brushProperty name="height" value="0.6" units="cm"/>
-      <inkml:brushProperty name="color" value="#fffc00"/>
-      <inkml:brushProperty name="tip" value="rectangle"/>
-      <inkml:brushProperty name="rasterOp" value="maskPen"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink69.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6520,7 +6637,35 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:48:00"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.3" units="cm"/>
+      <inkml:brushProperty name="height" value="0.6" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
+      <inkml:brushProperty name="tip" value="rectangle"/>
+      <inkml:brushProperty name="rasterOp" value="maskPen"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13558 1,'-15'0,"0"0,1 1,-1 1,1 1,-1 0,1 0,0 2,-27 11,-99 56,-35 15,145-73,-30 19,15-8,24-15,0-2,0 0,-26 5,32-10,1 0,-1 1,1 1,0 1,1 0,-1 0,1 1,1 1,-23 17,23-15,0 0,-1-1,-1 0,-23 11,20-12,1 1,-29 22,33-22,-1 0,-22 10,23-12,0 0,0 0,-15 13,17-12,-1 0,0-1,-1 0,0-1,0 0,-24 8,14-6,-15 9,-55 33,58-29,-62 26,-198 84,270-116,20-12,-1 1,-1-1,1 0,0-1,-1 1,1-1,-1 0,0-1,-6 2,-30 6,1 1,1 2,0 1,-71 36,77-32,-2-1,0-2,-69 16,85-25,1 1,0 0,1 2,-20 10,17-8,0-1,-35 11,44-17,-27 7,-59 23,75-25,-1-1,-47 9,49-12,0 0,1 2,0 0,-22 10,-33 17,-1-3,-114 27,129-37,46-13,-1-1,0-1,-21 3,24-5,0 1,0 0,0 1,-23 12,21-10,0 0,-29 8,-21 5,-15 2,59-16,0 0,-37 17,-11 3,39-15,-38 19,43-18,-1 0,-32 8,-38 15,41-13,-1-9,-4 1,-151 58,193-66,-1-1,-29 4,28-6,-40 11,-85 34,109-35,-44 8,52-14,0 1,0 1,-35 17,49-19,0 0,-1-2,0 1,0-2,0 0,-24 3,6-1,1 2,1 2,0 0,-33 17,-57 19,36-27,58-15,-49 16,-47 31,57-21,-51 17,-31 19,13-15,40-18,81-28,-1 0,0-2,-30 4,-22 4,37-2,0 0,0 2,-43 22,57-25,0-1,0-1,-20 4,-36 14,-30 17,77-30,-53 14,6-3,50-14,-6 2,1 1,-42 24,59-30,-1 1,1-1,-24 6,23-8,1 0,0 1,0 1,-19 10,-88 46,91-44,20-12,-1 0,0 0,-1-1,1 0,-1 0,-12 3,-3 0,0 1,-36 19,35-16,1 0,-30 7,20-7,-37 16,50-17,-1-2,1 0,-2-1,1-1,-33 3,36-6,1 1,0 0,0 1,1 1,-1 1,-18 10,10-5,-42 13,45-18,0 2,-26 14,31-14,1 0,-2-2,1 0,-32 7,19-7,1 1,-37 16,10-4,-18 10,51-19,-2-2,-43 12,-2-8,19-4,-58 18,-36 13,-16 6,147-41,0-1,-21 3,-29 7,-233 72,230-67,40-10,-46 9,64-16,1 0,0 1,0 0,-13 7,15-6,-1-1,0 0,0 0,0 0,0-1,-14 1,7-2,-12 1,-45 8,40-4,21-5,0 1,1 1,-1-1,1 2,-10 4,-11 7,1-2,-2-1,-59 15,60-19,0 1,-32 15,37-13,1-2,-2-1,-44 9,51-15,0 2,1 0,0 1,-1 1,2 0,-1 2,-24 13,28-14,1-1,-2 0,1-1,0-1,-1 0,0-2,-20 2,-41 9,-224 47,281-56,1 2,0 0,-26 12,0 0,12-7,-54 9,61-16,0 2,0 1,-48 20,57-20,-1-1,0 0,-1-2,1 0,-23 2,15-3,-45 13,-72 31,115-39,2-1,-32 14,48-18,-1 1,1-2,-1 0,1 0,-1-1,-21 0,22-1,0 0,0 1,0 0,1 0,-1 1,0 0,1 1,-16 6,-2 3,0-1,0-1,-34 7,-36 12,61-8,31-18,0 1,-1-1,1 0,0-1,-1 1,0-1,-6 2,-149 23,150-26,0 2,0-1,0 1,0 1,1 0,-1 1,-16 9,15-5</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink70.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6557,7 +6702,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink71.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6590,7 +6735,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink72.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6639,7 +6784,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink73.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6684,7 +6829,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink74.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6713,7 +6858,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink75.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6741,7 +6886,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink76.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6769,7 +6914,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink77.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6797,7 +6942,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink78.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6825,35 +6970,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:48:00"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.3" units="cm"/>
-      <inkml:brushProperty name="height" value="0.6" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
-      <inkml:brushProperty name="tip" value="rectangle"/>
-      <inkml:brushProperty name="rasterOp" value="maskPen"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">13558 1,'-15'0,"0"0,1 1,-1 1,1 1,-1 0,1 0,0 2,-27 11,-99 56,-35 15,145-73,-30 19,15-8,24-15,0-2,0 0,-26 5,32-10,1 0,-1 1,1 1,0 1,1 0,-1 0,1 1,1 1,-23 17,23-15,0 0,-1-1,-1 0,-23 11,20-12,1 1,-29 22,33-22,-1 0,-22 10,23-12,0 0,0 0,-15 13,17-12,-1 0,0-1,-1 0,0-1,0 0,-24 8,14-6,-15 9,-55 33,58-29,-62 26,-198 84,270-116,20-12,-1 1,-1-1,1 0,0-1,-1 1,1-1,-1 0,0-1,-6 2,-30 6,1 1,1 2,0 1,-71 36,77-32,-2-1,0-2,-69 16,85-25,1 1,0 0,1 2,-20 10,17-8,0-1,-35 11,44-17,-27 7,-59 23,75-25,-1-1,-47 9,49-12,0 0,1 2,0 0,-22 10,-33 17,-1-3,-114 27,129-37,46-13,-1-1,0-1,-21 3,24-5,0 1,0 0,0 1,-23 12,21-10,0 0,-29 8,-21 5,-15 2,59-16,0 0,-37 17,-11 3,39-15,-38 19,43-18,-1 0,-32 8,-38 15,41-13,-1-9,-4 1,-151 58,193-66,-1-1,-29 4,28-6,-40 11,-85 34,109-35,-44 8,52-14,0 1,0 1,-35 17,49-19,0 0,-1-2,0 1,0-2,0 0,-24 3,6-1,1 2,1 2,0 0,-33 17,-57 19,36-27,58-15,-49 16,-47 31,57-21,-51 17,-31 19,13-15,40-18,81-28,-1 0,0-2,-30 4,-22 4,37-2,0 0,0 2,-43 22,57-25,0-1,0-1,-20 4,-36 14,-30 17,77-30,-53 14,6-3,50-14,-6 2,1 1,-42 24,59-30,-1 1,1-1,-24 6,23-8,1 0,0 1,0 1,-19 10,-88 46,91-44,20-12,-1 0,0 0,-1-1,1 0,-1 0,-12 3,-3 0,0 1,-36 19,35-16,1 0,-30 7,20-7,-37 16,50-17,-1-2,1 0,-2-1,1-1,-33 3,36-6,1 1,0 0,0 1,1 1,-1 1,-18 10,10-5,-42 13,45-18,0 2,-26 14,31-14,1 0,-2-2,1 0,-32 7,19-7,1 1,-37 16,10-4,-18 10,51-19,-2-2,-43 12,-2-8,19-4,-58 18,-36 13,-16 6,147-41,0-1,-21 3,-29 7,-233 72,230-67,40-10,-46 9,64-16,1 0,0 1,0 0,-13 7,15-6,-1-1,0 0,0 0,0 0,0-1,-14 1,7-2,-12 1,-45 8,40-4,21-5,0 1,1 1,-1-1,1 2,-10 4,-11 7,1-2,-2-1,-59 15,60-19,0 1,-32 15,37-13,1-2,-2-1,-44 9,51-15,0 2,1 0,0 1,-1 1,2 0,-1 2,-24 13,28-14,1-1,-2 0,1-1,0-1,-1 0,0-2,-20 2,-41 9,-224 47,281-56,1 2,0 0,-26 12,0 0,12-7,-54 9,61-16,0 2,0 1,-48 20,57-20,-1-1,0 0,-1-2,1 0,-23 2,15-3,-45 13,-72 31,115-39,2-1,-32 14,48-18,-1 1,1-2,-1 0,1 0,-1-1,-21 0,22-1,0 0,0 1,0 0,1 0,-1 1,0 0,1 1,-16 6,-2 3,0-1,0-1,-34 7,-36 12,61-8,31-18,0 1,-1-1,1 0,0-1,-1 1,0-1,-6 2,-149 23,150-26,0 2,0-1,0 1,0 1,1 0,-1 1,-16 9,15-5</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink79.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6881,7 +6998,35 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:50:19"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">13622 2 24575,'-90'-2'0,"-96"4"0,80 19 0,22 1 0,-1 0 0,42-13 0,-21 2 0,38-8 0,0 1 0,-50 15 0,13-2 0,-42 12 0,64-17 0,-67 12 0,89-20 0,1 1 0,-1 0 0,1 1 0,-22 11 0,-2 0 0,29-13 0,-1 0 0,0-1 0,0-1 0,-18 1 0,-28 5 0,6 3 0,-75 28 0,108-33 0,0 0 0,0-1 0,-26 2 0,-21 4 0,15-2 0,37-7 0,0 0 0,0 2 0,-27 8 0,25-6 0,0-1 0,-1 0 0,0-2 0,-24 2 0,-35 7 0,-165 53 0,206-54 0,-1 2 0,0-2 0,-40 5 0,49-10 0,1 1 0,-47 18 0,12-3 0,-102 33 0,152-50 0,1 0 0,-1 0 0,1 1 0,-14 9 0,18-9 0,-1 0 0,0-1 0,-1-1 0,1 1 0,-1-2 0,1 1 0,-1-1 0,-11 1 0,-6 1 0,0 0 0,0 2 0,-28 12 0,-32 7 0,-76 21 0,-14 2 0,-126 27 0,111-17 0,156-50 0,-1-2 0,1-1 0,-1-1 0,-49-2 0,70-1 0,1-1 0,0 2 0,-1 0 0,1 1 0,1 0 0,-25 11 0,21-8 0,0 0 0,0-2 0,-31 6 0,23-7 0,1 1 0,0 0 0,1 2 0,0 1 0,-27 12 0,-47 16 0,63-25 0,-38 18 0,-94 35 0,76-31 0,42-17-267,-60 12 0,69-19 176,1 1-1,0 2 1,-43 20-1,60-23 92,-2-1 0,1 0 0,-49 7 0,41-9 0,-50 16 0,7 8 188,-41 13 524,94-36-712,7-2 0,1-1 0,-1-1 0,0 0 0,-18 1 0,8-2 0,0 2 0,0 1 0,0 1 0,1 1 0,-25 12 0,25-10 0,0-1 0,-1-1 0,0-1 0,0-1 0,-29 3 0,-305-7 37,171-3-676,155 4 563,-46 7 1,45-4 90,-42 1 0,-44-6-152,19-2-193,-134 16 0,131-4 330,-19 2 0,78-7-27,-64-1 0,67-4 7,1 2 0,-43 8-1,-65 12 711,44-11-290,-4 0 21,-111 20-297,149-21-124,46-6 0,-43 2 0,41-6 0,-39 1 0,-86 10 0,15-1 0,90-9 0,-58 10 0,-131 37 0,158-37 0,-113 33 0,171-40 0,-1 0 0,1-1 0,-39 1 0,40-4 0,-1 1 0,0 1 0,0 1 0,-31 9 0,26-2 0,-1-2 0,-1 0 0,0-2 0,1-1 0,-2-1 0,-31 1 0,26-4 0,-54 11 0,40-5 0,21-3 0,-41 14 0,-17 3 0,40-12 0,-21 2 0,38-8 0,0 2 0,1 0 0,-1 2 0,-45 18 0,-30 9 0,-13-12 0,9-2 0,78-13 0,-214 39 0,213-41 0,-46 12 0,-15 3 0,74-17 0,1 1 0,0 0 0,-14 7 0,-27 7 0,-34 6 0,51-12 0,-2-2 0,1-2 0,-73 6 0,89-13 0,0 2 0,0 1 0,-40 13 0,3-2 0,-48 8 0,46-14 0,21-3 0,-56 2 0,68-6 0,0 1 0,0 1 0,-43 13 0,11-2 0,56-14 0,-27 6 0,0-1 0,-65 3 0,50-10 0,0 3 0,-50 8 0,54-4-115,-1-3-1,-54-3 1,61 0-904,14 0-5807</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink80.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6909,7 +7054,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink81.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6937,7 +7082,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink82.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6965,7 +7110,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink83.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -6993,7 +7138,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink84.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7021,7 +7166,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink85.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7049,7 +7194,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink86.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7077,7 +7222,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink87.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7105,7 +7250,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink88.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7133,35 +7278,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:50:19"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.035" units="cm"/>
-      <inkml:brushProperty name="height" value="0.035" units="cm"/>
-      <inkml:brushProperty name="color" value="#000000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">13622 2 24575,'-90'-2'0,"-96"4"0,80 19 0,22 1 0,-1 0 0,42-13 0,-21 2 0,38-8 0,0 1 0,-50 15 0,13-2 0,-42 12 0,64-17 0,-67 12 0,89-20 0,1 1 0,-1 0 0,1 1 0,-22 11 0,-2 0 0,29-13 0,-1 0 0,0-1 0,0-1 0,-18 1 0,-28 5 0,6 3 0,-75 28 0,108-33 0,0 0 0,0-1 0,-26 2 0,-21 4 0,15-2 0,37-7 0,0 0 0,0 2 0,-27 8 0,25-6 0,0-1 0,-1 0 0,0-2 0,-24 2 0,-35 7 0,-165 53 0,206-54 0,-1 2 0,0-2 0,-40 5 0,49-10 0,1 1 0,-47 18 0,12-3 0,-102 33 0,152-50 0,1 0 0,-1 0 0,1 1 0,-14 9 0,18-9 0,-1 0 0,0-1 0,-1-1 0,1 1 0,-1-2 0,1 1 0,-1-1 0,-11 1 0,-6 1 0,0 0 0,0 2 0,-28 12 0,-32 7 0,-76 21 0,-14 2 0,-126 27 0,111-17 0,156-50 0,-1-2 0,1-1 0,-1-1 0,-49-2 0,70-1 0,1-1 0,0 2 0,-1 0 0,1 1 0,1 0 0,-25 11 0,21-8 0,0 0 0,0-2 0,-31 6 0,23-7 0,1 1 0,0 0 0,1 2 0,0 1 0,-27 12 0,-47 16 0,63-25 0,-38 18 0,-94 35 0,76-31 0,42-17-267,-60 12 0,69-19 176,1 1-1,0 2 1,-43 20-1,60-23 92,-2-1 0,1 0 0,-49 7 0,41-9 0,-50 16 0,7 8 188,-41 13 524,94-36-712,7-2 0,1-1 0,-1-1 0,0 0 0,-18 1 0,8-2 0,0 2 0,0 1 0,0 1 0,1 1 0,-25 12 0,25-10 0,0-1 0,-1-1 0,0-1 0,0-1 0,-29 3 0,-305-7 37,171-3-676,155 4 563,-46 7 1,45-4 90,-42 1 0,-44-6-152,19-2-193,-134 16 0,131-4 330,-19 2 0,78-7-27,-64-1 0,67-4 7,1 2 0,-43 8-1,-65 12 711,44-11-290,-4 0 21,-111 20-297,149-21-124,46-6 0,-43 2 0,41-6 0,-39 1 0,-86 10 0,15-1 0,90-9 0,-58 10 0,-131 37 0,158-37 0,-113 33 0,171-40 0,-1 0 0,1-1 0,-39 1 0,40-4 0,-1 1 0,0 1 0,0 1 0,-31 9 0,26-2 0,-1-2 0,-1 0 0,0-2 0,1-1 0,-2-1 0,-31 1 0,26-4 0,-54 11 0,40-5 0,21-3 0,-41 14 0,-17 3 0,40-12 0,-21 2 0,38-8 0,0 2 0,1 0 0,-1 2 0,-45 18 0,-30 9 0,-13-12 0,9-2 0,78-13 0,-214 39 0,213-41 0,-46 12 0,-15 3 0,74-17 0,1 1 0,0 0 0,-14 7 0,-27 7 0,-34 6 0,51-12 0,-2-2 0,1-2 0,-73 6 0,89-13 0,0 2 0,0 1 0,-40 13 0,3-2 0,-48 8 0,46-14 0,21-3 0,-56 2 0,68-6 0,0 1 0,0 1 0,-43 13 0,11-2 0,56-14 0,-27 6 0,0-1 0,-65 3 0,50-10 0,0 3 0,-50 8 0,54-4-115,-1-3-1,-54-3 1,61 0-904,14 0-5807</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink89.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7189,7 +7306,36 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-09T12:50:24"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#000000"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14435 2 24575</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">14350 2 24575,'-11'0'0,"-5"-1"0,-1 1 0,1 0 0,0 1 0,0 1 0,-1 1 0,1 0 0,1 1 0,-30 12 0,25-8 0,0-1 0,-1-1 0,-40 8 0,-13 2 0,-75 43 0,109-46 0,27-8 0,0-1 0,1 0 0,-2-1 0,-22 3 0,-3-2 0,0 2 0,0 1 0,1 3 0,0 1 0,-44 18 0,67-24 0,-1-1 0,1 0 0,-1-1 0,-29 1 0,31-4 0,0 1 0,0 1 0,0 1 0,0 0 0,1 0 0,-23 10 0,6-1 0,-1-1 0,-40 9 0,41-12 0,-256 88 0,252-80 0,25-10 0,-1-2 0,1 0 0,-17 5 0,10-5 0,-21 5 0,1 2 0,-37 15 0,52-17 0,0-1 0,0-2 0,-1 0 0,-26 3 0,-58 12 0,79-16 0,0 2 0,-38 15 0,-12 4 0,-7 6 0,62-23 0,0 0 0,-36 9 0,-17 2 0,45-11 0,-33 5 0,-128 27 0,140-29 0,-57 20 0,-9 3 0,-18-13 0,59-3 0,47-10 0,-1-1 0,-1-2 0,-48 4 0,54-8 0,1 1 0,0 1 0,-26 8 0,27-6 0,-1-1 0,1-1 0,-38 2 0,35-4 0,-1 1 0,1 1 0,-37 10 0,-29 6 0,48-14 0,5 1 0,-68 1 0,77-7 0,-48 9 0,47-5 0,-42 1 0,56-5 0,-1 1 0,-22 6 0,22-4 0,-37 2 0,16-4 0,-1 1 0,1 2 0,-50 14 0,34-6 0,-107 10 0,98-13 0,-20 0 0,70-8 0,-1 0 0,0 0 0,0 2 0,-23 8 0,23-7 0,0 0 0,0-1 0,-1-1 0,-16 2 0,1-1 0,1 1 0,-1 2 0,1 1 0,-57 24 0,-21 6 0,-149 46 0,187-64 0,47-14 0,1 1 0,-30 13 0,18-6 0,0-2 0,-1 0 0,0-3 0,-1-1 0,-64 7 0,52-6 0,-12 1 0,-25 1 0,56-6 0,-46 2 0,58-7 0,-7-1 0,0 2 0,-1 1 0,-42 8 0,39-4 0,-39 2 0,-20 4 0,54-4 0,-166 32 0,176-36 0,-42 14 0,3 1 0,59-19 0,-43 11 0,-71 24 0,68-11 0,39-18 0,-1-1 0,1 1 0,-1-2 0,-1 0 0,1 0 0,0-1 0,-15 2 0,15-4 0,1 1 0,-1 0 0,1 1 0,-1 0 0,1 0 0,0 1 0,0 1 0,1 0 0,-17 11 0,17-12 0,0 1 0,0-2 0,-1 1 0,1-1 0,-1 0 0,0-1 0,-17 2 0,12-2 0,1 0 0,-25 9 0,-210 75 0,214-75 0,-71 13 0,69-17 0,-62 19 0,74-17 0,0-1 0,-1-1 0,0-2 0,0-1 0,-44 2 0,43-4 0,-46 9 0,12-1 0,21-4 0,-56 18 0,42-9 0,-124 16 0,155-27 0,-1-1 0,-44 0 0,45-3 0,-1 1 0,1 1 0,-25 5 0,-57 16 0,84-19 0,0 0 0,-24-1 0,22-1 0,-37 6 0,-50 11 0,-24 6 0,78-9 0,19-4 0,-62 10 0,-134 22 0,0-3 0,103-19 0,75-12 0,-28 1 0,-9 0 0,63-6 0,-48 2 0,51-5 0,-41 7 0,-22 1 0,57-9 0,-220 14 0,53 22 0,188-34 0,-36 6 0,21-5 0,0 1 0,-37 14 0,49-15 0,0 0 0,0-1 0,0-1 0,0 0 0,0-1 0,-16-1 0,10 0 0,1 1 0,-26 5 0,4 0 0,-1-2 0,1-2 0,-57-3 0,-61 3 0,134 2 0,0 1 0,-32 10 0,-7 2 0,39-11 0,2-1 0,0 0 0,0-2 0,-29 1 0,-775-5 0,811 2 0,0 1 0,-28 6 0,27-4 0,0-1 0,-20 1 0,-51-5 0,-36 2 0,66 10 0,43-8 0,1 0 0,-26 2 0,-3-4 0,6-1 0,0 2 0,-37 7 0,32-2-1365,24-5-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink90.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7217,7 +7363,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink91.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7245,7 +7391,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink92.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7273,7 +7419,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink93.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7301,7 +7447,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink94.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7329,7 +7475,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink95.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7357,7 +7503,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink96.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7388,7 +7534,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink97.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7417,7 +7563,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink98.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -7442,6 +7588,34 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">3006 1696 24575,'-1812'0'0,"1800"-1"0,0 0 0,1 0 0,-1-1 0,1 0 0,-1-1 0,1 0 0,0-1 0,0-1 0,0 1 0,0-2 0,-12-7 0,9 6 0,0 1 0,-1 1 0,0 0 0,0 1 0,0 0 0,0 2 0,-23-2 0,17 1 0,1 0 0,-1-1 0,-25-8 0,25 2 0,1 0 0,0-2 0,1 0 0,0-1 0,-19-18 0,0 1 0,-23-20 0,-106-115 0,60 55 0,72 68 0,28 32 0,-1 0 0,-18-17 0,0 2 0,1-1 0,1 0 0,1-2 0,-19-32 0,31 42 0,2 0 0,0-1 0,1-1 0,1 1 0,1-1 0,1 0 0,1-1 0,-3-28 0,5 29 0,0 0 0,2-1 0,0 1 0,5-30 0,-4 45 0,0 0 0,0 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 1 0,1-1 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 1 0,0-1 0,0 1 0,0 0 0,1 0 0,-1 1 0,1-1 0,8-2 0,49-19 0,-1-2 0,61-35 0,-60 29 0,89-33 0,-3 1 0,-99 43 0,73-21 0,-31 12 0,-41 13 0,1 2 0,94-15 0,-54 15 0,-42 6 0,81-4 0,-98 12 0,110 3 0,-126-1 0,-1 1 0,1 1 0,-1 0 0,0 1 0,0 1 0,-1 1 0,15 6 0,3 2 0,0-2 0,0-1 0,1-2 0,56 9 0,-80-16 0,40 6 0,-28-5 0,-1 0 0,1 2 0,-1 0 0,37 15 0,0 9 0,-16-8 0,-1-2 0,2-1 0,52 13 0,-50-17 0,-1 2 0,0 2 0,56 32 0,-5-2 0,-67-34 0,44 32 0,-27-16 0,-25-16 0,0 1 0,22 22 0,-23-20 0,38 29 0,-16-19 0,-2 2 0,49 47 0,-76-66 0,1-1 0,20 14 0,-23-18 0,0 1 0,0 0 0,0 1 0,-1 0 0,0 1 0,11 13 0,-9-7 0,0 0 0,1-1 0,1 0 0,1 0 0,0-1 0,0-1 0,22 14 0,94 71 0,-101-77 0,-1 2 0,-1 1 0,45 48 0,-63-60 0,0-1 0,0 1 0,-1 0 0,-1 1 0,0 0 0,0 0 0,-1 0 0,0 1 0,-1-1 0,0 1 0,-1 0 0,-1 0 0,0 0 0,1 14 0,-3-19 0,-1 0 0,0-1 0,0 1 0,0 0 0,-1 0 0,0-1 0,0 1 0,-1-1 0,0 0 0,0 1 0,-1-1 0,-7 10 0,-3 2 0,-2-1 0,-26 22 0,26-24 0,7-8 0,0-1 0,0 0 0,-1-1 0,0 0 0,0-1 0,0 1 0,-1-2 0,1 0 0,-1 0 0,0-1 0,-21 2 0,-32 8 0,-222 47 0,205-42 0,54-11 0,0 0 0,-34 2 0,-349-6 0,205-4 0,130 3 0,24 0 0,0-1 0,0-3 0,-67-11 0,65 5-865,-100-4 0,83 9 895,-66-14-30,-31 0 0,140 15 0,-1 0 0,-36-10 0,34 6 0,-51-4 0,-70 9-1082,118 2-4327</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink99.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="Y" type="integer" max="2" min="-2" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-10-10T03:06:49"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+      <inkml:brushProperty name="color" value="#008c3a"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2124 1504 24575,'0'-2'0,"-1"1"0,1-1 0,-1 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1 0 0,-1-1 0,1 1 0,-1 1 0,1-1 0,-1 0 0,-2-1 0,-40-16 0,39 16 0,-20-6 0,0 1 0,-49-6 0,-19-4 0,-2-5 0,47 11 0,-79-27 0,102 30 0,1 2 0,-1 0 0,0 2 0,-50-3 0,50 6 0,1-1 0,0-1 0,-1-1 0,1-2 0,-35-11 0,-30-28 0,59 29 0,0 1 0,-36-12 0,-69-5 0,-7-3 0,-105-58 0,204 75 0,-63-16 0,-11-4 0,91 26 0,0-1 0,2-1 0,-43-33 0,62 42 0,0 0 0,0 0 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,-1-1 0,1 1 0,1-1 0,-1 0 0,1 0 0,0 0 0,1 0 0,0 0 0,-1-10 0,0-10 0,1 1 0,2 0 0,4-31 0,-4 47 1,1 0-1,0 0 1,1 0-1,0 0 0,1 1 1,0-1-1,0 1 1,1 0-1,0 0 1,1 1-1,0-1 0,0 1 1,9-9-1,7-3-2,1 0-1,1 2 0,28-18 0,-20 15-319,32-29 0,-47 36 295,0 1 0,1 1 0,0 1 0,1 0 0,24-9 0,106-34 658,-32 14-451,-91 31-180,38-8 0,-1 1 0,-38 9 0,1 2 0,43-3 0,-40 5 0,52-11 0,-46 5 0,0 3 0,1 1 0,39-1 0,110 8 0,-72 0 0,580-2 0,-674 1 0,0 1 0,-1 0 0,0 1 0,1 2 0,-1-1 0,-1 2 0,1 0 0,-1 2 0,26 14 0,-34-17 0,0 1 0,0 1 0,0 0 0,10 11 0,-12-11 0,1 1 0,0-2 0,1 1 0,15 9 0,-13-11 0,-1 0 0,0 1 0,-1 0 0,1 1 0,-1 0 0,-1 0 0,1 1 0,-1 0 0,13 19 0,-6-9 0,-2 1 0,-1 0 0,0 1 0,-1 1 0,-1 0 0,-1 0 0,-1 1 0,-1 0 0,-1 0 0,5 40 0,-7 18 0,-4-55 0,0 0 0,3-1 0,7 41 0,0-19 0,-3 0 0,-1 0 0,-2 0 0,-3 1 0,-7 82 0,4-118 0,0 0 0,0-1 0,-1 1 0,-1-1 0,0 0 0,0 0 0,-8 13 0,-5 4 0,-24 31 0,38-54 0,-1 0 0,0-1 0,1 1 0,-1 0 0,0-1 0,-1 0 0,1 0 0,-1 0 0,1-1 0,-1 0 0,-8 4 0,-2-2 0,0 0 0,-25 2 0,24-4 0,0 1 0,-24 7 0,-48 27 0,66-27 0,0 0 0,-1-1 0,0-1 0,0-2 0,0 0 0,-42 4 0,-102-9-21,105-3-1323,29 2-5482</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -7703,41 +7877,180 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="K4:X12"/>
+  <dimension ref="E4:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="L4" sqref="L4:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
-    <row r="4" spans="11:11">
-      <c r="K4" t="s">
+    <row r="4" spans="5:16">
+      <c r="E4" s="96" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="20:20">
-      <c r="T8" t="s">
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4"/>
+      <c r="J4" s="54" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="20:20">
-      <c r="T10" t="s">
+      <c r="K4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="20:24">
-      <c r="T12" t="s">
+      <c r="L4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="X12" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="98"/>
+    </row>
+    <row r="5" spans="5:16">
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="101"/>
+      <c r="I5"/>
+      <c r="J5" s="105"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="100"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+    </row>
+    <row r="6" spans="5:16">
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="101"/>
+      <c r="I6"/>
+      <c r="J6" s="56"/>
+      <c r="L6" s="99"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="100"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
+    </row>
+    <row r="7" spans="5:16">
+      <c r="E7" s="99"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="101"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
+    </row>
+    <row r="8" spans="5:20">
+      <c r="E8" s="99"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8"/>
+      <c r="T8" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="9" spans="5:16">
+      <c r="E9" s="99"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
+      <c r="N9" s="100"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+    </row>
+    <row r="10" spans="5:20">
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="100"/>
+      <c r="N10" s="100"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10"/>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="12:16">
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+    </row>
+    <row r="12" spans="12:24">
+      <c r="L12" s="99"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="100"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="101"/>
+      <c r="Q12"/>
+      <c r="T12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="12:16">
+      <c r="L13" s="102"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="103"/>
+      <c r="P13" s="104"/>
+    </row>
+    <row r="16" spans="10:15">
+      <c r="J16" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+    </row>
+    <row r="17" spans="10:15">
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="10:15">
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+    </row>
+    <row r="19" spans="13:13">
+      <c r="M19" s="40"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="L4:P13"/>
+    <mergeCell ref="E4:H10"/>
+    <mergeCell ref="J16:O18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7746,7 +8059,7 @@
   <sheetPr/>
   <dimension ref="A2:AO222"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="O163" sqref="O163"/>
     </sheetView>
   </sheetViews>
@@ -7759,21 +8072,21 @@
     </row>
     <row r="3" spans="23:23">
       <c r="W3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="23:23">
       <c r="W4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" ht="14.75"/>
     <row r="8" ht="14.75" spans="23:29">
       <c r="W8" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -7783,10 +8096,10 @@
     </row>
     <row r="9" spans="23:29">
       <c r="W9" s="19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X9" s="19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Y9" s="18"/>
       <c r="Z9" s="18"/>
@@ -7805,38 +8118,38 @@
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="11:11">
       <c r="K16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="14.75"/>
     <row r="20" ht="14.75" spans="4:41">
-      <c r="D20" s="48" t="s">
-        <v>13</v>
+      <c r="D20" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="49"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="50"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="87"/>
       <c r="AO20" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -7870,11 +8183,11 @@
     </row>
     <row r="26" ht="14.75"/>
     <row r="27" spans="23:29">
-      <c r="W27" s="51" t="s">
-        <v>15</v>
+      <c r="W27" s="88" t="s">
+        <v>19</v>
       </c>
       <c r="X27" s="18" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y27" s="18"/>
       <c r="Z27" s="18"/>
@@ -7883,49 +8196,49 @@
       <c r="AC27" s="18"/>
     </row>
     <row r="28" spans="23:25">
-      <c r="W28" s="52"/>
+      <c r="W28" s="89"/>
       <c r="X28" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="23:27">
-      <c r="W29" s="52"/>
+      <c r="W29" s="89"/>
       <c r="Y29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="23:23">
-      <c r="W30" s="52"/>
+      <c r="W30" s="89"/>
     </row>
     <row r="31" spans="23:23">
-      <c r="W31" s="52"/>
+      <c r="W31" s="89"/>
     </row>
     <row r="32" spans="23:23">
-      <c r="W32" s="52"/>
+      <c r="W32" s="89"/>
     </row>
     <row r="33" spans="23:23">
-      <c r="W33" s="52"/>
+      <c r="W33" s="89"/>
     </row>
     <row r="34" spans="23:23">
-      <c r="W34" s="52"/>
+      <c r="W34" s="89"/>
     </row>
     <row r="35" spans="23:23">
-      <c r="W35" s="52"/>
+      <c r="W35" s="89"/>
     </row>
     <row r="36" spans="23:23">
-      <c r="W36" s="52"/>
+      <c r="W36" s="89"/>
     </row>
     <row r="37" spans="23:23">
-      <c r="W37" s="52"/>
+      <c r="W37" s="89"/>
     </row>
     <row r="38" ht="14.75" spans="23:29">
-      <c r="W38" s="53"/>
+      <c r="W38" s="90"/>
       <c r="X38" s="23"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -7935,36 +8248,36 @@
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="11:11">
       <c r="K41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="14.75"/>
     <row r="45" ht="14.75" spans="4:21">
-      <c r="D45" s="48" t="s">
-        <v>13</v>
+      <c r="D45" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
-      <c r="Q45" s="49"/>
-      <c r="R45" s="49"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="49"/>
-      <c r="U45" s="50"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="86"/>
+      <c r="J45" s="86"/>
+      <c r="K45" s="86"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
+      <c r="Q45" s="86"/>
+      <c r="R45" s="86"/>
+      <c r="S45" s="86"/>
+      <c r="T45" s="86"/>
+      <c r="U45" s="87"/>
     </row>
     <row r="47" spans="1:26">
       <c r="A47" s="24"/>
@@ -8001,9 +8314,9 @@
     </row>
     <row r="51" ht="14.75"/>
     <row r="52" spans="22:27">
-      <c r="V52" s="51"/>
+      <c r="V52" s="88"/>
       <c r="W52" s="18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="X52" s="18"/>
       <c r="Y52" s="18"/>
@@ -8011,21 +8324,21 @@
       <c r="AA52" s="18"/>
     </row>
     <row r="53" spans="22:22">
-      <c r="V53" s="52"/>
+      <c r="V53" s="89"/>
     </row>
     <row r="54" spans="22:23">
-      <c r="V54" s="52"/>
+      <c r="V54" s="89"/>
       <c r="W54" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="14.75" spans="22:22">
-      <c r="V55" s="52"/>
+      <c r="V55" s="89"/>
     </row>
     <row r="56" spans="22:30">
-      <c r="V56" s="52"/>
+      <c r="V56" s="89"/>
       <c r="W56" s="19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X56" s="18"/>
       <c r="Y56" s="18"/>
@@ -8033,33 +8346,33 @@
       <c r="AA56" s="18"/>
       <c r="AB56" s="18"/>
       <c r="AC56" s="18"/>
-      <c r="AD56" s="42"/>
+      <c r="AD56" s="79"/>
     </row>
     <row r="57" spans="22:30">
-      <c r="V57" s="52"/>
+      <c r="V57" s="89"/>
       <c r="W57" s="21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
-      <c r="AD57" s="54"/>
+      <c r="AD57" s="91"/>
     </row>
     <row r="58" spans="22:30">
-      <c r="V58" s="52" t="s">
-        <v>25</v>
+      <c r="V58" s="89" t="s">
+        <v>29</v>
       </c>
       <c r="W58" s="21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
-      <c r="AD58" s="54"/>
+      <c r="AD58" s="91"/>
     </row>
     <row r="59" spans="22:30">
-      <c r="V59" s="52"/>
+      <c r="V59" s="89"/>
       <c r="W59" s="21"/>
-      <c r="AD59" s="54"/>
+      <c r="AD59" s="91"/>
     </row>
     <row r="60" ht="14.75" spans="22:30">
-      <c r="V60" s="52"/>
+      <c r="V60" s="89"/>
       <c r="W60" s="25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="X60" s="23"/>
       <c r="Y60" s="23"/>
@@ -8067,34 +8380,34 @@
       <c r="AA60" s="23"/>
       <c r="AB60" s="23"/>
       <c r="AC60" s="23"/>
-      <c r="AD60" s="45"/>
+      <c r="AD60" s="82"/>
     </row>
     <row r="61" spans="22:22">
-      <c r="V61" s="52"/>
+      <c r="V61" s="89"/>
     </row>
     <row r="62" spans="22:22">
-      <c r="V62" s="52"/>
+      <c r="V62" s="89"/>
     </row>
     <row r="63" spans="7:22">
       <c r="G63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
-      <c r="V63" s="52"/>
+      <c r="V63" s="89"/>
     </row>
     <row r="64" spans="22:22">
-      <c r="V64" s="52"/>
+      <c r="V64" s="89"/>
     </row>
     <row r="65" spans="9:22">
       <c r="I65" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
-      <c r="V65" s="52"/>
+      <c r="V65" s="89"/>
     </row>
     <row r="66" spans="22:22">
-      <c r="V66" s="52"/>
+      <c r="V66" s="89"/>
     </row>
     <row r="67" ht="14.75" spans="22:27">
-      <c r="V67" s="53"/>
+      <c r="V67" s="90"/>
       <c r="W67" s="23"/>
       <c r="X67" s="23"/>
       <c r="Y67" s="23"/>
@@ -8103,59 +8416,59 @@
     </row>
     <row r="68" ht="14.75"/>
     <row r="69" ht="14.75" spans="2:19">
-      <c r="B69" s="48" t="s">
-        <v>13</v>
+      <c r="B69" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="49"/>
-      <c r="K69" s="49"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
-      <c r="P69" s="49"/>
-      <c r="Q69" s="49"/>
-      <c r="R69" s="49"/>
-      <c r="S69" s="50"/>
+      <c r="C69" s="86"/>
+      <c r="D69" s="86"/>
+      <c r="E69" s="86"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="H69" s="86"/>
+      <c r="I69" s="86"/>
+      <c r="J69" s="86"/>
+      <c r="K69" s="86"/>
+      <c r="L69" s="86"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="87"/>
     </row>
     <row r="88" spans="7:7">
       <c r="G88" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="14.75"/>
     <row r="94" ht="14.75" spans="2:19">
-      <c r="B94" s="48" t="s">
-        <v>13</v>
+      <c r="B94" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
-      <c r="L94" s="49"/>
-      <c r="M94" s="49"/>
-      <c r="N94" s="49"/>
-      <c r="O94" s="49"/>
-      <c r="P94" s="49"/>
-      <c r="Q94" s="49"/>
-      <c r="R94" s="49"/>
-      <c r="S94" s="50"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="86"/>
+      <c r="I94" s="86"/>
+      <c r="J94" s="86"/>
+      <c r="K94" s="86"/>
+      <c r="L94" s="86"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="86"/>
+      <c r="O94" s="86"/>
+      <c r="P94" s="86"/>
+      <c r="Q94" s="86"/>
+      <c r="R94" s="86"/>
+      <c r="S94" s="87"/>
     </row>
     <row r="99" spans="1:28">
       <c r="A99" s="24"/>
@@ -8194,72 +8507,72 @@
     </row>
     <row r="103" ht="14.75"/>
     <row r="104" spans="22:26">
-      <c r="V104" s="51"/>
+      <c r="V104" s="88"/>
       <c r="W104" s="18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X104" s="18"/>
       <c r="Y104" s="18"/>
       <c r="Z104" s="20"/>
     </row>
     <row r="105" spans="22:26">
-      <c r="V105" s="52"/>
+      <c r="V105" s="89"/>
       <c r="Z105" s="22"/>
     </row>
     <row r="106" spans="22:26">
-      <c r="V106" s="52"/>
+      <c r="V106" s="89"/>
       <c r="W106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Z106" s="22"/>
     </row>
     <row r="107" spans="22:26">
-      <c r="V107" s="52"/>
+      <c r="V107" s="89"/>
       <c r="W107" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="Z107" s="22"/>
     </row>
     <row r="108" spans="22:26">
-      <c r="V108" s="52"/>
+      <c r="V108" s="89"/>
       <c r="Z108" s="22"/>
     </row>
     <row r="109" spans="22:26">
-      <c r="V109" s="52" t="s">
-        <v>31</v>
+      <c r="V109" s="89" t="s">
+        <v>35</v>
       </c>
       <c r="Z109" s="22"/>
     </row>
     <row r="110" spans="22:26">
-      <c r="V110" s="52"/>
+      <c r="V110" s="89"/>
       <c r="Z110" s="22"/>
     </row>
     <row r="111" spans="22:26">
-      <c r="V111" s="52"/>
+      <c r="V111" s="89"/>
       <c r="Z111" s="22"/>
     </row>
     <row r="112" spans="22:26">
-      <c r="V112" s="52"/>
+      <c r="V112" s="89"/>
       <c r="Z112" s="22"/>
     </row>
     <row r="113" spans="22:26">
-      <c r="V113" s="52"/>
+      <c r="V113" s="89"/>
       <c r="Z113" s="22"/>
     </row>
     <row r="114" spans="22:26">
-      <c r="V114" s="52"/>
+      <c r="V114" s="89"/>
       <c r="Z114" s="22"/>
     </row>
     <row r="115" spans="22:26">
-      <c r="V115" s="52"/>
+      <c r="V115" s="89"/>
       <c r="Z115" s="22"/>
     </row>
     <row r="116" spans="22:26">
-      <c r="V116" s="52"/>
+      <c r="V116" s="89"/>
       <c r="Z116" s="22"/>
     </row>
     <row r="117" ht="14.75" spans="22:26">
-      <c r="V117" s="53"/>
+      <c r="V117" s="90"/>
       <c r="W117" s="23"/>
       <c r="X117" s="23"/>
       <c r="Y117" s="23"/>
@@ -8267,36 +8580,36 @@
     </row>
     <row r="119" spans="7:7">
       <c r="G119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="14.75"/>
     <row r="125" ht="14.75" spans="2:19">
-      <c r="B125" s="48" t="s">
-        <v>13</v>
+      <c r="B125" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
-      <c r="I125" s="49"/>
-      <c r="J125" s="49"/>
-      <c r="K125" s="49"/>
-      <c r="L125" s="49"/>
-      <c r="M125" s="49"/>
-      <c r="N125" s="49"/>
-      <c r="O125" s="49"/>
-      <c r="P125" s="49"/>
-      <c r="Q125" s="49"/>
-      <c r="R125" s="49"/>
-      <c r="S125" s="50"/>
+      <c r="C125" s="86"/>
+      <c r="D125" s="86"/>
+      <c r="E125" s="86"/>
+      <c r="F125" s="86"/>
+      <c r="G125" s="86"/>
+      <c r="H125" s="86"/>
+      <c r="I125" s="86"/>
+      <c r="J125" s="86"/>
+      <c r="K125" s="86"/>
+      <c r="L125" s="86"/>
+      <c r="M125" s="86"/>
+      <c r="N125" s="86"/>
+      <c r="O125" s="86"/>
+      <c r="P125" s="86"/>
+      <c r="Q125" s="86"/>
+      <c r="R125" s="86"/>
+      <c r="S125" s="87"/>
     </row>
     <row r="128" s="24" customFormat="1"/>
     <row r="130" ht="14.75"/>
@@ -8305,7 +8618,7 @@
         <v>5</v>
       </c>
       <c r="X131" s="19" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Y131" s="18"/>
       <c r="Z131" s="18"/>
@@ -8317,13 +8630,13 @@
     </row>
     <row r="133" spans="24:27">
       <c r="X133" s="21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA133" s="22"/>
     </row>
     <row r="134" spans="24:27">
       <c r="X134" s="21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AA134" s="22"/>
     </row>
@@ -8365,7 +8678,7 @@
     </row>
     <row r="144" spans="9:27">
       <c r="I144" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X144" s="21"/>
       <c r="AA144" s="22"/>
@@ -8376,7 +8689,7 @@
     </row>
     <row r="146" spans="11:27">
       <c r="K146" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="X146" s="21"/>
       <c r="AA146" s="22"/>
@@ -8396,26 +8709,26 @@
       <c r="AA149" s="26"/>
     </row>
     <row r="150" ht="14.75" spans="4:21">
-      <c r="D150" s="48" t="s">
-        <v>13</v>
+      <c r="D150" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="E150" s="49"/>
-      <c r="F150" s="49"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="49"/>
-      <c r="I150" s="49"/>
-      <c r="J150" s="49"/>
-      <c r="K150" s="49"/>
-      <c r="L150" s="49"/>
-      <c r="M150" s="49"/>
-      <c r="N150" s="49"/>
-      <c r="O150" s="49"/>
-      <c r="P150" s="49"/>
-      <c r="Q150" s="49"/>
-      <c r="R150" s="49"/>
-      <c r="S150" s="49"/>
-      <c r="T150" s="49"/>
-      <c r="U150" s="50"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="86"/>
+      <c r="G150" s="86"/>
+      <c r="H150" s="86"/>
+      <c r="I150" s="86"/>
+      <c r="J150" s="86"/>
+      <c r="K150" s="86"/>
+      <c r="L150" s="86"/>
+      <c r="M150" s="86"/>
+      <c r="N150" s="86"/>
+      <c r="O150" s="86"/>
+      <c r="P150" s="86"/>
+      <c r="Q150" s="86"/>
+      <c r="R150" s="86"/>
+      <c r="S150" s="86"/>
+      <c r="T150" s="86"/>
+      <c r="U150" s="87"/>
     </row>
     <row r="161" spans="1:30">
       <c r="A161" s="24"/>
@@ -8455,7 +8768,7 @@
         <v>6</v>
       </c>
       <c r="X165" s="19" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Y165" s="18"/>
       <c r="Z165" s="18"/>
@@ -8464,7 +8777,7 @@
     </row>
     <row r="166" spans="24:28">
       <c r="X166" s="21" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB166" s="22"/>
     </row>
@@ -8474,19 +8787,19 @@
     </row>
     <row r="168" spans="24:28">
       <c r="X168" s="21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AB168" s="22"/>
     </row>
     <row r="169" spans="24:28">
       <c r="X169" s="21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB169" s="22"/>
     </row>
     <row r="170" spans="24:28">
       <c r="X170" s="21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AB170" s="22"/>
     </row>
@@ -8544,7 +8857,7 @@
     </row>
     <row r="184" ht="14.75" spans="8:28">
       <c r="H184" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="X184" s="25"/>
       <c r="Y184" s="23"/>
@@ -8554,31 +8867,31 @@
     </row>
     <row r="186" spans="10:10">
       <c r="J186" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="189" ht="14.75"/>
     <row r="190" ht="14.75" spans="3:20">
-      <c r="C190" s="48" t="s">
-        <v>13</v>
+      <c r="C190" s="85" t="s">
+        <v>17</v>
       </c>
-      <c r="D190" s="49"/>
-      <c r="E190" s="49"/>
-      <c r="F190" s="49"/>
-      <c r="G190" s="49"/>
-      <c r="H190" s="49"/>
-      <c r="I190" s="49"/>
-      <c r="J190" s="49"/>
-      <c r="K190" s="49"/>
-      <c r="L190" s="49"/>
-      <c r="M190" s="49"/>
-      <c r="N190" s="49"/>
-      <c r="O190" s="49"/>
-      <c r="P190" s="49"/>
-      <c r="Q190" s="49"/>
-      <c r="R190" s="49"/>
-      <c r="S190" s="49"/>
-      <c r="T190" s="50"/>
+      <c r="D190" s="86"/>
+      <c r="E190" s="86"/>
+      <c r="F190" s="86"/>
+      <c r="G190" s="86"/>
+      <c r="H190" s="86"/>
+      <c r="I190" s="86"/>
+      <c r="J190" s="86"/>
+      <c r="K190" s="86"/>
+      <c r="L190" s="86"/>
+      <c r="M190" s="86"/>
+      <c r="N190" s="86"/>
+      <c r="O190" s="86"/>
+      <c r="P190" s="86"/>
+      <c r="Q190" s="86"/>
+      <c r="R190" s="86"/>
+      <c r="S190" s="86"/>
+      <c r="T190" s="87"/>
     </row>
     <row r="194" spans="1:29">
       <c r="A194" s="24"/>
@@ -8613,618 +8926,618 @@
     </row>
     <row r="195" spans="2:20">
       <c r="B195" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
-      <c r="C195" s="55"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="55"/>
-      <c r="F195" s="55"/>
-      <c r="G195" s="55"/>
-      <c r="H195" s="55"/>
-      <c r="I195" s="55"/>
-      <c r="J195" s="55"/>
-      <c r="K195" s="55"/>
-      <c r="L195" s="55"/>
-      <c r="M195" s="55"/>
-      <c r="N195" s="55"/>
-      <c r="O195" s="55"/>
-      <c r="P195" s="55"/>
-      <c r="Q195" s="55"/>
-      <c r="R195" s="55"/>
-      <c r="S195" s="55"/>
-      <c r="T195" s="55"/>
+      <c r="C195" s="92"/>
+      <c r="D195" s="92"/>
+      <c r="E195" s="92"/>
+      <c r="F195" s="92"/>
+      <c r="G195" s="92"/>
+      <c r="H195" s="92"/>
+      <c r="I195" s="92"/>
+      <c r="J195" s="92"/>
+      <c r="K195" s="92"/>
+      <c r="L195" s="92"/>
+      <c r="M195" s="92"/>
+      <c r="N195" s="92"/>
+      <c r="O195" s="92"/>
+      <c r="P195" s="92"/>
+      <c r="Q195" s="92"/>
+      <c r="R195" s="92"/>
+      <c r="S195" s="92"/>
+      <c r="T195" s="92"/>
     </row>
     <row r="196" spans="3:20">
-      <c r="C196" s="55"/>
-      <c r="D196" s="55"/>
-      <c r="E196" s="55"/>
-      <c r="F196" s="55"/>
-      <c r="G196" s="55"/>
-      <c r="H196" s="55"/>
-      <c r="I196" s="55"/>
-      <c r="J196" s="55"/>
-      <c r="K196" s="55"/>
-      <c r="L196" s="55"/>
-      <c r="M196" s="55"/>
-      <c r="N196" s="55"/>
-      <c r="O196" s="55"/>
-      <c r="P196" s="55"/>
-      <c r="Q196" s="55"/>
-      <c r="R196" s="55"/>
-      <c r="S196" s="55"/>
-      <c r="T196" s="55"/>
+      <c r="C196" s="92"/>
+      <c r="D196" s="92"/>
+      <c r="E196" s="92"/>
+      <c r="F196" s="92"/>
+      <c r="G196" s="92"/>
+      <c r="H196" s="92"/>
+      <c r="I196" s="92"/>
+      <c r="J196" s="92"/>
+      <c r="K196" s="92"/>
+      <c r="L196" s="92"/>
+      <c r="M196" s="92"/>
+      <c r="N196" s="92"/>
+      <c r="O196" s="92"/>
+      <c r="P196" s="92"/>
+      <c r="Q196" s="92"/>
+      <c r="R196" s="92"/>
+      <c r="S196" s="92"/>
+      <c r="T196" s="92"/>
     </row>
     <row r="197" spans="3:20">
-      <c r="C197" s="55"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="55"/>
-      <c r="G197" s="55"/>
-      <c r="H197" s="55"/>
-      <c r="I197" s="55"/>
-      <c r="J197" s="55"/>
-      <c r="K197" s="55"/>
-      <c r="L197" s="55"/>
-      <c r="M197" s="55"/>
-      <c r="N197" s="55"/>
-      <c r="O197" s="55"/>
-      <c r="P197" s="55"/>
-      <c r="Q197" s="55"/>
-      <c r="R197" s="55"/>
-      <c r="S197" s="55"/>
-      <c r="T197" s="55"/>
+      <c r="C197" s="92"/>
+      <c r="D197" s="92"/>
+      <c r="E197" s="92"/>
+      <c r="F197" s="92"/>
+      <c r="G197" s="92"/>
+      <c r="H197" s="92"/>
+      <c r="I197" s="92"/>
+      <c r="J197" s="92"/>
+      <c r="K197" s="92"/>
+      <c r="L197" s="92"/>
+      <c r="M197" s="92"/>
+      <c r="N197" s="92"/>
+      <c r="O197" s="92"/>
+      <c r="P197" s="92"/>
+      <c r="Q197" s="92"/>
+      <c r="R197" s="92"/>
+      <c r="S197" s="92"/>
+      <c r="T197" s="92"/>
     </row>
     <row r="198" spans="3:20">
-      <c r="C198" s="55"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55">
+      <c r="C198" s="92"/>
+      <c r="D198" s="92"/>
+      <c r="E198" s="92">
         <v>4</v>
       </c>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="55"/>
-      <c r="L198" s="55"/>
-      <c r="M198" s="55"/>
-      <c r="N198" s="55"/>
-      <c r="O198" s="55"/>
-      <c r="P198" s="55"/>
-      <c r="Q198" s="55"/>
-      <c r="R198" s="55"/>
-      <c r="S198" s="55"/>
-      <c r="T198" s="55"/>
+      <c r="F198" s="92"/>
+      <c r="G198" s="92"/>
+      <c r="H198" s="92"/>
+      <c r="I198" s="92"/>
+      <c r="J198" s="92"/>
+      <c r="K198" s="92"/>
+      <c r="L198" s="92"/>
+      <c r="M198" s="92"/>
+      <c r="N198" s="92"/>
+      <c r="O198" s="92"/>
+      <c r="P198" s="92"/>
+      <c r="Q198" s="92"/>
+      <c r="R198" s="92"/>
+      <c r="S198" s="92"/>
+      <c r="T198" s="92"/>
     </row>
     <row r="199" spans="3:20">
-      <c r="C199" s="55"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="55"/>
-      <c r="L199" s="55"/>
-      <c r="M199" s="55"/>
-      <c r="N199" s="55"/>
-      <c r="O199" s="55"/>
-      <c r="P199" s="55"/>
-      <c r="Q199" s="55"/>
-      <c r="R199" s="55"/>
-      <c r="S199" s="55"/>
-      <c r="T199" s="55"/>
+      <c r="C199" s="92"/>
+      <c r="D199" s="92"/>
+      <c r="E199" s="92"/>
+      <c r="F199" s="92"/>
+      <c r="G199" s="92"/>
+      <c r="H199" s="92"/>
+      <c r="I199" s="92"/>
+      <c r="J199" s="92"/>
+      <c r="K199" s="92"/>
+      <c r="L199" s="92"/>
+      <c r="M199" s="92"/>
+      <c r="N199" s="92"/>
+      <c r="O199" s="92"/>
+      <c r="P199" s="92"/>
+      <c r="Q199" s="92"/>
+      <c r="R199" s="92"/>
+      <c r="S199" s="92"/>
+      <c r="T199" s="92"/>
     </row>
     <row r="200" spans="3:20">
-      <c r="C200" s="55"/>
-      <c r="D200" s="55"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="55"/>
-      <c r="H200" s="55"/>
-      <c r="I200" s="55"/>
-      <c r="J200" s="55"/>
-      <c r="K200" s="55"/>
-      <c r="L200" s="55"/>
-      <c r="M200" s="55"/>
-      <c r="N200" s="55"/>
-      <c r="O200" s="55"/>
-      <c r="P200" s="55"/>
-      <c r="Q200" s="55"/>
-      <c r="R200" s="55"/>
-      <c r="S200" s="55"/>
-      <c r="T200" s="55"/>
+      <c r="C200" s="92"/>
+      <c r="D200" s="92"/>
+      <c r="E200" s="92"/>
+      <c r="F200" s="92"/>
+      <c r="G200" s="92"/>
+      <c r="H200" s="92"/>
+      <c r="I200" s="92"/>
+      <c r="J200" s="92"/>
+      <c r="K200" s="92"/>
+      <c r="L200" s="92"/>
+      <c r="M200" s="92"/>
+      <c r="N200" s="92"/>
+      <c r="O200" s="92"/>
+      <c r="P200" s="92"/>
+      <c r="Q200" s="92"/>
+      <c r="R200" s="92"/>
+      <c r="S200" s="92"/>
+      <c r="T200" s="92"/>
     </row>
     <row r="201" spans="3:20">
-      <c r="C201" s="55"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="55"/>
-      <c r="H201" s="55"/>
-      <c r="I201" s="55"/>
-      <c r="J201" s="55"/>
-      <c r="K201" s="55"/>
-      <c r="L201" s="55"/>
-      <c r="M201" s="55"/>
-      <c r="N201" s="55"/>
-      <c r="O201" s="55"/>
-      <c r="P201" s="55"/>
-      <c r="Q201" s="55"/>
-      <c r="R201" s="55"/>
-      <c r="S201" s="55"/>
-      <c r="T201" s="55"/>
+      <c r="C201" s="92"/>
+      <c r="D201" s="92"/>
+      <c r="E201" s="92"/>
+      <c r="F201" s="92"/>
+      <c r="G201" s="92"/>
+      <c r="H201" s="92"/>
+      <c r="I201" s="92"/>
+      <c r="J201" s="92"/>
+      <c r="K201" s="92"/>
+      <c r="L201" s="92"/>
+      <c r="M201" s="92"/>
+      <c r="N201" s="92"/>
+      <c r="O201" s="92"/>
+      <c r="P201" s="92"/>
+      <c r="Q201" s="92"/>
+      <c r="R201" s="92"/>
+      <c r="S201" s="92"/>
+      <c r="T201" s="92"/>
     </row>
     <row r="202" spans="3:20">
-      <c r="C202" s="55"/>
-      <c r="D202" s="55"/>
-      <c r="E202" s="55"/>
-      <c r="F202" s="55"/>
-      <c r="G202" s="55"/>
-      <c r="H202" s="55"/>
-      <c r="I202" s="55"/>
-      <c r="J202" s="55"/>
-      <c r="K202" s="55"/>
-      <c r="L202" s="55"/>
-      <c r="M202" s="55"/>
-      <c r="N202" s="55"/>
-      <c r="O202" s="55"/>
-      <c r="P202" s="55"/>
-      <c r="Q202" s="55"/>
-      <c r="R202" s="55"/>
-      <c r="S202" s="55"/>
-      <c r="T202" s="55"/>
+      <c r="C202" s="92"/>
+      <c r="D202" s="92"/>
+      <c r="E202" s="92"/>
+      <c r="F202" s="92"/>
+      <c r="G202" s="92"/>
+      <c r="H202" s="92"/>
+      <c r="I202" s="92"/>
+      <c r="J202" s="92"/>
+      <c r="K202" s="92"/>
+      <c r="L202" s="92"/>
+      <c r="M202" s="92"/>
+      <c r="N202" s="92"/>
+      <c r="O202" s="92"/>
+      <c r="P202" s="92"/>
+      <c r="Q202" s="92"/>
+      <c r="R202" s="92"/>
+      <c r="S202" s="92"/>
+      <c r="T202" s="92"/>
     </row>
     <row r="203" ht="14.75" spans="3:20">
-      <c r="C203" s="55"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="55"/>
-      <c r="G203" s="55"/>
-      <c r="H203" s="55"/>
-      <c r="I203" s="55"/>
-      <c r="J203" s="55"/>
-      <c r="K203" s="55"/>
-      <c r="L203" s="55"/>
-      <c r="M203" s="55"/>
-      <c r="N203" s="55"/>
-      <c r="O203" s="55"/>
-      <c r="P203" s="55"/>
-      <c r="Q203" s="55"/>
-      <c r="R203" s="55"/>
-      <c r="S203" s="55"/>
-      <c r="T203" s="55"/>
+      <c r="C203" s="92"/>
+      <c r="D203" s="92"/>
+      <c r="E203" s="92"/>
+      <c r="F203" s="92"/>
+      <c r="G203" s="92"/>
+      <c r="H203" s="92"/>
+      <c r="I203" s="92"/>
+      <c r="J203" s="92"/>
+      <c r="K203" s="92"/>
+      <c r="L203" s="92"/>
+      <c r="M203" s="92"/>
+      <c r="N203" s="92"/>
+      <c r="O203" s="92"/>
+      <c r="P203" s="92"/>
+      <c r="Q203" s="92"/>
+      <c r="R203" s="92"/>
+      <c r="S203" s="92"/>
+      <c r="T203" s="92"/>
     </row>
     <row r="204" spans="3:26">
-      <c r="C204" s="55"/>
-      <c r="D204" s="55"/>
-      <c r="E204" s="55"/>
-      <c r="F204" s="55"/>
-      <c r="G204" s="55"/>
-      <c r="H204" s="55"/>
-      <c r="I204" s="55"/>
-      <c r="J204" s="55"/>
-      <c r="K204" s="55"/>
-      <c r="L204" s="55"/>
-      <c r="M204" s="55"/>
-      <c r="N204" s="55"/>
-      <c r="O204" s="55"/>
-      <c r="P204" s="55"/>
-      <c r="Q204" s="55"/>
-      <c r="R204" s="55"/>
-      <c r="S204" s="55"/>
-      <c r="T204" s="55"/>
+      <c r="C204" s="92"/>
+      <c r="D204" s="92"/>
+      <c r="E204" s="92"/>
+      <c r="F204" s="92"/>
+      <c r="G204" s="92"/>
+      <c r="H204" s="92"/>
+      <c r="I204" s="92"/>
+      <c r="J204" s="92"/>
+      <c r="K204" s="92"/>
+      <c r="L204" s="92"/>
+      <c r="M204" s="92"/>
+      <c r="N204" s="92"/>
+      <c r="O204" s="92"/>
+      <c r="P204" s="92"/>
+      <c r="Q204" s="92"/>
+      <c r="R204" s="92"/>
+      <c r="S204" s="92"/>
+      <c r="T204" s="92"/>
       <c r="W204" s="19" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="X204" s="18"/>
       <c r="Y204" s="18"/>
       <c r="Z204" s="20"/>
     </row>
     <row r="205" spans="3:26">
-      <c r="C205" s="55"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="55"/>
-      <c r="G205" s="55"/>
-      <c r="H205" s="55"/>
-      <c r="I205" s="55"/>
-      <c r="J205" s="55"/>
-      <c r="K205" s="55"/>
-      <c r="L205" s="55"/>
-      <c r="M205" s="55"/>
-      <c r="N205" s="55"/>
-      <c r="O205" s="55"/>
-      <c r="P205" s="55"/>
-      <c r="Q205" s="55"/>
-      <c r="R205" s="55"/>
-      <c r="S205" s="55"/>
-      <c r="T205" s="55"/>
+      <c r="C205" s="92"/>
+      <c r="D205" s="92"/>
+      <c r="E205" s="92"/>
+      <c r="F205" s="92"/>
+      <c r="G205" s="92"/>
+      <c r="H205" s="92"/>
+      <c r="I205" s="92"/>
+      <c r="J205" s="92"/>
+      <c r="K205" s="92"/>
+      <c r="L205" s="92"/>
+      <c r="M205" s="92"/>
+      <c r="N205" s="92"/>
+      <c r="O205" s="92"/>
+      <c r="P205" s="92"/>
+      <c r="Q205" s="92"/>
+      <c r="R205" s="92"/>
+      <c r="S205" s="92"/>
+      <c r="T205" s="92"/>
       <c r="W205" s="21"/>
       <c r="Z205" s="22"/>
     </row>
     <row r="206" spans="3:26">
-      <c r="C206" s="55"/>
-      <c r="D206" s="55"/>
-      <c r="E206" s="55"/>
-      <c r="F206" s="55"/>
-      <c r="G206" s="55"/>
-      <c r="H206" s="55"/>
-      <c r="I206" s="55"/>
-      <c r="J206" s="55"/>
-      <c r="K206" s="55"/>
-      <c r="L206" s="55"/>
-      <c r="M206" s="55"/>
-      <c r="N206" s="55"/>
-      <c r="O206" s="55"/>
-      <c r="P206" s="55"/>
-      <c r="Q206" s="55"/>
-      <c r="R206" s="55"/>
-      <c r="S206" s="55"/>
-      <c r="T206" s="55"/>
+      <c r="C206" s="92"/>
+      <c r="D206" s="92"/>
+      <c r="E206" s="92"/>
+      <c r="F206" s="92"/>
+      <c r="G206" s="92"/>
+      <c r="H206" s="92"/>
+      <c r="I206" s="92"/>
+      <c r="J206" s="92"/>
+      <c r="K206" s="92"/>
+      <c r="L206" s="92"/>
+      <c r="M206" s="92"/>
+      <c r="N206" s="92"/>
+      <c r="O206" s="92"/>
+      <c r="P206" s="92"/>
+      <c r="Q206" s="92"/>
+      <c r="R206" s="92"/>
+      <c r="S206" s="92"/>
+      <c r="T206" s="92"/>
       <c r="W206" s="21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Z206" s="22"/>
     </row>
     <row r="207" spans="3:26">
-      <c r="C207" s="55"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="55"/>
-      <c r="G207" s="55"/>
-      <c r="H207" s="55"/>
-      <c r="I207" s="55"/>
-      <c r="J207" s="55"/>
-      <c r="K207" s="55"/>
-      <c r="L207" s="55"/>
-      <c r="M207" s="55"/>
-      <c r="N207" s="55"/>
-      <c r="O207" s="55"/>
-      <c r="P207" s="55"/>
-      <c r="Q207" s="55"/>
-      <c r="R207" s="55"/>
-      <c r="S207" s="55"/>
-      <c r="T207" s="55"/>
+      <c r="C207" s="92"/>
+      <c r="D207" s="92"/>
+      <c r="E207" s="92"/>
+      <c r="F207" s="92"/>
+      <c r="G207" s="92"/>
+      <c r="H207" s="92"/>
+      <c r="I207" s="92"/>
+      <c r="J207" s="92"/>
+      <c r="K207" s="92"/>
+      <c r="L207" s="92"/>
+      <c r="M207" s="92"/>
+      <c r="N207" s="92"/>
+      <c r="O207" s="92"/>
+      <c r="P207" s="92"/>
+      <c r="Q207" s="92"/>
+      <c r="R207" s="92"/>
+      <c r="S207" s="92"/>
+      <c r="T207" s="92"/>
       <c r="W207" s="21"/>
       <c r="Z207" s="22"/>
     </row>
     <row r="208" spans="3:26">
-      <c r="C208" s="55"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
-      <c r="I208" s="55"/>
-      <c r="J208" s="55"/>
-      <c r="K208" s="55"/>
-      <c r="L208" s="55"/>
-      <c r="M208" s="55"/>
-      <c r="N208" s="55"/>
-      <c r="O208" s="55"/>
-      <c r="P208" s="55"/>
-      <c r="Q208" s="55"/>
-      <c r="R208" s="55"/>
-      <c r="S208" s="55"/>
-      <c r="T208" s="55"/>
+      <c r="C208" s="92"/>
+      <c r="D208" s="92"/>
+      <c r="E208" s="92"/>
+      <c r="F208" s="92"/>
+      <c r="G208" s="92"/>
+      <c r="H208" s="92"/>
+      <c r="I208" s="92"/>
+      <c r="J208" s="92"/>
+      <c r="K208" s="92"/>
+      <c r="L208" s="92"/>
+      <c r="M208" s="92"/>
+      <c r="N208" s="92"/>
+      <c r="O208" s="92"/>
+      <c r="P208" s="92"/>
+      <c r="Q208" s="92"/>
+      <c r="R208" s="92"/>
+      <c r="S208" s="92"/>
+      <c r="T208" s="92"/>
       <c r="W208" s="21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Z208" s="22"/>
     </row>
     <row r="209" spans="3:26">
-      <c r="C209" s="55"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
-      <c r="I209" s="55"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="55"/>
-      <c r="L209" s="55"/>
-      <c r="M209" s="55"/>
-      <c r="N209" s="55"/>
-      <c r="O209" s="55"/>
-      <c r="P209" s="55"/>
-      <c r="Q209" s="55"/>
-      <c r="R209" s="55"/>
-      <c r="S209" s="55"/>
-      <c r="T209" s="55"/>
+      <c r="C209" s="92"/>
+      <c r="D209" s="92"/>
+      <c r="E209" s="92"/>
+      <c r="F209" s="92"/>
+      <c r="G209" s="92"/>
+      <c r="H209" s="92"/>
+      <c r="I209" s="92"/>
+      <c r="J209" s="92"/>
+      <c r="K209" s="92"/>
+      <c r="L209" s="92"/>
+      <c r="M209" s="92"/>
+      <c r="N209" s="92"/>
+      <c r="O209" s="92"/>
+      <c r="P209" s="92"/>
+      <c r="Q209" s="92"/>
+      <c r="R209" s="92"/>
+      <c r="S209" s="92"/>
+      <c r="T209" s="92"/>
       <c r="W209" s="21"/>
       <c r="Z209" s="22"/>
     </row>
     <row r="210" spans="3:26">
-      <c r="C210" s="55"/>
-      <c r="D210" s="55"/>
-      <c r="E210" s="55"/>
-      <c r="F210" s="55"/>
-      <c r="G210" s="55"/>
-      <c r="H210" s="55"/>
-      <c r="I210" s="55"/>
-      <c r="J210" s="55"/>
-      <c r="K210" s="55"/>
-      <c r="L210" s="55"/>
-      <c r="M210" s="55"/>
-      <c r="N210" s="55"/>
-      <c r="O210" s="55"/>
-      <c r="P210" s="55"/>
-      <c r="Q210" s="55"/>
-      <c r="R210" s="55"/>
-      <c r="S210" s="55"/>
-      <c r="T210" s="55"/>
+      <c r="C210" s="92"/>
+      <c r="D210" s="92"/>
+      <c r="E210" s="92"/>
+      <c r="F210" s="92"/>
+      <c r="G210" s="92"/>
+      <c r="H210" s="92"/>
+      <c r="I210" s="92"/>
+      <c r="J210" s="92"/>
+      <c r="K210" s="92"/>
+      <c r="L210" s="92"/>
+      <c r="M210" s="92"/>
+      <c r="N210" s="92"/>
+      <c r="O210" s="92"/>
+      <c r="P210" s="92"/>
+      <c r="Q210" s="92"/>
+      <c r="R210" s="92"/>
+      <c r="S210" s="92"/>
+      <c r="T210" s="92"/>
       <c r="W210" s="21"/>
       <c r="Z210" s="22"/>
     </row>
     <row r="211" spans="3:26">
-      <c r="C211" s="55"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="55"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="55"/>
-      <c r="J211" s="55"/>
-      <c r="K211" s="55"/>
-      <c r="L211" s="55"/>
-      <c r="M211" s="55"/>
-      <c r="N211" s="55"/>
-      <c r="O211" s="55"/>
-      <c r="P211" s="55"/>
-      <c r="Q211" s="55"/>
-      <c r="R211" s="55"/>
-      <c r="S211" s="55"/>
-      <c r="T211" s="55"/>
+      <c r="C211" s="92"/>
+      <c r="D211" s="92"/>
+      <c r="E211" s="92"/>
+      <c r="F211" s="92"/>
+      <c r="G211" s="92"/>
+      <c r="H211" s="92"/>
+      <c r="I211" s="92"/>
+      <c r="J211" s="92"/>
+      <c r="K211" s="92"/>
+      <c r="L211" s="92"/>
+      <c r="M211" s="92"/>
+      <c r="N211" s="92"/>
+      <c r="O211" s="92"/>
+      <c r="P211" s="92"/>
+      <c r="Q211" s="92"/>
+      <c r="R211" s="92"/>
+      <c r="S211" s="92"/>
+      <c r="T211" s="92"/>
       <c r="W211" s="21"/>
       <c r="Z211" s="22"/>
     </row>
     <row r="212" spans="3:26">
-      <c r="C212" s="55"/>
-      <c r="D212" s="55"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="55"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="55"/>
-      <c r="K212" s="55"/>
-      <c r="L212" s="55"/>
-      <c r="M212" s="55"/>
-      <c r="N212" s="55"/>
-      <c r="O212" s="55"/>
-      <c r="P212" s="55"/>
-      <c r="Q212" s="55"/>
-      <c r="R212" s="55"/>
-      <c r="S212" s="55"/>
-      <c r="T212" s="55"/>
+      <c r="C212" s="92"/>
+      <c r="D212" s="92"/>
+      <c r="E212" s="92"/>
+      <c r="F212" s="92"/>
+      <c r="G212" s="92"/>
+      <c r="H212" s="92"/>
+      <c r="I212" s="92"/>
+      <c r="J212" s="92"/>
+      <c r="K212" s="92"/>
+      <c r="L212" s="92"/>
+      <c r="M212" s="92"/>
+      <c r="N212" s="92"/>
+      <c r="O212" s="92"/>
+      <c r="P212" s="92"/>
+      <c r="Q212" s="92"/>
+      <c r="R212" s="92"/>
+      <c r="S212" s="92"/>
+      <c r="T212" s="92"/>
       <c r="W212" s="21"/>
       <c r="Z212" s="22"/>
     </row>
     <row r="213" spans="3:26">
-      <c r="C213" s="55"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="55"/>
-      <c r="G213" s="55"/>
-      <c r="H213" s="55"/>
-      <c r="I213" s="55"/>
-      <c r="J213" s="55"/>
-      <c r="K213" s="55"/>
-      <c r="L213" s="55"/>
-      <c r="M213" s="55"/>
-      <c r="N213" s="55"/>
-      <c r="O213" s="55"/>
-      <c r="P213" s="55"/>
-      <c r="Q213" s="55"/>
-      <c r="R213" s="55"/>
-      <c r="S213" s="55"/>
-      <c r="T213" s="55"/>
+      <c r="C213" s="92"/>
+      <c r="D213" s="92"/>
+      <c r="E213" s="92"/>
+      <c r="F213" s="92"/>
+      <c r="G213" s="92"/>
+      <c r="H213" s="92"/>
+      <c r="I213" s="92"/>
+      <c r="J213" s="92"/>
+      <c r="K213" s="92"/>
+      <c r="L213" s="92"/>
+      <c r="M213" s="92"/>
+      <c r="N213" s="92"/>
+      <c r="O213" s="92"/>
+      <c r="P213" s="92"/>
+      <c r="Q213" s="92"/>
+      <c r="R213" s="92"/>
+      <c r="S213" s="92"/>
+      <c r="T213" s="92"/>
       <c r="W213" s="21"/>
       <c r="Z213" s="22"/>
     </row>
     <row r="214" spans="3:26">
-      <c r="C214" s="55"/>
-      <c r="D214" s="55"/>
-      <c r="E214" s="55"/>
-      <c r="F214" s="55"/>
-      <c r="G214" s="55"/>
-      <c r="H214" s="55"/>
-      <c r="I214" s="55"/>
-      <c r="J214" s="55"/>
-      <c r="K214" s="55"/>
-      <c r="L214" s="55"/>
-      <c r="M214" s="55"/>
-      <c r="N214" s="55"/>
-      <c r="O214" s="55"/>
-      <c r="P214" s="55"/>
-      <c r="Q214" s="55"/>
-      <c r="R214" s="55"/>
-      <c r="S214" s="55"/>
-      <c r="T214" s="55"/>
+      <c r="C214" s="92"/>
+      <c r="D214" s="92"/>
+      <c r="E214" s="92"/>
+      <c r="F214" s="92"/>
+      <c r="G214" s="92"/>
+      <c r="H214" s="92"/>
+      <c r="I214" s="92"/>
+      <c r="J214" s="92"/>
+      <c r="K214" s="92"/>
+      <c r="L214" s="92"/>
+      <c r="M214" s="92"/>
+      <c r="N214" s="92"/>
+      <c r="O214" s="92"/>
+      <c r="P214" s="92"/>
+      <c r="Q214" s="92"/>
+      <c r="R214" s="92"/>
+      <c r="S214" s="92"/>
+      <c r="T214" s="92"/>
       <c r="W214" s="21"/>
       <c r="Z214" s="22"/>
     </row>
     <row r="215" spans="3:26">
-      <c r="C215" s="55"/>
-      <c r="D215" s="55"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="55"/>
-      <c r="G215" s="55"/>
-      <c r="H215" s="55"/>
-      <c r="I215" s="55"/>
-      <c r="J215" s="55"/>
-      <c r="K215" s="55"/>
-      <c r="L215" s="55"/>
-      <c r="M215" s="55"/>
-      <c r="N215" s="55"/>
-      <c r="O215" s="55"/>
-      <c r="P215" s="55"/>
-      <c r="Q215" s="55"/>
-      <c r="R215" s="55"/>
-      <c r="S215" s="55"/>
-      <c r="T215" s="55"/>
+      <c r="C215" s="92"/>
+      <c r="D215" s="92"/>
+      <c r="E215" s="92"/>
+      <c r="F215" s="92"/>
+      <c r="G215" s="92"/>
+      <c r="H215" s="92"/>
+      <c r="I215" s="92"/>
+      <c r="J215" s="92"/>
+      <c r="K215" s="92"/>
+      <c r="L215" s="92"/>
+      <c r="M215" s="92"/>
+      <c r="N215" s="92"/>
+      <c r="O215" s="92"/>
+      <c r="P215" s="92"/>
+      <c r="Q215" s="92"/>
+      <c r="R215" s="92"/>
+      <c r="S215" s="92"/>
+      <c r="T215" s="92"/>
       <c r="W215" s="21"/>
       <c r="Z215" s="22"/>
     </row>
     <row r="216" spans="3:26">
-      <c r="C216" s="55"/>
-      <c r="D216" s="55"/>
-      <c r="E216" s="55"/>
-      <c r="F216" s="55"/>
-      <c r="G216" s="55"/>
-      <c r="H216" s="55" t="s">
-        <v>11</v>
+      <c r="C216" s="92"/>
+      <c r="D216" s="92"/>
+      <c r="E216" s="92"/>
+      <c r="F216" s="92"/>
+      <c r="G216" s="92"/>
+      <c r="H216" s="92" t="s">
+        <v>15</v>
       </c>
-      <c r="I216" s="55"/>
-      <c r="J216" s="55"/>
-      <c r="K216" s="55"/>
-      <c r="L216" s="55"/>
-      <c r="M216" s="55"/>
-      <c r="N216" s="55"/>
-      <c r="O216" s="55"/>
-      <c r="P216" s="55"/>
-      <c r="Q216" s="55"/>
-      <c r="R216" s="55"/>
-      <c r="S216" s="55"/>
-      <c r="T216" s="55"/>
+      <c r="I216" s="92"/>
+      <c r="J216" s="92"/>
+      <c r="K216" s="92"/>
+      <c r="L216" s="92"/>
+      <c r="M216" s="92"/>
+      <c r="N216" s="92"/>
+      <c r="O216" s="92"/>
+      <c r="P216" s="92"/>
+      <c r="Q216" s="92"/>
+      <c r="R216" s="92"/>
+      <c r="S216" s="92"/>
+      <c r="T216" s="92"/>
       <c r="W216" s="21"/>
       <c r="Z216" s="22"/>
     </row>
     <row r="217" spans="3:26">
-      <c r="C217" s="55"/>
-      <c r="D217" s="55"/>
-      <c r="E217" s="55"/>
-      <c r="F217" s="55"/>
-      <c r="G217" s="55"/>
-      <c r="H217" s="55"/>
-      <c r="I217" s="55"/>
-      <c r="J217" s="55"/>
-      <c r="K217" s="55"/>
-      <c r="L217" s="55"/>
-      <c r="M217" s="55"/>
-      <c r="N217" s="55"/>
-      <c r="O217" s="55"/>
-      <c r="P217" s="55"/>
-      <c r="Q217" s="55"/>
-      <c r="R217" s="55"/>
-      <c r="S217" s="55"/>
-      <c r="T217" s="55"/>
+      <c r="C217" s="92"/>
+      <c r="D217" s="92"/>
+      <c r="E217" s="92"/>
+      <c r="F217" s="92"/>
+      <c r="G217" s="92"/>
+      <c r="H217" s="92"/>
+      <c r="I217" s="92"/>
+      <c r="J217" s="92"/>
+      <c r="K217" s="92"/>
+      <c r="L217" s="92"/>
+      <c r="M217" s="92"/>
+      <c r="N217" s="92"/>
+      <c r="O217" s="92"/>
+      <c r="P217" s="92"/>
+      <c r="Q217" s="92"/>
+      <c r="R217" s="92"/>
+      <c r="S217" s="92"/>
+      <c r="T217" s="92"/>
       <c r="W217" s="21"/>
       <c r="Z217" s="22"/>
     </row>
     <row r="218" spans="3:26">
-      <c r="C218" s="55"/>
-      <c r="D218" s="55"/>
-      <c r="E218" s="55"/>
-      <c r="F218" s="55"/>
-      <c r="G218" s="55"/>
-      <c r="H218" s="55"/>
-      <c r="I218" s="55"/>
-      <c r="J218" s="55" t="s">
-        <v>12</v>
+      <c r="C218" s="92"/>
+      <c r="D218" s="92"/>
+      <c r="E218" s="92"/>
+      <c r="F218" s="92"/>
+      <c r="G218" s="92"/>
+      <c r="H218" s="92"/>
+      <c r="I218" s="92"/>
+      <c r="J218" s="92" t="s">
+        <v>16</v>
       </c>
-      <c r="K218" s="55"/>
-      <c r="L218" s="55"/>
-      <c r="M218" s="55"/>
-      <c r="N218" s="55"/>
-      <c r="O218" s="55"/>
-      <c r="P218" s="55"/>
-      <c r="Q218" s="55"/>
-      <c r="R218" s="55"/>
-      <c r="S218" s="55"/>
-      <c r="T218" s="55"/>
+      <c r="K218" s="92"/>
+      <c r="L218" s="92"/>
+      <c r="M218" s="92"/>
+      <c r="N218" s="92"/>
+      <c r="O218" s="92"/>
+      <c r="P218" s="92"/>
+      <c r="Q218" s="92"/>
+      <c r="R218" s="92"/>
+      <c r="S218" s="92"/>
+      <c r="T218" s="92"/>
       <c r="W218" s="21"/>
       <c r="Z218" s="22"/>
     </row>
     <row r="219" spans="3:26">
-      <c r="C219" s="55"/>
-      <c r="D219" s="55"/>
-      <c r="E219" s="55"/>
-      <c r="F219" s="55"/>
-      <c r="G219" s="55"/>
-      <c r="H219" s="55"/>
-      <c r="I219" s="55"/>
-      <c r="J219" s="55"/>
-      <c r="K219" s="55"/>
-      <c r="L219" s="55"/>
-      <c r="M219" s="55"/>
-      <c r="N219" s="55"/>
-      <c r="O219" s="55"/>
-      <c r="P219" s="55"/>
-      <c r="Q219" s="55"/>
-      <c r="R219" s="55"/>
-      <c r="S219" s="55"/>
-      <c r="T219" s="55"/>
+      <c r="C219" s="92"/>
+      <c r="D219" s="92"/>
+      <c r="E219" s="92"/>
+      <c r="F219" s="92"/>
+      <c r="G219" s="92"/>
+      <c r="H219" s="92"/>
+      <c r="I219" s="92"/>
+      <c r="J219" s="92"/>
+      <c r="K219" s="92"/>
+      <c r="L219" s="92"/>
+      <c r="M219" s="92"/>
+      <c r="N219" s="92"/>
+      <c r="O219" s="92"/>
+      <c r="P219" s="92"/>
+      <c r="Q219" s="92"/>
+      <c r="R219" s="92"/>
+      <c r="S219" s="92"/>
+      <c r="T219" s="92"/>
       <c r="W219" s="21"/>
       <c r="Z219" s="22"/>
     </row>
     <row r="220" ht="14.75" spans="3:26">
-      <c r="C220" s="55"/>
-      <c r="D220" s="55"/>
-      <c r="E220" s="55"/>
-      <c r="F220" s="55"/>
-      <c r="G220" s="55"/>
-      <c r="H220" s="55"/>
-      <c r="I220" s="55"/>
-      <c r="J220" s="55"/>
-      <c r="K220" s="55"/>
-      <c r="L220" s="55"/>
-      <c r="M220" s="55"/>
-      <c r="N220" s="55"/>
-      <c r="O220" s="55"/>
-      <c r="P220" s="55"/>
-      <c r="Q220" s="55"/>
-      <c r="R220" s="55"/>
-      <c r="S220" s="55"/>
-      <c r="T220" s="55"/>
+      <c r="C220" s="92"/>
+      <c r="D220" s="92"/>
+      <c r="E220" s="92"/>
+      <c r="F220" s="92"/>
+      <c r="G220" s="92"/>
+      <c r="H220" s="92"/>
+      <c r="I220" s="92"/>
+      <c r="J220" s="92"/>
+      <c r="K220" s="92"/>
+      <c r="L220" s="92"/>
+      <c r="M220" s="92"/>
+      <c r="N220" s="92"/>
+      <c r="O220" s="92"/>
+      <c r="P220" s="92"/>
+      <c r="Q220" s="92"/>
+      <c r="R220" s="92"/>
+      <c r="S220" s="92"/>
+      <c r="T220" s="92"/>
       <c r="W220" s="25"/>
       <c r="X220" s="23"/>
       <c r="Y220" s="23"/>
       <c r="Z220" s="26"/>
     </row>
     <row r="221" ht="14.75" spans="3:20">
-      <c r="C221" s="55"/>
-      <c r="D221" s="55"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="55"/>
-      <c r="G221" s="55"/>
-      <c r="H221" s="55"/>
-      <c r="I221" s="55"/>
-      <c r="J221" s="55"/>
-      <c r="K221" s="55"/>
-      <c r="L221" s="55"/>
-      <c r="M221" s="55"/>
-      <c r="N221" s="55"/>
-      <c r="O221" s="55"/>
-      <c r="P221" s="55"/>
-      <c r="Q221" s="55"/>
-      <c r="R221" s="55"/>
-      <c r="S221" s="55"/>
-      <c r="T221" s="55"/>
+      <c r="C221" s="92"/>
+      <c r="D221" s="92"/>
+      <c r="E221" s="92"/>
+      <c r="F221" s="92"/>
+      <c r="G221" s="92"/>
+      <c r="H221" s="92"/>
+      <c r="I221" s="92"/>
+      <c r="J221" s="92"/>
+      <c r="K221" s="92"/>
+      <c r="L221" s="92"/>
+      <c r="M221" s="92"/>
+      <c r="N221" s="92"/>
+      <c r="O221" s="92"/>
+      <c r="P221" s="92"/>
+      <c r="Q221" s="92"/>
+      <c r="R221" s="92"/>
+      <c r="S221" s="92"/>
+      <c r="T221" s="92"/>
     </row>
     <row r="222" ht="14.75" spans="3:20">
-      <c r="C222" s="56" t="s">
-        <v>13</v>
+      <c r="C222" s="93" t="s">
+        <v>17</v>
       </c>
-      <c r="D222" s="57"/>
-      <c r="E222" s="57"/>
-      <c r="F222" s="57"/>
-      <c r="G222" s="57"/>
-      <c r="H222" s="57"/>
-      <c r="I222" s="57"/>
-      <c r="J222" s="57"/>
-      <c r="K222" s="57"/>
-      <c r="L222" s="57"/>
-      <c r="M222" s="57"/>
-      <c r="N222" s="57"/>
-      <c r="O222" s="57"/>
-      <c r="P222" s="57"/>
-      <c r="Q222" s="57"/>
-      <c r="R222" s="57"/>
-      <c r="S222" s="57"/>
-      <c r="T222" s="58"/>
+      <c r="D222" s="94"/>
+      <c r="E222" s="94"/>
+      <c r="F222" s="94"/>
+      <c r="G222" s="94"/>
+      <c r="H222" s="94"/>
+      <c r="I222" s="94"/>
+      <c r="J222" s="94"/>
+      <c r="K222" s="94"/>
+      <c r="L222" s="94"/>
+      <c r="M222" s="94"/>
+      <c r="N222" s="94"/>
+      <c r="O222" s="94"/>
+      <c r="P222" s="94"/>
+      <c r="Q222" s="94"/>
+      <c r="R222" s="94"/>
+      <c r="S222" s="94"/>
+      <c r="T222" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9249,301 +9562,301 @@
   <sheetPr/>
   <dimension ref="I9:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="9" spans="9:23">
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
     </row>
     <row r="10" ht="14.75" spans="9:23">
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
     </row>
     <row r="11" spans="9:23">
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="46"/>
-    </row>
-    <row r="12" ht="14.75" spans="9:23">
-      <c r="I12" s="31"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-    </row>
-    <row r="13" spans="9:23">
-      <c r="I13" s="31"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-    </row>
-    <row r="14" spans="9:23">
-      <c r="I14" s="31"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="27"/>
-    </row>
-    <row r="15" ht="14.75" spans="9:23">
-      <c r="I15" s="31"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-    </row>
-    <row r="16" spans="9:23">
-      <c r="I16" s="31"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-    </row>
-    <row r="17" spans="9:23">
-      <c r="I17" s="31"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="36" t="s">
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-    </row>
-    <row r="18" spans="9:23">
-      <c r="I18" s="31"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27" t="s">
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="83"/>
+    </row>
+    <row r="12" ht="14.75" spans="9:23">
+      <c r="I12" s="68"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="83"/>
+      <c r="W12" s="83"/>
+    </row>
+    <row r="13" spans="9:23">
+      <c r="I13" s="68"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-    </row>
-    <row r="19" spans="9:23">
-      <c r="I19" s="31"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="36" t="s">
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+    </row>
+    <row r="14" spans="9:23">
+      <c r="I14" s="68"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-    </row>
-    <row r="20" spans="9:23">
-      <c r="I20" s="31"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-    </row>
-    <row r="21" spans="9:23">
-      <c r="I21" s="31"/>
-      <c r="J21" s="37" t="s">
+      <c r="P14" s="69"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="36" t="s">
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="64"/>
+    </row>
+    <row r="15" ht="14.75" spans="9:23">
+      <c r="I15" s="68"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+    </row>
+    <row r="16" spans="9:23">
+      <c r="I16" s="68"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+    </row>
+    <row r="17" spans="9:23">
+      <c r="I17" s="68"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+    </row>
+    <row r="18" spans="9:23">
+      <c r="I18" s="68"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+    </row>
+    <row r="19" spans="9:23">
+      <c r="I19" s="68"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+    </row>
+    <row r="20" spans="9:23">
+      <c r="I20" s="68"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+    </row>
+    <row r="21" spans="9:23">
+      <c r="I21" s="68"/>
+      <c r="J21" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
     </row>
     <row r="22" ht="14.75" spans="9:23">
-      <c r="I22" s="31"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
     </row>
     <row r="23" spans="9:23">
-      <c r="I23" s="28"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
     </row>
     <row r="24" ht="14.75" spans="9:23">
-      <c r="I24" s="33"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
     </row>
     <row r="27" s="24" customFormat="1"/>
     <row r="29" ht="14.75"/>
@@ -9567,20 +9880,20 @@
     </row>
     <row r="33" spans="9:16">
       <c r="I33" s="21"/>
-      <c r="K33" s="40" t="s">
-        <v>53</v>
+      <c r="K33" s="77" t="s">
+        <v>56</v>
       </c>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="42"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="79"/>
       <c r="P33" s="22"/>
     </row>
     <row r="34" ht="14.75" spans="9:16">
       <c r="I34" s="21"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="45"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="82"/>
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="9:16">
@@ -9598,10 +9911,10 @@
     <row r="38" ht="14.75" spans="9:16">
       <c r="I38" s="21"/>
       <c r="K38" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N38" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P38" s="22"/>
     </row>
@@ -9641,14 +9954,673 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:EC109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="H46" workbookViewId="0">
+      <selection activeCell="X109" sqref="X109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:133">
+      <c r="A1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
+      <c r="DC1" s="29"/>
+      <c r="DD1" s="29"/>
+      <c r="DE1" s="29"/>
+      <c r="DF1" s="29"/>
+      <c r="DG1" s="29"/>
+      <c r="DH1" s="29"/>
+      <c r="DI1" s="29"/>
+      <c r="DJ1" s="29"/>
+      <c r="DK1" s="29"/>
+      <c r="DL1" s="29"/>
+      <c r="DM1" s="29"/>
+      <c r="DN1" s="29"/>
+      <c r="DO1" s="29"/>
+      <c r="DP1" s="29"/>
+      <c r="DQ1" s="29"/>
+      <c r="DR1" s="29"/>
+      <c r="DS1" s="29"/>
+      <c r="DT1" s="29"/>
+      <c r="DU1" s="29"/>
+      <c r="DV1" s="29"/>
+      <c r="DW1" s="29"/>
+      <c r="DX1" s="29"/>
+      <c r="DY1" s="29"/>
+      <c r="DZ1" s="29"/>
+      <c r="EA1" s="29"/>
+      <c r="EB1" s="29"/>
+      <c r="EC1" s="41"/>
+    </row>
+    <row r="2" spans="1:133">
+      <c r="A2" s="30">
+        <v>10</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
+      <c r="CO2" s="31"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="31"/>
+      <c r="CV2" s="31"/>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="31"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="31"/>
+      <c r="DK2" s="31"/>
+      <c r="DL2" s="31"/>
+      <c r="DM2" s="31"/>
+      <c r="DN2" s="31"/>
+      <c r="DO2" s="31"/>
+      <c r="DP2" s="31"/>
+      <c r="DQ2" s="31"/>
+      <c r="DR2" s="31"/>
+      <c r="DS2" s="31"/>
+      <c r="DT2" s="31"/>
+      <c r="DU2" s="31"/>
+      <c r="DV2" s="31"/>
+      <c r="DW2" s="31"/>
+      <c r="DX2" s="31"/>
+      <c r="DY2" s="31"/>
+      <c r="DZ2" s="31"/>
+      <c r="EA2" s="31"/>
+      <c r="EB2" s="31"/>
+      <c r="EC2" s="42"/>
+    </row>
+    <row r="29" spans="30:37">
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="40"/>
+      <c r="AF29" s="40"/>
+      <c r="AG29" s="40"/>
+      <c r="AH29" s="40"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
+      <c r="AK29" s="40"/>
+    </row>
+    <row r="30" spans="30:37">
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="40"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="40"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
+      <c r="AK30" s="40"/>
+    </row>
+    <row r="31" spans="30:37">
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
+      <c r="AK31" s="40"/>
+    </row>
+    <row r="35" spans="21:21">
+      <c r="U35" s="34"/>
+    </row>
+    <row r="36" spans="21:21">
+      <c r="U36" s="35"/>
+    </row>
+    <row r="63" spans="16:26">
+      <c r="P63" s="32"/>
+      <c r="Q63" s="36"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="38"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+      <c r="Y63" s="29"/>
+      <c r="Z63" s="41"/>
+    </row>
+    <row r="64" spans="16:26">
+      <c r="P64" s="33"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="38"/>
+      <c r="Z64" s="38"/>
+    </row>
+    <row r="65" spans="16:26">
+      <c r="P65" s="33"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="U65" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="V65" s="55"/>
+      <c r="W65" s="55"/>
+      <c r="Z65" s="38"/>
+    </row>
+    <row r="66" spans="16:26">
+      <c r="P66" s="33"/>
+      <c r="S66" s="39"/>
+      <c r="T66" s="56"/>
+      <c r="U66" s="55"/>
+      <c r="V66" s="55"/>
+      <c r="W66" s="55"/>
+      <c r="Z66" s="38"/>
+    </row>
+    <row r="67" spans="16:26">
+      <c r="P67" s="33"/>
+      <c r="S67" s="38"/>
+      <c r="Z67" s="38"/>
+    </row>
+    <row r="68" spans="16:26">
+      <c r="P68" s="33"/>
+      <c r="S68" s="38"/>
+      <c r="Z68" s="38"/>
+    </row>
+    <row r="69" spans="16:26">
+      <c r="P69" s="48"/>
+      <c r="Q69" s="31"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="42"/>
+      <c r="Z69" s="38"/>
+    </row>
+    <row r="70" spans="16:26">
+      <c r="P70" s="46"/>
+      <c r="Z70" s="38"/>
+    </row>
+    <row r="71" spans="16:26">
+      <c r="P71" s="46"/>
+      <c r="Z71" s="38"/>
+    </row>
+    <row r="72" spans="16:26">
+      <c r="P72" s="47"/>
+      <c r="Q72" s="31"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+      <c r="T72" s="31"/>
+      <c r="U72" s="31"/>
+      <c r="V72" s="31"/>
+      <c r="W72" s="31"/>
+      <c r="X72" s="31"/>
+      <c r="Y72" s="31"/>
+      <c r="Z72" s="42"/>
+    </row>
+    <row r="73" spans="14:23">
+      <c r="N73" s="45"/>
+      <c r="O73" s="29"/>
+      <c r="P73" s="36"/>
+      <c r="Q73" s="36"/>
+      <c r="R73" s="36"/>
+      <c r="S73" s="36"/>
+      <c r="T73" s="36"/>
+      <c r="U73" s="36"/>
+      <c r="V73" s="52"/>
+      <c r="W73" s="57"/>
+    </row>
+    <row r="74" spans="14:23">
+      <c r="N74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="38"/>
+    </row>
+    <row r="75" spans="14:23">
+      <c r="N75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="38"/>
+    </row>
+    <row r="76" spans="14:23">
+      <c r="N76" s="47"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="31"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+      <c r="T76" s="31"/>
+      <c r="U76" s="31"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="38"/>
+    </row>
+    <row r="77" spans="13:23">
+      <c r="M77" s="49"/>
+      <c r="N77" s="44"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="38"/>
+    </row>
+    <row r="78" spans="14:23">
+      <c r="N78" s="44"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="38"/>
+    </row>
+    <row r="79" spans="14:23">
+      <c r="N79" s="44"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="38"/>
+    </row>
+    <row r="80" spans="14:23">
+      <c r="N80" s="44"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="38"/>
+    </row>
+    <row r="81" spans="14:23">
+      <c r="N81" s="44"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="38"/>
+    </row>
+    <row r="82" spans="14:23">
+      <c r="N82" s="44"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="38"/>
+    </row>
+    <row r="83" spans="14:23">
+      <c r="N83" s="44"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="38"/>
+    </row>
+    <row r="84" spans="11:23">
+      <c r="K84" s="50"/>
+      <c r="N84" s="44"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="38"/>
+    </row>
+    <row r="85" spans="14:23">
+      <c r="N85" s="44"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="38"/>
+    </row>
+    <row r="86" spans="14:23">
+      <c r="N86" s="44"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="38"/>
+    </row>
+    <row r="87" spans="14:23">
+      <c r="N87" s="44"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="38"/>
+    </row>
+    <row r="88" spans="14:23">
+      <c r="N88" s="44"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="38"/>
+    </row>
+    <row r="89" spans="14:23">
+      <c r="N89" s="51"/>
+      <c r="O89" s="52"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="36"/>
+      <c r="R89" s="58"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="38"/>
+    </row>
+    <row r="90" spans="14:23">
+      <c r="N90" s="51"/>
+      <c r="O90" s="47"/>
+      <c r="P90" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q90" s="31"/>
+      <c r="R90" s="59"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="38"/>
+    </row>
+    <row r="91" spans="13:23">
+      <c r="M91" s="49"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="53"/>
+      <c r="Q91" s="31"/>
+      <c r="R91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="38"/>
+    </row>
+    <row r="92" spans="22:23">
+      <c r="V92" s="46"/>
+      <c r="W92" s="38"/>
+    </row>
+    <row r="93" spans="22:23">
+      <c r="V93" s="46"/>
+      <c r="W93" s="38"/>
+    </row>
+    <row r="94" spans="22:23">
+      <c r="V94" s="46"/>
+      <c r="W94" s="38"/>
+    </row>
+    <row r="95" spans="2:23">
+      <c r="B95" s="34"/>
+      <c r="U95" s="45"/>
+      <c r="V95" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="W95" s="60"/>
+    </row>
+    <row r="96" spans="2:23">
+      <c r="B96" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U96" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="V96" s="55"/>
+      <c r="W96" s="60"/>
+    </row>
+    <row r="97" spans="2:23">
+      <c r="B97" s="44"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="55"/>
+      <c r="W97" s="60"/>
+    </row>
+    <row r="98" spans="1:23">
+      <c r="A98" s="45"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="29"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="55"/>
+      <c r="W98" s="60"/>
+    </row>
+    <row r="99" spans="1:23">
+      <c r="A99" s="46"/>
+      <c r="V99" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="W99" s="62"/>
+    </row>
+    <row r="100" spans="1:23">
+      <c r="A100" s="47"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31"/>
+      <c r="P100" s="31"/>
+      <c r="Q100" s="31"/>
+      <c r="R100" s="31"/>
+      <c r="S100" s="31"/>
+      <c r="T100" s="31"/>
+      <c r="U100" s="31"/>
+      <c r="V100" s="62"/>
+      <c r="W100" s="62"/>
+    </row>
+    <row r="101" spans="22:23">
+      <c r="V101" s="62"/>
+      <c r="W101" s="62"/>
+    </row>
+    <row r="102" spans="22:23">
+      <c r="V102" s="62"/>
+      <c r="W102" s="62"/>
+    </row>
+    <row r="103" spans="22:23">
+      <c r="V103" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="W103" s="63"/>
+    </row>
+    <row r="104" spans="22:23">
+      <c r="V104" s="63"/>
+      <c r="W104" s="63"/>
+    </row>
+    <row r="105" spans="22:23">
+      <c r="V105" s="63"/>
+      <c r="W105" s="63"/>
+    </row>
+    <row r="106" spans="22:23">
+      <c r="V106" s="63"/>
+      <c r="W106" s="63"/>
+    </row>
+    <row r="107" spans="22:23">
+      <c r="V107" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="W107" s="63"/>
+    </row>
+    <row r="108" spans="22:23">
+      <c r="V108" s="63"/>
+      <c r="W108" s="63"/>
+    </row>
+    <row r="109" spans="22:23">
+      <c r="V109" s="63"/>
+      <c r="W109" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="V95:W98"/>
+    <mergeCell ref="V99:W102"/>
+    <mergeCell ref="V103:W106"/>
+    <mergeCell ref="V107:W109"/>
+    <mergeCell ref="U65:W66"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
@@ -9659,7 +10631,7 @@
   <sheetPr/>
   <dimension ref="A5:BD177"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="S144" sqref="S144"/>
     </sheetView>
   </sheetViews>
@@ -9672,7 +10644,7 @@
     <row r="15" ht="14.75"/>
     <row r="16" ht="14.75" spans="14:22">
       <c r="N16" s="4" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
@@ -9742,7 +10714,7 @@
     <row r="44" ht="14.75"/>
     <row r="45" ht="14.75" spans="20:29">
       <c r="T45" s="8" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
@@ -10049,7 +11021,7 @@
     <row r="72" ht="14.75"/>
     <row r="73" ht="14.75" spans="5:18">
       <c r="E73" s="8" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
@@ -10418,7 +11390,7 @@
       <c r="BA116" s="18"/>
       <c r="BB116" s="3"/>
       <c r="BC116" s="19" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="BD116" s="20"/>
     </row>
@@ -10426,7 +11398,7 @@
       <c r="AD117" s="3"/>
       <c r="BB117" s="3"/>
       <c r="BC117" s="21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="BD117" s="22"/>
     </row>
@@ -10440,7 +11412,7 @@
       <c r="AD119" s="3"/>
       <c r="BB119" s="3"/>
       <c r="BC119" s="21" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="BD119" s="22"/>
     </row>
@@ -10448,7 +11420,7 @@
       <c r="AD120" s="3"/>
       <c r="BB120" s="3"/>
       <c r="BC120" s="21" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="BD120" s="22"/>
     </row>
@@ -10502,7 +11474,7 @@
       <c r="AD125" s="3"/>
       <c r="BB125" s="3"/>
       <c r="BC125" s="21" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="BD125" s="22"/>
     </row>
@@ -10623,7 +11595,7 @@
     <row r="145" ht="14.75" spans="30:56">
       <c r="AD145" s="3"/>
       <c r="AM145" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="BB145" s="3"/>
       <c r="BC145" s="21"/>
@@ -10734,10 +11706,10 @@
     <row r="159" ht="14.75" spans="30:54">
       <c r="AD159" s="3"/>
       <c r="AK159" s="24" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="AU159" s="24" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="BB159" s="3"/>
     </row>
@@ -10840,7 +11812,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
